--- a/DataRepo/data/tests/submission_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/Temporary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF216803-0AB9-C04B-8DEE-C5666C183EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2DAE6603-A063-C044-95E9-2785AE76A6F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -26,16 +26,8 @@
     <sheet name="Sequences" sheetId="10" r:id="rId11"/>
     <sheet name="Defaults" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -44,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="524">
   <si>
     <t>Animal ID</t>
   </si>
@@ -1558,63 +1550,12 @@
     <t>Sequence Number</t>
   </si>
   <si>
-    <t>Researcher</t>
-  </si>
-  <si>
-    <t>Peak Annotation Format</t>
-  </si>
-  <si>
-    <t>Sequence Date</t>
-  </si>
-  <si>
-    <t>LC Protocol Name</t>
-  </si>
-  <si>
     <t>Skip</t>
   </si>
   <si>
-    <t>Researchers Confirmed</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>polar-HILIC-25-min</t>
-  </si>
-  <si>
     <t>2020-11-01</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>The default researcher will be used for both the animal owner and the LCMS Operator</t>
-  </si>
-  <si>
-    <t>Set to "True" after warnings about potential spelling variations are addressed</t>
-  </si>
-  <si>
-    <t>The default format when not explicitly set in the Peak Annotations tab</t>
-  </si>
-  <si>
-    <t>The default polarity when not explicitly set in the Sequences tab</t>
-  </si>
-  <si>
-    <t>The default date when not explicitly set in the Sequences tab</t>
-  </si>
-  <si>
-    <t>The default LC protocol when not explicitly set in the Sequences tab (note, this can only be used for existing protocols - novel protocols must be fully defined in the Sequences tab)</t>
-  </si>
-  <si>
-    <t>Default instrument when not explicitly set in the Sequences tab</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -1649,6 +1590,24 @@
   </si>
   <si>
     <t>isoleucine-[13C6,15N1]</t>
+  </si>
+  <si>
+    <t>Sheet Name</t>
+  </si>
+  <si>
+    <t>Column Header</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Sequences</t>
+  </si>
+  <si>
+    <t>Peak Annotation Files</t>
+  </si>
+  <si>
+    <t>Peak Annotation Details</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1618,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1671,19 +1630,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1705,7 +1664,15 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1732,7 +1699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1757,9 +1724,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2158,7 +2124,7 @@
         <v>258</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>213</v>
@@ -2173,7 +2139,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>257</v>
       </c>
@@ -5391,7 +5357,7 @@
         <v>502</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -5456,112 +5422,123 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="69.6640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>515</v>
+      <c r="B3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>517</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>519</v>
+      <c r="A6" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="15">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>499</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5569,7 +5546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -9012,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -22678,7 +22655,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22726,13 +22703,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -22743,13 +22720,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -22760,13 +22737,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -22814,7 +22791,7 @@
         <v>268</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -22905,7 +22882,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>271</v>
@@ -22917,7 +22894,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -22925,7 +22902,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>272</v>
@@ -22937,7 +22914,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -22945,7 +22922,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>271</v>
@@ -22957,7 +22934,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -22965,7 +22942,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>272</v>
@@ -22977,7 +22954,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -22985,7 +22962,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>271</v>
@@ -22997,7 +22974,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -23005,7 +22982,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>272</v>
@@ -23017,7 +22994,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
@@ -23269,7 +23246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -23286,7 +23265,7 @@
         <v>333</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/submission_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2DAE6603-A063-C044-95E9-2785AE76A6F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F00493-EBE8-D445-A1DC-16A9520B61DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -24,10 +24,22 @@
     <sheet name="Peak Annotation Files" sheetId="12" r:id="rId9"/>
     <sheet name="Peak Annotation Details" sheetId="9" r:id="rId10"/>
     <sheet name="Sequences" sheetId="10" r:id="rId11"/>
-    <sheet name="Defaults" sheetId="11" r:id="rId12"/>
+    <sheet name="LC Protocols" sheetId="13" r:id="rId12"/>
+    <sheet name="Defaults" sheetId="11" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -36,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="530">
   <si>
     <t>Animal ID</t>
   </si>
@@ -1049,9 +1061,6 @@
     <t>LC Protocol</t>
   </si>
   <si>
-    <t>LC Run Length</t>
-  </si>
-  <si>
     <t>xzl1_brain.mzXML</t>
   </si>
   <si>
@@ -1544,12 +1553,6 @@
     <t>Polarity</t>
   </si>
   <si>
-    <t>LC Description</t>
-  </si>
-  <si>
-    <t>Sequence Number</t>
-  </si>
-  <si>
     <t>Skip</t>
   </si>
   <si>
@@ -1608,6 +1611,33 @@
   </si>
   <si>
     <t>Peak Annotation Details</t>
+  </si>
+  <si>
+    <t>polar-HILIC-25-min</t>
+  </si>
+  <si>
+    <t>Polar HILIC is the way to go!</t>
+  </si>
+  <si>
+    <t>LC Protocol Name</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>QE2</t>
+  </si>
+  <si>
+    <t>Xianfeng Zeng, polar-HILIC-25-min, QE2, 6/8/2021</t>
+  </si>
+  <si>
+    <t>Xianfeng Zeng, polar-HILIC-25-min, QE2, 10/19/2021</t>
+  </si>
+  <si>
+    <t>Xianfeng Zeng, polar-HILIC-25-min, QE2, 7/22/2020</t>
+  </si>
+  <si>
+    <t>Run Length</t>
   </si>
 </sst>
 </file>
@@ -1679,15 +1709,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1695,11 +1731,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD4D4D4"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD4D4D4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD4D4D4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD4D4D4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1726,6 +1777,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1799,6 +1856,11 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFD4D4D4"/>
+      <color rgb="FFEDEDED"/>
+      <color rgb="FFC6C6C6"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1812,9 +1874,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1852,7 +1914,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1958,7 +2020,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2100,7 +2162,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2124,7 +2186,7 @@
         <v>258</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>213</v>
@@ -2139,7 +2201,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>257</v>
       </c>
@@ -2157,7 +2219,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2167,11 +2229,10 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2184,15 +2245,12 @@
       <c r="D1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -2200,19 +2258,16 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -2220,19 +2275,16 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -2240,19 +2292,16 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
@@ -2260,19 +2309,16 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -2280,19 +2326,16 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E6" t="s">
-        <v>498</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -2300,19 +2343,16 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
-        <v>498</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -2320,19 +2360,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E8" t="s">
-        <v>498</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -2340,19 +2377,16 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
-        <v>498</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -2360,19 +2394,16 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E10" t="s">
-        <v>498</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>56</v>
       </c>
@@ -2380,19 +2411,16 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
-        <v>498</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
@@ -2400,19 +2428,16 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E12" t="s">
-        <v>498</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -2420,19 +2445,16 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E13" t="s">
-        <v>498</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -2440,19 +2462,16 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E14" t="s">
-        <v>498</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
@@ -2460,19 +2479,16 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E15" t="s">
-        <v>498</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
@@ -2480,19 +2496,16 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
@@ -2500,19 +2513,16 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E17" t="s">
-        <v>498</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
@@ -2520,19 +2530,16 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E18" t="s">
-        <v>498</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
@@ -2540,19 +2547,16 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E19" t="s">
-        <v>498</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
@@ -2560,19 +2564,16 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E20" t="s">
-        <v>498</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -2580,19 +2581,16 @@
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E21" t="s">
-        <v>498</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
@@ -2600,19 +2598,16 @@
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E22" t="s">
-        <v>498</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -2620,19 +2615,16 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E23" t="s">
-        <v>498</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -2640,19 +2632,16 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E24" t="s">
-        <v>498</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
@@ -2660,19 +2649,16 @@
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E25" t="s">
-        <v>498</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
@@ -2680,19 +2666,16 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E26" t="s">
-        <v>498</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>76</v>
       </c>
@@ -2700,19 +2683,16 @@
         <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E27" t="s">
-        <v>498</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
@@ -2720,19 +2700,16 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E28" t="s">
-        <v>498</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>78</v>
       </c>
@@ -2740,19 +2717,16 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E29" t="s">
-        <v>498</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>79</v>
       </c>
@@ -2760,19 +2734,16 @@
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E30" t="s">
-        <v>498</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>80</v>
       </c>
@@ -2780,19 +2751,16 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E31" t="s">
-        <v>498</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
@@ -2800,19 +2768,16 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E32" t="s">
-        <v>498</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>82</v>
       </c>
@@ -2820,19 +2785,16 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E33" t="s">
-        <v>498</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>83</v>
       </c>
@@ -2840,19 +2802,16 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E34" t="s">
-        <v>498</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -2860,19 +2819,16 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E35" t="s">
-        <v>498</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
@@ -2880,19 +2836,16 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E36" t="s">
-        <v>498</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -2900,19 +2853,16 @@
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E37" t="s">
-        <v>498</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -2920,19 +2870,16 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E38" t="s">
-        <v>498</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
@@ -2940,19 +2887,16 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E39" t="s">
-        <v>498</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>89</v>
       </c>
@@ -2960,19 +2904,16 @@
         <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E40" t="s">
-        <v>498</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2980,19 +2921,16 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E41" t="s">
-        <v>498</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>91</v>
       </c>
@@ -3000,19 +2938,16 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E42" t="s">
-        <v>498</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>92</v>
       </c>
@@ -3020,19 +2955,16 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E43" t="s">
-        <v>498</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>93</v>
       </c>
@@ -3040,19 +2972,16 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D44" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E44" t="s">
-        <v>498</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>94</v>
       </c>
@@ -3060,19 +2989,16 @@
         <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E45" t="s">
-        <v>498</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>95</v>
       </c>
@@ -3080,19 +3006,16 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D46" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E46" t="s">
-        <v>498</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>96</v>
       </c>
@@ -3100,19 +3023,16 @@
         <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E47" t="s">
-        <v>498</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -3120,19 +3040,16 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E48" t="s">
-        <v>498</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>98</v>
       </c>
@@ -3140,19 +3057,16 @@
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D49" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E49" t="s">
-        <v>498</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
@@ -3160,19 +3074,16 @@
         <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E50" t="s">
-        <v>498</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
@@ -3180,19 +3091,16 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D51" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E51" t="s">
-        <v>498</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>101</v>
       </c>
@@ -3200,19 +3108,16 @@
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D52" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E52" t="s">
-        <v>498</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>102</v>
       </c>
@@ -3220,19 +3125,16 @@
         <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D53" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E53" t="s">
-        <v>498</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>103</v>
       </c>
@@ -3240,19 +3142,16 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E54" t="s">
-        <v>498</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>104</v>
       </c>
@@ -3260,19 +3159,16 @@
         <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D55" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E55" t="s">
-        <v>498</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
@@ -3280,19 +3176,16 @@
         <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E56" t="s">
-        <v>498</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>106</v>
       </c>
@@ -3300,19 +3193,16 @@
         <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E57" t="s">
-        <v>498</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>107</v>
       </c>
@@ -3320,19 +3210,16 @@
         <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E58" t="s">
-        <v>498</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>108</v>
       </c>
@@ -3340,19 +3227,16 @@
         <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D59" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E59" t="s">
-        <v>498</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>109</v>
       </c>
@@ -3360,19 +3244,16 @@
         <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D60" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E60" t="s">
-        <v>498</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>110</v>
       </c>
@@ -3380,19 +3261,16 @@
         <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E61" t="s">
-        <v>498</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>111</v>
       </c>
@@ -3400,19 +3278,16 @@
         <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D62" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E62" t="s">
-        <v>498</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>112</v>
       </c>
@@ -3420,19 +3295,16 @@
         <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D63" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
@@ -3440,19 +3312,16 @@
         <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D64" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E64" t="s">
-        <v>498</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>114</v>
       </c>
@@ -3460,19 +3329,16 @@
         <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E65" t="s">
-        <v>498</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>115</v>
       </c>
@@ -3480,19 +3346,16 @@
         <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D66" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E66" t="s">
-        <v>498</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>116</v>
       </c>
@@ -3500,19 +3363,16 @@
         <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D67" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E67" t="s">
-        <v>498</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>117</v>
       </c>
@@ -3520,19 +3380,16 @@
         <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E68" t="s">
-        <v>498</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>118</v>
       </c>
@@ -3540,19 +3397,16 @@
         <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D69" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E69" t="s">
-        <v>498</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>119</v>
       </c>
@@ -3560,19 +3414,16 @@
         <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D70" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E70" t="s">
-        <v>498</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>120</v>
       </c>
@@ -3580,19 +3431,16 @@
         <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E71" t="s">
-        <v>498</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>121</v>
       </c>
@@ -3600,19 +3448,16 @@
         <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D72" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E72" t="s">
-        <v>498</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -3620,19 +3465,16 @@
         <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D73" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E73" t="s">
-        <v>498</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -3640,19 +3482,16 @@
         <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D74" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E74" t="s">
-        <v>498</v>
-      </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -3660,19 +3499,16 @@
         <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D75" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E75" t="s">
-        <v>498</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>125</v>
       </c>
@@ -3680,19 +3516,16 @@
         <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E76" t="s">
-        <v>498</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>126</v>
       </c>
@@ -3700,19 +3533,16 @@
         <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D77" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E77" t="s">
-        <v>498</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>127</v>
       </c>
@@ -3720,19 +3550,16 @@
         <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D78" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E78" t="s">
-        <v>498</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>128</v>
       </c>
@@ -3740,19 +3567,16 @@
         <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D79" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E79" t="s">
-        <v>498</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>129</v>
       </c>
@@ -3760,19 +3584,16 @@
         <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D80" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E80" t="s">
-        <v>498</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>130</v>
       </c>
@@ -3780,19 +3601,16 @@
         <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D81" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E81" t="s">
-        <v>498</v>
-      </c>
-      <c r="F81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>131</v>
       </c>
@@ -3800,19 +3618,16 @@
         <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D82" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E82" t="s">
-        <v>498</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>132</v>
       </c>
@@ -3820,19 +3635,16 @@
         <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D83" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E83" t="s">
-        <v>498</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>133</v>
       </c>
@@ -3840,19 +3652,16 @@
         <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D84" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E84" t="s">
-        <v>498</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>134</v>
       </c>
@@ -3860,19 +3669,16 @@
         <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D85" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E85" t="s">
-        <v>498</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>135</v>
       </c>
@@ -3880,19 +3686,16 @@
         <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E86" t="s">
-        <v>498</v>
-      </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>136</v>
       </c>
@@ -3900,19 +3703,16 @@
         <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D87" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E87" t="s">
-        <v>498</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>137</v>
       </c>
@@ -3920,19 +3720,16 @@
         <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D88" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E88" t="s">
-        <v>498</v>
-      </c>
-      <c r="F88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>138</v>
       </c>
@@ -3940,19 +3737,16 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D89" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E89" t="s">
-        <v>498</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>139</v>
       </c>
@@ -3960,19 +3754,16 @@
         <v>139</v>
       </c>
       <c r="C90" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E90" t="s">
-        <v>498</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>140</v>
       </c>
@@ -3980,19 +3771,16 @@
         <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D91" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E91" t="s">
-        <v>498</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>141</v>
       </c>
@@ -4000,19 +3788,16 @@
         <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D92" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E92" t="s">
-        <v>498</v>
-      </c>
-      <c r="F92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>142</v>
       </c>
@@ -4020,19 +3805,16 @@
         <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D93" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E93" t="s">
-        <v>498</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>143</v>
       </c>
@@ -4040,19 +3822,16 @@
         <v>143</v>
       </c>
       <c r="C94" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D94" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E94" t="s">
-        <v>498</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>144</v>
       </c>
@@ -4060,19 +3839,16 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D95" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E95" t="s">
-        <v>498</v>
-      </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>145</v>
       </c>
@@ -4080,19 +3856,16 @@
         <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D96" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E96" t="s">
-        <v>498</v>
-      </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>146</v>
       </c>
@@ -4100,19 +3873,16 @@
         <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D97" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E97" t="s">
-        <v>498</v>
-      </c>
-      <c r="F97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>147</v>
       </c>
@@ -4120,19 +3890,16 @@
         <v>147</v>
       </c>
       <c r="C98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D98" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E98" t="s">
-        <v>498</v>
-      </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>148</v>
       </c>
@@ -4140,19 +3907,16 @@
         <v>148</v>
       </c>
       <c r="C99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D99" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E99" t="s">
-        <v>498</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>149</v>
       </c>
@@ -4160,19 +3924,16 @@
         <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D100" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E100" t="s">
-        <v>498</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>151</v>
       </c>
@@ -4180,19 +3941,16 @@
         <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D101" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E101" t="s">
-        <v>498</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>152</v>
       </c>
@@ -4200,19 +3958,16 @@
         <v>152</v>
       </c>
       <c r="C102" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D102" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E102" t="s">
-        <v>498</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>153</v>
       </c>
@@ -4220,19 +3975,16 @@
         <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D103" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E103" t="s">
-        <v>498</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>154</v>
       </c>
@@ -4240,19 +3992,16 @@
         <v>154</v>
       </c>
       <c r="C104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D104" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E104" t="s">
-        <v>498</v>
-      </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>155</v>
       </c>
@@ -4260,19 +4009,16 @@
         <v>155</v>
       </c>
       <c r="C105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D105" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E105" t="s">
-        <v>498</v>
-      </c>
-      <c r="F105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>156</v>
       </c>
@@ -4280,19 +4026,16 @@
         <v>156</v>
       </c>
       <c r="C106" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D106" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E106" t="s">
-        <v>498</v>
-      </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>157</v>
       </c>
@@ -4300,19 +4043,16 @@
         <v>157</v>
       </c>
       <c r="C107" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D107" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E107" t="s">
-        <v>498</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>158</v>
       </c>
@@ -4320,19 +4060,16 @@
         <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D108" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E108" t="s">
-        <v>498</v>
-      </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>159</v>
       </c>
@@ -4340,19 +4077,16 @@
         <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D109" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E109" t="s">
-        <v>498</v>
-      </c>
-      <c r="F109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>161</v>
       </c>
@@ -4360,19 +4094,16 @@
         <v>161</v>
       </c>
       <c r="C110" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D110" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E110" t="s">
-        <v>498</v>
-      </c>
-      <c r="F110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>163</v>
       </c>
@@ -4380,19 +4111,16 @@
         <v>163</v>
       </c>
       <c r="C111" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D111" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E111" t="s">
-        <v>498</v>
-      </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>164</v>
       </c>
@@ -4400,19 +4128,16 @@
         <v>164</v>
       </c>
       <c r="C112" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D112" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E112" t="s">
-        <v>498</v>
-      </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>165</v>
       </c>
@@ -4420,19 +4145,16 @@
         <v>165</v>
       </c>
       <c r="C113" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D113" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E113" t="s">
-        <v>498</v>
-      </c>
-      <c r="F113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>166</v>
       </c>
@@ -4440,19 +4162,16 @@
         <v>166</v>
       </c>
       <c r="C114" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D114" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E114" t="s">
-        <v>498</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>167</v>
       </c>
@@ -4460,19 +4179,16 @@
         <v>167</v>
       </c>
       <c r="C115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D115" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E115" t="s">
-        <v>498</v>
-      </c>
-      <c r="F115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>168</v>
       </c>
@@ -4480,19 +4196,16 @@
         <v>168</v>
       </c>
       <c r="C116" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D116" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E116" t="s">
-        <v>498</v>
-      </c>
-      <c r="F116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>169</v>
       </c>
@@ -4500,19 +4213,16 @@
         <v>169</v>
       </c>
       <c r="C117" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D117" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E117" t="s">
-        <v>498</v>
-      </c>
-      <c r="F117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>170</v>
       </c>
@@ -4520,19 +4230,16 @@
         <v>170</v>
       </c>
       <c r="C118" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D118" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E118" t="s">
-        <v>498</v>
-      </c>
-      <c r="F118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>171</v>
       </c>
@@ -4540,19 +4247,16 @@
         <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D119" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E119" t="s">
-        <v>498</v>
-      </c>
-      <c r="F119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>172</v>
       </c>
@@ -4560,19 +4264,16 @@
         <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D120" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E120" t="s">
-        <v>498</v>
-      </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>173</v>
       </c>
@@ -4580,19 +4281,16 @@
         <v>173</v>
       </c>
       <c r="C121" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D121" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E121" t="s">
-        <v>498</v>
-      </c>
-      <c r="F121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>174</v>
       </c>
@@ -4600,19 +4298,16 @@
         <v>174</v>
       </c>
       <c r="C122" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D122" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E122" t="s">
-        <v>498</v>
-      </c>
-      <c r="F122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>175</v>
       </c>
@@ -4620,19 +4315,16 @@
         <v>175</v>
       </c>
       <c r="C123" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D123" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E123" t="s">
-        <v>498</v>
-      </c>
-      <c r="F123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>176</v>
       </c>
@@ -4640,19 +4332,16 @@
         <v>176</v>
       </c>
       <c r="C124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D124" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E124" t="s">
-        <v>498</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>177</v>
       </c>
@@ -4660,19 +4349,16 @@
         <v>177</v>
       </c>
       <c r="C125" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D125" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E125" t="s">
-        <v>498</v>
-      </c>
-      <c r="F125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>178</v>
       </c>
@@ -4680,19 +4366,16 @@
         <v>178</v>
       </c>
       <c r="C126" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D126" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E126" t="s">
-        <v>498</v>
-      </c>
-      <c r="F126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>179</v>
       </c>
@@ -4700,19 +4383,16 @@
         <v>179</v>
       </c>
       <c r="C127" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D127" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E127" t="s">
-        <v>498</v>
-      </c>
-      <c r="F127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>180</v>
       </c>
@@ -4720,19 +4400,16 @@
         <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D128" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E128" t="s">
-        <v>498</v>
-      </c>
-      <c r="F128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>181</v>
       </c>
@@ -4740,19 +4417,16 @@
         <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D129" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E129" t="s">
-        <v>498</v>
-      </c>
-      <c r="F129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>182</v>
       </c>
@@ -4760,19 +4434,16 @@
         <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D130" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E130" t="s">
-        <v>498</v>
-      </c>
-      <c r="F130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>183</v>
       </c>
@@ -4780,19 +4451,16 @@
         <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D131" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E131" t="s">
-        <v>498</v>
-      </c>
-      <c r="F131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>184</v>
       </c>
@@ -4800,19 +4468,16 @@
         <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D132" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E132" t="s">
-        <v>498</v>
-      </c>
-      <c r="F132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>185</v>
       </c>
@@ -4820,19 +4485,16 @@
         <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D133" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E133" t="s">
-        <v>498</v>
-      </c>
-      <c r="F133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>186</v>
       </c>
@@ -4840,19 +4502,16 @@
         <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D134" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E134" t="s">
-        <v>498</v>
-      </c>
-      <c r="F134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>187</v>
       </c>
@@ -4860,19 +4519,16 @@
         <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D135" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E135" t="s">
-        <v>498</v>
-      </c>
-      <c r="F135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>188</v>
       </c>
@@ -4880,19 +4536,16 @@
         <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D136" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E136" t="s">
-        <v>498</v>
-      </c>
-      <c r="F136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>189</v>
       </c>
@@ -4900,19 +4553,16 @@
         <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D137" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E137" t="s">
-        <v>498</v>
-      </c>
-      <c r="F137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>190</v>
       </c>
@@ -4920,19 +4570,16 @@
         <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D138" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E138" t="s">
-        <v>498</v>
-      </c>
-      <c r="F138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>191</v>
       </c>
@@ -4940,19 +4587,16 @@
         <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D139" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E139" t="s">
-        <v>498</v>
-      </c>
-      <c r="F139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>192</v>
       </c>
@@ -4960,19 +4604,16 @@
         <v>192</v>
       </c>
       <c r="C140" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D140" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E140" t="s">
-        <v>498</v>
-      </c>
-      <c r="F140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>193</v>
       </c>
@@ -4980,19 +4621,16 @@
         <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D141" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E141" t="s">
-        <v>498</v>
-      </c>
-      <c r="F141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>194</v>
       </c>
@@ -5000,19 +4638,16 @@
         <v>194</v>
       </c>
       <c r="C142" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D142" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E142" t="s">
-        <v>498</v>
-      </c>
-      <c r="F142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>195</v>
       </c>
@@ -5020,19 +4655,16 @@
         <v>195</v>
       </c>
       <c r="C143" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D143" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E143" t="s">
-        <v>498</v>
-      </c>
-      <c r="F143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>196</v>
       </c>
@@ -5040,19 +4672,16 @@
         <v>196</v>
       </c>
       <c r="C144" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D144" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E144" t="s">
-        <v>498</v>
-      </c>
-      <c r="F144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>197</v>
       </c>
@@ -5060,19 +4689,16 @@
         <v>197</v>
       </c>
       <c r="C145" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D145" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E145" t="s">
-        <v>498</v>
-      </c>
-      <c r="F145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>198</v>
       </c>
@@ -5080,19 +4706,16 @@
         <v>198</v>
       </c>
       <c r="C146" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E146" t="s">
-        <v>498</v>
-      </c>
-      <c r="F146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>199</v>
       </c>
@@ -5100,19 +4723,16 @@
         <v>199</v>
       </c>
       <c r="C147" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D147" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E147" t="s">
-        <v>498</v>
-      </c>
-      <c r="F147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>200</v>
       </c>
@@ -5120,19 +4740,16 @@
         <v>200</v>
       </c>
       <c r="C148" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D148" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E148" t="s">
-        <v>498</v>
-      </c>
-      <c r="F148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>201</v>
       </c>
@@ -5140,19 +4757,16 @@
         <v>201</v>
       </c>
       <c r="C149" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D149" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E149" t="s">
-        <v>498</v>
-      </c>
-      <c r="F149">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>202</v>
       </c>
@@ -5160,19 +4774,16 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D150" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E150" t="s">
-        <v>498</v>
-      </c>
-      <c r="F150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>203</v>
       </c>
@@ -5180,19 +4791,16 @@
         <v>203</v>
       </c>
       <c r="C151" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D151" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E151" t="s">
-        <v>498</v>
-      </c>
-      <c r="F151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>204</v>
       </c>
@@ -5200,19 +4808,16 @@
         <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D152" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E152" t="s">
-        <v>498</v>
-      </c>
-      <c r="F152">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>205</v>
       </c>
@@ -5220,19 +4825,16 @@
         <v>205</v>
       </c>
       <c r="C153" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D153" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E153" t="s">
-        <v>498</v>
-      </c>
-      <c r="F153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>206</v>
       </c>
@@ -5240,19 +4842,16 @@
         <v>206</v>
       </c>
       <c r="C154" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D154" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E154" t="s">
-        <v>498</v>
-      </c>
-      <c r="F154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>207</v>
       </c>
@@ -5260,19 +4859,16 @@
         <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D155" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E155" t="s">
-        <v>498</v>
-      </c>
-      <c r="F155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>208</v>
       </c>
@@ -5280,19 +4876,16 @@
         <v>208</v>
       </c>
       <c r="C156" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D156" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E156" t="s">
-        <v>498</v>
-      </c>
-      <c r="F156">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>209</v>
       </c>
@@ -5300,124 +4893,116 @@
         <v>209</v>
       </c>
       <c r="C157" t="s">
+        <v>492</v>
+      </c>
+      <c r="D157" t="s">
         <v>493</v>
       </c>
-      <c r="D157" t="s">
-        <v>494</v>
-      </c>
       <c r="E157" t="s">
-        <v>498</v>
-      </c>
-      <c r="F157">
-        <v>3</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98B7CB3E-67C8-1C41-B282-92397C45008F}">
+          <x14:formula1>
+            <xm:f>Sequences!$A$2:$A$10000</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576 A1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.83203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="46.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>524</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>523</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+        <v>331</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>526</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" s="7">
         <v>44355</v>
       </c>
-      <c r="D2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>527</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E3" s="7">
         <v>44488</v>
       </c>
-      <c r="D3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>528</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E4" s="7">
         <v>44034</v>
-      </c>
-      <c r="D4" t="s">
-        <v>499</v>
-      </c>
-      <c r="E4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5427,8 +5012,65 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC6B7B7-1799-7447-8892-685572B624F5}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="15">
+        <v>25</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5436,23 +5078,23 @@
   <cols>
     <col min="1" max="1" width="20.83203125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>332</v>
@@ -5463,77 +5105,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>331</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>521</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>499</v>
+      <c r="C7" s="15" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -8989,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -22655,7 +22277,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22703,13 +22325,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -22720,13 +22342,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -22737,13 +22359,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -22758,7 +22380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F6D56-CCFC-AC49-A2E8-14B9C4C2FDA8}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -22791,7 +22415,7 @@
         <v>268</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -22882,7 +22506,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>271</v>
@@ -22894,7 +22518,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -22902,7 +22526,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>272</v>
@@ -22914,7 +22538,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -22922,7 +22546,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>271</v>
@@ -22934,7 +22558,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -22942,7 +22566,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>272</v>
@@ -22954,7 +22578,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -22962,7 +22586,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>271</v>
@@ -22974,7 +22598,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -22982,7 +22606,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>272</v>
@@ -22994,7 +22618,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
@@ -23265,31 +22889,31 @@
         <v>333</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/data/tests/submission_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F00493-EBE8-D445-A1DC-16A9520B61DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7195079-C4D0-F042-B21A-86633CBA892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="532">
   <si>
     <t>Animal ID</t>
   </si>
@@ -1638,6 +1638,12 @@
   </si>
   <si>
     <t>Run Length</t>
+  </si>
+  <si>
+    <t>glutamine-[13C5,15N2][200]</t>
+  </si>
+  <si>
+    <t>alanine-[13C3,15N1][180]</t>
   </si>
 </sst>
 </file>
@@ -5072,7 +5078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5168,7 +5174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -5177,7 +5183,7 @@
   <cols>
     <col min="2" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
@@ -5237,7 +5243,7 @@
         <v>26.4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>530</v>
       </c>
       <c r="G2" s="4">
         <v>0.1</v>
@@ -5272,7 +5278,7 @@
         <v>27.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>530</v>
       </c>
       <c r="G3" s="4">
         <v>0.1</v>
@@ -5307,7 +5313,7 @@
         <v>27.1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>530</v>
       </c>
       <c r="G4" s="4">
         <v>0.1</v>
@@ -5342,7 +5348,7 @@
         <v>42.6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>530</v>
       </c>
       <c r="G5" s="4">
         <v>7.0999999999999994E-2</v>
@@ -5377,7 +5383,7 @@
         <v>44.1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>530</v>
       </c>
       <c r="G6" s="4">
         <v>6.8000000000000005E-2</v>
@@ -5412,7 +5418,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>530</v>
       </c>
       <c r="G7" s="4">
         <v>6.5000000000000002E-2</v>
@@ -5447,7 +5453,7 @@
         <v>27.5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>531</v>
       </c>
       <c r="G8" s="4">
         <v>0.1</v>
@@ -5482,7 +5488,7 @@
         <v>27.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>531</v>
       </c>
       <c r="G9" s="4">
         <v>0.1</v>
@@ -5517,7 +5523,7 @@
         <v>28.4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>531</v>
       </c>
       <c r="G10" s="4">
         <v>0.106</v>
@@ -5552,7 +5558,7 @@
         <v>28.7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>531</v>
       </c>
       <c r="G11" s="4">
         <v>0.105</v>
@@ -5587,7 +5593,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>531</v>
       </c>
       <c r="G12" s="4">
         <v>0.06</v>
@@ -5622,7 +5628,7 @@
         <v>54.3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>26</v>
+        <v>531</v>
       </c>
       <c r="G13" s="4">
         <v>5.5E-2</v>

--- a/DataRepo/data/tests/submission_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7195079-C4D0-F042-B21A-86633CBA892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DCADA0-A873-B34A-812C-ACC89559BB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -2227,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2253,6 +2253,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>524</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="K1" s="14"/>
     </row>
@@ -5174,7 +5177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -8572,11 +8575,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8586,18 +8589,17 @@
     <col min="4" max="4" width="31.5" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="29.5" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
-    <col min="15" max="16" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="15" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -8616,9 +8618,7 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>501</v>
-      </c>
+      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -8628,9 +8628,8 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -8653,15 +8652,14 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -8684,15 +8682,14 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -8715,15 +8712,14 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
@@ -8746,15 +8742,14 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -8777,15 +8772,14 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -8808,15 +8802,14 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -8839,15 +8832,14 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -8870,15 +8862,14 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -8901,15 +8892,14 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>56</v>
       </c>
@@ -8932,15 +8922,14 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
@@ -8963,15 +8952,14 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -8994,15 +8982,14 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -9025,15 +9012,14 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
@@ -9056,15 +9042,14 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
@@ -9087,15 +9072,14 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
@@ -9118,15 +9102,14 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
@@ -9149,15 +9132,14 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
@@ -9180,15 +9162,14 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
@@ -9211,15 +9192,14 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -9242,15 +9222,14 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
@@ -9273,15 +9252,14 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -9304,15 +9282,14 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -9335,15 +9312,14 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
@@ -9366,15 +9342,14 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
@@ -9397,15 +9372,14 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>76</v>
       </c>
@@ -9428,15 +9402,14 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
@@ -9459,15 +9432,14 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>78</v>
       </c>
@@ -9490,15 +9462,14 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>79</v>
       </c>
@@ -9521,15 +9492,14 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>80</v>
       </c>
@@ -9552,15 +9522,14 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
@@ -9583,15 +9552,14 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>82</v>
       </c>
@@ -9614,15 +9582,14 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>83</v>
       </c>
@@ -9645,15 +9612,14 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -9676,15 +9642,14 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
@@ -9707,15 +9672,14 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -9738,15 +9702,14 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -9769,15 +9732,14 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
@@ -9800,15 +9762,14 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>89</v>
       </c>
@@ -9831,15 +9792,14 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>90</v>
       </c>
@@ -9862,15 +9822,14 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>91</v>
       </c>
@@ -9893,15 +9852,14 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>92</v>
       </c>
@@ -9924,15 +9882,14 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
+      <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>93</v>
       </c>
@@ -9955,15 +9912,14 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>94</v>
       </c>
@@ -9986,15 +9942,14 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>95</v>
       </c>
@@ -10017,15 +9972,14 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>96</v>
       </c>
@@ -10048,15 +10002,14 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
+      <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -10079,15 +10032,14 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>98</v>
       </c>
@@ -10110,15 +10062,14 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
@@ -10141,15 +10092,14 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
@@ -10172,15 +10122,14 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
+      <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>101</v>
       </c>
@@ -10203,15 +10152,14 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
+      <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>102</v>
       </c>
@@ -10234,15 +10182,14 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>103</v>
       </c>
@@ -10265,15 +10212,14 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>104</v>
       </c>
@@ -10296,15 +10242,14 @@
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
+      <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
@@ -10327,15 +10272,14 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
+      <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>106</v>
       </c>
@@ -10358,15 +10302,14 @@
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
+      <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>107</v>
       </c>
@@ -10389,15 +10332,14 @@
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
+      <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>108</v>
       </c>
@@ -10420,15 +10362,14 @@
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
+      <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>109</v>
       </c>
@@ -10451,15 +10392,14 @@
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
+      <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
+      <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>110</v>
       </c>
@@ -10482,15 +10422,14 @@
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
+      <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
+      <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>111</v>
       </c>
@@ -10513,15 +10452,14 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>112</v>
       </c>
@@ -10544,15 +10482,14 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
+      <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
@@ -10575,15 +10512,14 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
+      <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
+      <c r="M64" s="8"/>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>114</v>
       </c>
@@ -10606,15 +10542,14 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-    </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>115</v>
       </c>
@@ -10637,15 +10572,14 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
+      <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
+      <c r="M66" s="8"/>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-    </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>116</v>
       </c>
@@ -10668,15 +10602,14 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
+      <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
+      <c r="M67" s="8"/>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>117</v>
       </c>
@@ -10699,15 +10632,14 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
+      <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
+      <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>118</v>
       </c>
@@ -10730,15 +10662,14 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
+      <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
+      <c r="M69" s="8"/>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>119</v>
       </c>
@@ -10761,15 +10692,14 @@
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
+      <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
+      <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>120</v>
       </c>
@@ -10792,15 +10722,14 @@
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
+      <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
+      <c r="M71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-    </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>121</v>
       </c>
@@ -10823,15 +10752,14 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
+      <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
+      <c r="M72" s="8"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-    </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -10854,15 +10782,14 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
+      <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
+      <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-    </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -10885,15 +10812,14 @@
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
+      <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-    </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -10916,15 +10842,14 @@
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
+      <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
+      <c r="M75" s="8"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-    </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>125</v>
       </c>
@@ -10947,15 +10872,14 @@
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
+      <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
+      <c r="M76" s="8"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-    </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>126</v>
       </c>
@@ -10978,15 +10902,14 @@
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
+      <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
+      <c r="M77" s="8"/>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-    </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>127</v>
       </c>
@@ -11009,15 +10932,14 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
+      <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
+      <c r="M78" s="8"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-    </row>
-    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>128</v>
       </c>
@@ -11040,15 +10962,14 @@
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
+      <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
+      <c r="M79" s="8"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-    </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>129</v>
       </c>
@@ -11071,15 +10992,14 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
+      <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
+      <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-    </row>
-    <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>130</v>
       </c>
@@ -11102,15 +11022,14 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+      <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
+      <c r="M81" s="8"/>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-    </row>
-    <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>131</v>
       </c>
@@ -11133,15 +11052,14 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
+      <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
+      <c r="M82" s="8"/>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-    </row>
-    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>132</v>
       </c>
@@ -11164,15 +11082,14 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
+      <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
+      <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-    </row>
-    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>133</v>
       </c>
@@ -11195,15 +11112,14 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
+      <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
+      <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-    </row>
-    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>134</v>
       </c>
@@ -11226,15 +11142,14 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
+      <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
+      <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-    </row>
-    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>135</v>
       </c>
@@ -11257,15 +11172,14 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
+      <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
+      <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-    </row>
-    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>136</v>
       </c>
@@ -11288,15 +11202,14 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
+      <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
+      <c r="M87" s="8"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-    </row>
-    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>137</v>
       </c>
@@ -11319,15 +11232,14 @@
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
+      <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
+      <c r="M88" s="8"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-    </row>
-    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>138</v>
       </c>
@@ -11350,15 +11262,14 @@
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+      <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
+      <c r="M89" s="8"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-    </row>
-    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>139</v>
       </c>
@@ -11381,15 +11292,14 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
+      <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
+      <c r="M90" s="8"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-    </row>
-    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>140</v>
       </c>
@@ -11412,15 +11322,14 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
+      <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
+      <c r="M91" s="8"/>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-    </row>
-    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>141</v>
       </c>
@@ -11443,15 +11352,14 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
+      <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
+      <c r="M92" s="8"/>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-    </row>
-    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>142</v>
       </c>
@@ -11474,15 +11382,14 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
+      <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
+      <c r="M93" s="8"/>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-    </row>
-    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>143</v>
       </c>
@@ -11505,15 +11412,14 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
+      <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
+      <c r="M94" s="8"/>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-    </row>
-    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>144</v>
       </c>
@@ -11536,15 +11442,14 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
+      <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
+      <c r="M95" s="8"/>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-    </row>
-    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>145</v>
       </c>
@@ -11567,15 +11472,14 @@
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
+      <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
+      <c r="M96" s="8"/>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-    </row>
-    <row r="97" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>146</v>
       </c>
@@ -11598,15 +11502,14 @@
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
+      <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
+      <c r="M97" s="8"/>
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-    </row>
-    <row r="98" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>147</v>
       </c>
@@ -11629,15 +11532,14 @@
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
+      <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
+      <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-    </row>
-    <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>148</v>
       </c>
@@ -11660,15 +11562,14 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
+      <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
+      <c r="M99" s="8"/>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-    </row>
-    <row r="100" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>149</v>
       </c>
@@ -11691,15 +11592,14 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
+      <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
+      <c r="M100" s="8"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-    </row>
-    <row r="101" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>151</v>
       </c>
@@ -11722,15 +11622,14 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
+      <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
+      <c r="M101" s="8"/>
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-    </row>
-    <row r="102" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>152</v>
       </c>
@@ -11753,15 +11652,14 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
+      <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
+      <c r="M102" s="8"/>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-    </row>
-    <row r="103" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>153</v>
       </c>
@@ -11784,15 +11682,14 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
+      <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
+      <c r="M103" s="8"/>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-    </row>
-    <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>154</v>
       </c>
@@ -11815,15 +11712,14 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
+      <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
+      <c r="M104" s="8"/>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-    </row>
-    <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>155</v>
       </c>
@@ -11846,15 +11742,14 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
+      <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
+      <c r="M105" s="8"/>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-    </row>
-    <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>156</v>
       </c>
@@ -11877,15 +11772,14 @@
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
+      <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
+      <c r="M106" s="8"/>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-    </row>
-    <row r="107" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>157</v>
       </c>
@@ -11908,15 +11802,14 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
+      <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
+      <c r="M107" s="8"/>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
-    </row>
-    <row r="108" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>158</v>
       </c>
@@ -11939,15 +11832,14 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
+      <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
+      <c r="M108" s="8"/>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
-      <c r="P108" s="8"/>
-    </row>
-    <row r="109" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>159</v>
       </c>
@@ -11970,15 +11862,14 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
+      <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
+      <c r="M109" s="8"/>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-    </row>
-    <row r="110" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>161</v>
       </c>
@@ -12001,15 +11892,14 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
+      <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
+      <c r="M110" s="8"/>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-    </row>
-    <row r="111" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>163</v>
       </c>
@@ -12032,15 +11922,14 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
+      <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
+      <c r="M111" s="8"/>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-    </row>
-    <row r="112" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>164</v>
       </c>
@@ -12063,15 +11952,14 @@
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
+      <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
+      <c r="M112" s="8"/>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
-      <c r="P112" s="8"/>
-    </row>
-    <row r="113" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>165</v>
       </c>
@@ -12094,15 +11982,14 @@
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
+      <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
+      <c r="M113" s="8"/>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-    </row>
-    <row r="114" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>166</v>
       </c>
@@ -12125,15 +12012,14 @@
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
+      <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
+      <c r="M114" s="8"/>
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
-    </row>
-    <row r="115" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>167</v>
       </c>
@@ -12156,15 +12042,14 @@
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
+      <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
+      <c r="M115" s="8"/>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-    </row>
-    <row r="116" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>168</v>
       </c>
@@ -12187,15 +12072,14 @@
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
+      <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
-      <c r="M116" s="9"/>
+      <c r="M116" s="8"/>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
-      <c r="P116" s="8"/>
-    </row>
-    <row r="117" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>169</v>
       </c>
@@ -12218,15 +12102,14 @@
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
+      <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
-      <c r="M117" s="9"/>
+      <c r="M117" s="8"/>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-    </row>
-    <row r="118" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>170</v>
       </c>
@@ -12249,15 +12132,14 @@
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
+      <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
+      <c r="M118" s="8"/>
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-    </row>
-    <row r="119" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>171</v>
       </c>
@@ -12280,15 +12162,14 @@
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
+      <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
+      <c r="M119" s="8"/>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-    </row>
-    <row r="120" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>172</v>
       </c>
@@ -12311,15 +12192,14 @@
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
+      <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
+      <c r="M120" s="8"/>
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-    </row>
-    <row r="121" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>173</v>
       </c>
@@ -12342,15 +12222,14 @@
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
+      <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
+      <c r="M121" s="8"/>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-    </row>
-    <row r="122" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>174</v>
       </c>
@@ -12373,15 +12252,14 @@
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
+      <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
+      <c r="M122" s="8"/>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-    </row>
-    <row r="123" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>175</v>
       </c>
@@ -12404,15 +12282,14 @@
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
+      <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
+      <c r="M123" s="8"/>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-    </row>
-    <row r="124" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>176</v>
       </c>
@@ -12435,15 +12312,14 @@
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
+      <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
+      <c r="M124" s="8"/>
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-    </row>
-    <row r="125" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>177</v>
       </c>
@@ -12466,15 +12342,14 @@
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
+      <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
+      <c r="M125" s="8"/>
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-    </row>
-    <row r="126" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>178</v>
       </c>
@@ -12497,15 +12372,14 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
+      <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
+      <c r="M126" s="8"/>
       <c r="N126" s="8"/>
       <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-    </row>
-    <row r="127" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>179</v>
       </c>
@@ -12528,15 +12402,14 @@
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
+      <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
+      <c r="M127" s="8"/>
       <c r="N127" s="8"/>
       <c r="O127" s="8"/>
-      <c r="P127" s="8"/>
-    </row>
-    <row r="128" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>180</v>
       </c>
@@ -12559,15 +12432,14 @@
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
+      <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
+      <c r="M128" s="8"/>
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-    </row>
-    <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>181</v>
       </c>
@@ -12590,15 +12462,14 @@
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
+      <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
+      <c r="M129" s="8"/>
       <c r="N129" s="8"/>
       <c r="O129" s="8"/>
-      <c r="P129" s="8"/>
-    </row>
-    <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>182</v>
       </c>
@@ -12621,15 +12492,14 @@
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
+      <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
+      <c r="M130" s="8"/>
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
-      <c r="P130" s="8"/>
-    </row>
-    <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>183</v>
       </c>
@@ -12652,15 +12522,14 @@
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
+      <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
+      <c r="M131" s="8"/>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-    </row>
-    <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>184</v>
       </c>
@@ -12683,15 +12552,14 @@
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
+      <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
+      <c r="M132" s="8"/>
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-    </row>
-    <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>185</v>
       </c>
@@ -12714,15 +12582,14 @@
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
+      <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
+      <c r="M133" s="8"/>
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
-      <c r="P133" s="8"/>
-    </row>
-    <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>186</v>
       </c>
@@ -12745,15 +12612,14 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
+      <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
-      <c r="M134" s="9"/>
+      <c r="M134" s="8"/>
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
-      <c r="P134" s="8"/>
-    </row>
-    <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>187</v>
       </c>
@@ -12776,15 +12642,14 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
+      <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
-      <c r="M135" s="9"/>
+      <c r="M135" s="8"/>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
-      <c r="P135" s="8"/>
-    </row>
-    <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>188</v>
       </c>
@@ -12807,15 +12672,14 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
+      <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c r="L136" s="9"/>
-      <c r="M136" s="9"/>
+      <c r="M136" s="8"/>
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
-      <c r="P136" s="8"/>
-    </row>
-    <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>189</v>
       </c>
@@ -12838,15 +12702,14 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
+      <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
-      <c r="M137" s="9"/>
+      <c r="M137" s="8"/>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
-      <c r="P137" s="8"/>
-    </row>
-    <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>190</v>
       </c>
@@ -12869,15 +12732,14 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
+      <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
-      <c r="M138" s="9"/>
+      <c r="M138" s="8"/>
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
-      <c r="P138" s="8"/>
-    </row>
-    <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>191</v>
       </c>
@@ -12900,15 +12762,14 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
+      <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
-      <c r="M139" s="9"/>
+      <c r="M139" s="8"/>
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
-      <c r="P139" s="8"/>
-    </row>
-    <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>192</v>
       </c>
@@ -12931,15 +12792,14 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
+      <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
-      <c r="M140" s="9"/>
+      <c r="M140" s="8"/>
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
-      <c r="P140" s="8"/>
-    </row>
-    <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>193</v>
       </c>
@@ -12962,15 +12822,14 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
+      <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
-      <c r="M141" s="9"/>
+      <c r="M141" s="8"/>
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
-      <c r="P141" s="8"/>
-    </row>
-    <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>194</v>
       </c>
@@ -12993,15 +12852,14 @@
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
+      <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
+      <c r="M142" s="8"/>
       <c r="N142" s="8"/>
       <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-    </row>
-    <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>195</v>
       </c>
@@ -13024,15 +12882,14 @@
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
+      <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
+      <c r="M143" s="8"/>
       <c r="N143" s="8"/>
       <c r="O143" s="8"/>
-      <c r="P143" s="8"/>
-    </row>
-    <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>196</v>
       </c>
@@ -13055,15 +12912,14 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
+      <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
+      <c r="M144" s="8"/>
       <c r="N144" s="8"/>
       <c r="O144" s="8"/>
-      <c r="P144" s="8"/>
-    </row>
-    <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>197</v>
       </c>
@@ -13086,15 +12942,14 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
+      <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
+      <c r="M145" s="8"/>
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
-      <c r="P145" s="8"/>
-    </row>
-    <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>198</v>
       </c>
@@ -13117,15 +12972,14 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
+      <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
+      <c r="M146" s="8"/>
       <c r="N146" s="8"/>
       <c r="O146" s="8"/>
-      <c r="P146" s="8"/>
-    </row>
-    <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>199</v>
       </c>
@@ -13148,15 +13002,14 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
+      <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
-      <c r="M147" s="9"/>
+      <c r="M147" s="8"/>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
-      <c r="P147" s="8"/>
-    </row>
-    <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>200</v>
       </c>
@@ -13179,15 +13032,14 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
+      <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
-      <c r="M148" s="9"/>
+      <c r="M148" s="8"/>
       <c r="N148" s="8"/>
       <c r="O148" s="8"/>
-      <c r="P148" s="8"/>
-    </row>
-    <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>201</v>
       </c>
@@ -13210,15 +13062,14 @@
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
+      <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
+      <c r="M149" s="8"/>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
-      <c r="P149" s="8"/>
-    </row>
-    <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>202</v>
       </c>
@@ -13241,15 +13092,14 @@
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
+      <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
-      <c r="M150" s="9"/>
+      <c r="M150" s="8"/>
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
-      <c r="P150" s="8"/>
-    </row>
-    <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>203</v>
       </c>
@@ -13272,15 +13122,14 @@
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
       <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
+      <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
-      <c r="M151" s="9"/>
+      <c r="M151" s="8"/>
       <c r="N151" s="8"/>
       <c r="O151" s="8"/>
-      <c r="P151" s="8"/>
-    </row>
-    <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>204</v>
       </c>
@@ -13303,15 +13152,14 @@
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
+      <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
-      <c r="M152" s="9"/>
+      <c r="M152" s="8"/>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
-      <c r="P152" s="8"/>
-    </row>
-    <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>205</v>
       </c>
@@ -13334,15 +13182,14 @@
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
+      <c r="J153" s="9"/>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
-      <c r="M153" s="9"/>
+      <c r="M153" s="8"/>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
-      <c r="P153" s="8"/>
-    </row>
-    <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>206</v>
       </c>
@@ -13365,15 +13212,14 @@
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
+      <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
-      <c r="M154" s="9"/>
+      <c r="M154" s="8"/>
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
-      <c r="P154" s="8"/>
-    </row>
-    <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>207</v>
       </c>
@@ -13396,15 +13242,14 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
+      <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
-      <c r="M155" s="9"/>
+      <c r="M155" s="8"/>
       <c r="N155" s="8"/>
       <c r="O155" s="8"/>
-      <c r="P155" s="8"/>
-    </row>
-    <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>208</v>
       </c>
@@ -13427,15 +13272,14 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
+      <c r="J156" s="9"/>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
-      <c r="M156" s="9"/>
+      <c r="M156" s="8"/>
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
-      <c r="P156" s="8"/>
-    </row>
-    <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>209</v>
       </c>
@@ -13458,15 +13302,14 @@
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
+      <c r="J157" s="9"/>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
-      <c r="M157" s="9"/>
+      <c r="M157" s="8"/>
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
-      <c r="P157" s="8"/>
-    </row>
-    <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="8"/>
       <c r="B158" s="10"/>
       <c r="C158" s="8"/>
@@ -13476,15 +13319,14 @@
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
+      <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
-      <c r="M158" s="9"/>
+      <c r="M158" s="8"/>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
-      <c r="P158" s="8"/>
-    </row>
-    <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="159" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="8"/>
       <c r="B159" s="10"/>
       <c r="C159" s="8"/>
@@ -13494,15 +13336,14 @@
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
+      <c r="J159" s="9"/>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
-      <c r="M159" s="9"/>
+      <c r="M159" s="8"/>
       <c r="N159" s="8"/>
       <c r="O159" s="8"/>
-      <c r="P159" s="8"/>
-    </row>
-    <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="160" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="8"/>
       <c r="B160" s="10"/>
       <c r="C160" s="8"/>
@@ -13512,15 +13353,14 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
+      <c r="J160" s="9"/>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
-      <c r="M160" s="9"/>
+      <c r="M160" s="8"/>
       <c r="N160" s="8"/>
       <c r="O160" s="8"/>
-      <c r="P160" s="8"/>
-    </row>
-    <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="8"/>
       <c r="B161" s="10"/>
       <c r="C161" s="8"/>
@@ -13530,15 +13370,14 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
+      <c r="J161" s="9"/>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
-      <c r="M161" s="9"/>
+      <c r="M161" s="8"/>
       <c r="N161" s="8"/>
       <c r="O161" s="8"/>
-      <c r="P161" s="8"/>
-    </row>
-    <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="8"/>
       <c r="B162" s="10"/>
       <c r="C162" s="8"/>
@@ -13548,15 +13387,14 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
+      <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
-      <c r="M162" s="9"/>
+      <c r="M162" s="8"/>
       <c r="N162" s="8"/>
       <c r="O162" s="8"/>
-      <c r="P162" s="8"/>
-    </row>
-    <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="8"/>
       <c r="B163" s="10"/>
       <c r="C163" s="8"/>
@@ -13566,15 +13404,14 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
+      <c r="J163" s="9"/>
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
-      <c r="M163" s="9"/>
+      <c r="M163" s="8"/>
       <c r="N163" s="8"/>
       <c r="O163" s="8"/>
-      <c r="P163" s="8"/>
-    </row>
-    <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="164" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="8"/>
       <c r="B164" s="10"/>
       <c r="C164" s="8"/>
@@ -13584,15 +13421,14 @@
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
+      <c r="J164" s="9"/>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
-      <c r="M164" s="9"/>
+      <c r="M164" s="8"/>
       <c r="N164" s="8"/>
       <c r="O164" s="8"/>
-      <c r="P164" s="8"/>
-    </row>
-    <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="165" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="8"/>
       <c r="B165" s="10"/>
       <c r="C165" s="8"/>
@@ -13602,15 +13438,14 @@
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
+      <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
-      <c r="M165" s="9"/>
+      <c r="M165" s="8"/>
       <c r="N165" s="8"/>
       <c r="O165" s="8"/>
-      <c r="P165" s="8"/>
-    </row>
-    <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="8"/>
       <c r="B166" s="10"/>
       <c r="C166" s="8"/>
@@ -13620,15 +13455,14 @@
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
+      <c r="J166" s="9"/>
       <c r="K166" s="9"/>
       <c r="L166" s="9"/>
-      <c r="M166" s="9"/>
+      <c r="M166" s="8"/>
       <c r="N166" s="8"/>
       <c r="O166" s="8"/>
-      <c r="P166" s="8"/>
-    </row>
-    <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="167" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="8"/>
       <c r="B167" s="10"/>
       <c r="C167" s="8"/>
@@ -13638,15 +13472,14 @@
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
+      <c r="J167" s="9"/>
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
-      <c r="M167" s="9"/>
+      <c r="M167" s="8"/>
       <c r="N167" s="8"/>
       <c r="O167" s="8"/>
-      <c r="P167" s="8"/>
-    </row>
-    <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="168" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="8"/>
       <c r="B168" s="10"/>
       <c r="C168" s="8"/>
@@ -13656,15 +13489,14 @@
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
+      <c r="J168" s="9"/>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
-      <c r="M168" s="9"/>
+      <c r="M168" s="8"/>
       <c r="N168" s="8"/>
       <c r="O168" s="8"/>
-      <c r="P168" s="8"/>
-    </row>
-    <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="169" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="8"/>
       <c r="B169" s="10"/>
       <c r="C169" s="8"/>
@@ -13674,15 +13506,14 @@
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
       <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
+      <c r="J169" s="9"/>
       <c r="K169" s="9"/>
       <c r="L169" s="9"/>
-      <c r="M169" s="9"/>
+      <c r="M169" s="8"/>
       <c r="N169" s="8"/>
       <c r="O169" s="8"/>
-      <c r="P169" s="8"/>
-    </row>
-    <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="170" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="8"/>
       <c r="B170" s="10"/>
       <c r="C170" s="8"/>
@@ -13692,15 +13523,14 @@
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
+      <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
-      <c r="M170" s="9"/>
+      <c r="M170" s="8"/>
       <c r="N170" s="8"/>
       <c r="O170" s="8"/>
-      <c r="P170" s="8"/>
-    </row>
-    <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="171" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="8"/>
       <c r="B171" s="10"/>
       <c r="C171" s="8"/>
@@ -13710,15 +13540,14 @@
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
       <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
+      <c r="J171" s="9"/>
       <c r="K171" s="9"/>
       <c r="L171" s="9"/>
-      <c r="M171" s="9"/>
+      <c r="M171" s="8"/>
       <c r="N171" s="8"/>
       <c r="O171" s="8"/>
-      <c r="P171" s="8"/>
-    </row>
-    <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="172" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="8"/>
       <c r="B172" s="10"/>
       <c r="C172" s="8"/>
@@ -13728,15 +13557,14 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
       <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
+      <c r="J172" s="9"/>
       <c r="K172" s="9"/>
       <c r="L172" s="9"/>
-      <c r="M172" s="9"/>
+      <c r="M172" s="8"/>
       <c r="N172" s="8"/>
       <c r="O172" s="8"/>
-      <c r="P172" s="8"/>
-    </row>
-    <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="8"/>
       <c r="B173" s="10"/>
       <c r="C173" s="8"/>
@@ -13746,15 +13574,14 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
-      <c r="J173" s="8"/>
+      <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
-      <c r="M173" s="9"/>
+      <c r="M173" s="8"/>
       <c r="N173" s="8"/>
       <c r="O173" s="8"/>
-      <c r="P173" s="8"/>
-    </row>
-    <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="174" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="8"/>
       <c r="B174" s="10"/>
       <c r="C174" s="8"/>
@@ -13764,15 +13591,14 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
-      <c r="J174" s="8"/>
+      <c r="J174" s="9"/>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
-      <c r="M174" s="9"/>
+      <c r="M174" s="8"/>
       <c r="N174" s="8"/>
       <c r="O174" s="8"/>
-      <c r="P174" s="8"/>
-    </row>
-    <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="175" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="8"/>
       <c r="B175" s="10"/>
       <c r="C175" s="8"/>
@@ -13782,15 +13608,14 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
       <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
+      <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
-      <c r="M175" s="9"/>
+      <c r="M175" s="8"/>
       <c r="N175" s="8"/>
       <c r="O175" s="8"/>
-      <c r="P175" s="8"/>
-    </row>
-    <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="176" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="8"/>
       <c r="B176" s="10"/>
       <c r="C176" s="8"/>
@@ -13800,15 +13625,14 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
       <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
+      <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
-      <c r="M176" s="9"/>
+      <c r="M176" s="8"/>
       <c r="N176" s="8"/>
       <c r="O176" s="8"/>
-      <c r="P176" s="8"/>
-    </row>
-    <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="177" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="8"/>
       <c r="B177" s="10"/>
       <c r="C177" s="8"/>
@@ -13818,15 +13642,14 @@
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
       <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
+      <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
-      <c r="M177" s="9"/>
+      <c r="M177" s="8"/>
       <c r="N177" s="8"/>
       <c r="O177" s="8"/>
-      <c r="P177" s="8"/>
-    </row>
-    <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="178" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="8"/>
       <c r="B178" s="10"/>
       <c r="C178" s="8"/>
@@ -13836,15 +13659,14 @@
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
+      <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
-      <c r="M178" s="9"/>
+      <c r="M178" s="8"/>
       <c r="N178" s="8"/>
       <c r="O178" s="8"/>
-      <c r="P178" s="8"/>
-    </row>
-    <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="179" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="8"/>
       <c r="B179" s="10"/>
       <c r="C179" s="8"/>
@@ -13854,15 +13676,14 @@
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
-      <c r="J179" s="8"/>
+      <c r="J179" s="9"/>
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
-      <c r="M179" s="9"/>
+      <c r="M179" s="8"/>
       <c r="N179" s="8"/>
       <c r="O179" s="8"/>
-      <c r="P179" s="8"/>
-    </row>
-    <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="180" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="8"/>
       <c r="B180" s="10"/>
       <c r="C180" s="8"/>
@@ -13872,15 +13693,14 @@
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
-      <c r="J180" s="8"/>
+      <c r="J180" s="9"/>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
-      <c r="M180" s="9"/>
+      <c r="M180" s="8"/>
       <c r="N180" s="8"/>
       <c r="O180" s="8"/>
-      <c r="P180" s="8"/>
-    </row>
-    <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="181" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="8"/>
       <c r="B181" s="10"/>
       <c r="C181" s="8"/>
@@ -13890,15 +13710,14 @@
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
+      <c r="J181" s="9"/>
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
-      <c r="M181" s="9"/>
+      <c r="M181" s="8"/>
       <c r="N181" s="8"/>
       <c r="O181" s="8"/>
-      <c r="P181" s="8"/>
-    </row>
-    <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="182" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="8"/>
       <c r="B182" s="10"/>
       <c r="C182" s="8"/>
@@ -13908,15 +13727,14 @@
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
+      <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
-      <c r="M182" s="9"/>
+      <c r="M182" s="8"/>
       <c r="N182" s="8"/>
       <c r="O182" s="8"/>
-      <c r="P182" s="8"/>
-    </row>
-    <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="183" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="8"/>
       <c r="B183" s="10"/>
       <c r="C183" s="8"/>
@@ -13926,15 +13744,14 @@
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
+      <c r="J183" s="9"/>
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
-      <c r="M183" s="9"/>
+      <c r="M183" s="8"/>
       <c r="N183" s="8"/>
       <c r="O183" s="8"/>
-      <c r="P183" s="8"/>
-    </row>
-    <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="184" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="8"/>
       <c r="B184" s="10"/>
       <c r="C184" s="8"/>
@@ -13944,15 +13761,14 @@
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
+      <c r="J184" s="9"/>
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
-      <c r="M184" s="9"/>
+      <c r="M184" s="8"/>
       <c r="N184" s="8"/>
       <c r="O184" s="8"/>
-      <c r="P184" s="8"/>
-    </row>
-    <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="185" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="8"/>
       <c r="B185" s="10"/>
       <c r="C185" s="8"/>
@@ -13962,15 +13778,14 @@
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
+      <c r="J185" s="9"/>
       <c r="K185" s="9"/>
       <c r="L185" s="9"/>
-      <c r="M185" s="9"/>
+      <c r="M185" s="8"/>
       <c r="N185" s="8"/>
       <c r="O185" s="8"/>
-      <c r="P185" s="8"/>
-    </row>
-    <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="186" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="8"/>
       <c r="B186" s="10"/>
       <c r="C186" s="8"/>
@@ -13980,15 +13795,14 @@
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
+      <c r="J186" s="9"/>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
-      <c r="M186" s="9"/>
+      <c r="M186" s="8"/>
       <c r="N186" s="8"/>
       <c r="O186" s="8"/>
-      <c r="P186" s="8"/>
-    </row>
-    <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="187" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="8"/>
       <c r="B187" s="10"/>
       <c r="C187" s="8"/>
@@ -13998,15 +13812,14 @@
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
-      <c r="J187" s="8"/>
+      <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
-      <c r="M187" s="9"/>
+      <c r="M187" s="8"/>
       <c r="N187" s="8"/>
       <c r="O187" s="8"/>
-      <c r="P187" s="8"/>
-    </row>
-    <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="188" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="8"/>
       <c r="B188" s="10"/>
       <c r="C188" s="8"/>
@@ -14016,15 +13829,14 @@
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
-      <c r="J188" s="8"/>
+      <c r="J188" s="9"/>
       <c r="K188" s="9"/>
       <c r="L188" s="9"/>
-      <c r="M188" s="9"/>
+      <c r="M188" s="8"/>
       <c r="N188" s="8"/>
       <c r="O188" s="8"/>
-      <c r="P188" s="8"/>
-    </row>
-    <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="189" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="8"/>
       <c r="B189" s="10"/>
       <c r="C189" s="8"/>
@@ -14034,15 +13846,14 @@
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
+      <c r="J189" s="9"/>
       <c r="K189" s="9"/>
       <c r="L189" s="9"/>
-      <c r="M189" s="9"/>
+      <c r="M189" s="8"/>
       <c r="N189" s="8"/>
       <c r="O189" s="8"/>
-      <c r="P189" s="8"/>
-    </row>
-    <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="190" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="8"/>
       <c r="B190" s="10"/>
       <c r="C190" s="8"/>
@@ -14052,15 +13863,14 @@
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
-      <c r="J190" s="8"/>
+      <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="9"/>
-      <c r="M190" s="9"/>
+      <c r="M190" s="8"/>
       <c r="N190" s="8"/>
       <c r="O190" s="8"/>
-      <c r="P190" s="8"/>
-    </row>
-    <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="191" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="8"/>
       <c r="B191" s="10"/>
       <c r="C191" s="8"/>
@@ -14070,15 +13880,14 @@
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
-      <c r="J191" s="8"/>
+      <c r="J191" s="9"/>
       <c r="K191" s="9"/>
       <c r="L191" s="9"/>
-      <c r="M191" s="9"/>
+      <c r="M191" s="8"/>
       <c r="N191" s="8"/>
       <c r="O191" s="8"/>
-      <c r="P191" s="8"/>
-    </row>
-    <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="192" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="8"/>
       <c r="B192" s="10"/>
       <c r="C192" s="8"/>
@@ -14088,15 +13897,14 @@
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
-      <c r="J192" s="8"/>
+      <c r="J192" s="9"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
-      <c r="M192" s="9"/>
+      <c r="M192" s="8"/>
       <c r="N192" s="8"/>
       <c r="O192" s="8"/>
-      <c r="P192" s="8"/>
-    </row>
-    <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="193" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="8"/>
       <c r="B193" s="10"/>
       <c r="C193" s="8"/>
@@ -14106,15 +13914,14 @@
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
-      <c r="J193" s="8"/>
+      <c r="J193" s="9"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
-      <c r="M193" s="9"/>
+      <c r="M193" s="8"/>
       <c r="N193" s="8"/>
       <c r="O193" s="8"/>
-      <c r="P193" s="8"/>
-    </row>
-    <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="194" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="8"/>
       <c r="B194" s="10"/>
       <c r="C194" s="8"/>
@@ -14124,15 +13931,14 @@
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
-      <c r="J194" s="8"/>
+      <c r="J194" s="9"/>
       <c r="K194" s="9"/>
       <c r="L194" s="9"/>
-      <c r="M194" s="9"/>
+      <c r="M194" s="8"/>
       <c r="N194" s="8"/>
       <c r="O194" s="8"/>
-      <c r="P194" s="8"/>
-    </row>
-    <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="195" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="8"/>
       <c r="B195" s="10"/>
       <c r="C195" s="8"/>
@@ -14142,15 +13948,14 @@
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
-      <c r="J195" s="8"/>
+      <c r="J195" s="9"/>
       <c r="K195" s="9"/>
       <c r="L195" s="9"/>
-      <c r="M195" s="9"/>
+      <c r="M195" s="8"/>
       <c r="N195" s="8"/>
       <c r="O195" s="8"/>
-      <c r="P195" s="8"/>
-    </row>
-    <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="196" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="8"/>
       <c r="B196" s="10"/>
       <c r="C196" s="8"/>
@@ -14160,15 +13965,14 @@
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
+      <c r="J196" s="9"/>
       <c r="K196" s="9"/>
       <c r="L196" s="9"/>
-      <c r="M196" s="9"/>
+      <c r="M196" s="8"/>
       <c r="N196" s="8"/>
       <c r="O196" s="8"/>
-      <c r="P196" s="8"/>
-    </row>
-    <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="197" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="8"/>
       <c r="B197" s="10"/>
       <c r="C197" s="8"/>
@@ -14178,15 +13982,14 @@
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
-      <c r="J197" s="8"/>
+      <c r="J197" s="9"/>
       <c r="K197" s="9"/>
       <c r="L197" s="9"/>
-      <c r="M197" s="9"/>
+      <c r="M197" s="8"/>
       <c r="N197" s="8"/>
       <c r="O197" s="8"/>
-      <c r="P197" s="8"/>
-    </row>
-    <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="198" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="8"/>
       <c r="B198" s="10"/>
       <c r="C198" s="8"/>
@@ -14196,15 +13999,14 @@
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
-      <c r="J198" s="8"/>
+      <c r="J198" s="9"/>
       <c r="K198" s="9"/>
       <c r="L198" s="9"/>
-      <c r="M198" s="9"/>
+      <c r="M198" s="8"/>
       <c r="N198" s="8"/>
       <c r="O198" s="8"/>
-      <c r="P198" s="8"/>
-    </row>
-    <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="199" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="8"/>
       <c r="B199" s="10"/>
       <c r="C199" s="8"/>
@@ -14214,15 +14016,14 @@
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
+      <c r="J199" s="9"/>
       <c r="K199" s="9"/>
       <c r="L199" s="9"/>
-      <c r="M199" s="9"/>
+      <c r="M199" s="8"/>
       <c r="N199" s="8"/>
       <c r="O199" s="8"/>
-      <c r="P199" s="8"/>
-    </row>
-    <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="200" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="8"/>
       <c r="B200" s="10"/>
       <c r="C200" s="8"/>
@@ -14232,15 +14033,14 @@
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
-      <c r="J200" s="8"/>
+      <c r="J200" s="9"/>
       <c r="K200" s="9"/>
       <c r="L200" s="9"/>
-      <c r="M200" s="9"/>
+      <c r="M200" s="8"/>
       <c r="N200" s="8"/>
       <c r="O200" s="8"/>
-      <c r="P200" s="8"/>
-    </row>
-    <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="201" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="8"/>
       <c r="B201" s="10"/>
       <c r="C201" s="8"/>
@@ -14250,15 +14050,14 @@
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
-      <c r="J201" s="8"/>
+      <c r="J201" s="9"/>
       <c r="K201" s="9"/>
       <c r="L201" s="9"/>
-      <c r="M201" s="9"/>
+      <c r="M201" s="8"/>
       <c r="N201" s="8"/>
       <c r="O201" s="8"/>
-      <c r="P201" s="8"/>
-    </row>
-    <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="202" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="8"/>
       <c r="B202" s="10"/>
       <c r="C202" s="8"/>
@@ -14268,15 +14067,14 @@
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
-      <c r="J202" s="8"/>
+      <c r="J202" s="9"/>
       <c r="K202" s="9"/>
       <c r="L202" s="9"/>
-      <c r="M202" s="9"/>
+      <c r="M202" s="8"/>
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
-      <c r="P202" s="8"/>
-    </row>
-    <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="203" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="8"/>
       <c r="B203" s="10"/>
       <c r="C203" s="8"/>
@@ -14286,15 +14084,14 @@
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
-      <c r="J203" s="8"/>
+      <c r="J203" s="9"/>
       <c r="K203" s="9"/>
       <c r="L203" s="9"/>
-      <c r="M203" s="9"/>
+      <c r="M203" s="8"/>
       <c r="N203" s="8"/>
       <c r="O203" s="8"/>
-      <c r="P203" s="8"/>
-    </row>
-    <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="204" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="8"/>
       <c r="B204" s="10"/>
       <c r="C204" s="8"/>
@@ -14304,15 +14101,14 @@
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
       <c r="I204" s="8"/>
-      <c r="J204" s="8"/>
+      <c r="J204" s="9"/>
       <c r="K204" s="9"/>
       <c r="L204" s="9"/>
-      <c r="M204" s="9"/>
+      <c r="M204" s="8"/>
       <c r="N204" s="8"/>
       <c r="O204" s="8"/>
-      <c r="P204" s="8"/>
-    </row>
-    <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="205" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="8"/>
       <c r="B205" s="10"/>
       <c r="C205" s="8"/>
@@ -14322,15 +14118,14 @@
       <c r="G205" s="8"/>
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
-      <c r="J205" s="8"/>
+      <c r="J205" s="9"/>
       <c r="K205" s="9"/>
       <c r="L205" s="9"/>
-      <c r="M205" s="9"/>
+      <c r="M205" s="8"/>
       <c r="N205" s="8"/>
       <c r="O205" s="8"/>
-      <c r="P205" s="8"/>
-    </row>
-    <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="206" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="8"/>
       <c r="B206" s="10"/>
       <c r="C206" s="8"/>
@@ -14340,15 +14135,14 @@
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
       <c r="I206" s="8"/>
-      <c r="J206" s="8"/>
+      <c r="J206" s="9"/>
       <c r="K206" s="9"/>
       <c r="L206" s="9"/>
-      <c r="M206" s="9"/>
+      <c r="M206" s="8"/>
       <c r="N206" s="8"/>
       <c r="O206" s="8"/>
-      <c r="P206" s="8"/>
-    </row>
-    <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="207" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="8"/>
       <c r="B207" s="10"/>
       <c r="C207" s="8"/>
@@ -14358,15 +14152,14 @@
       <c r="G207" s="8"/>
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
-      <c r="J207" s="8"/>
+      <c r="J207" s="9"/>
       <c r="K207" s="9"/>
       <c r="L207" s="9"/>
-      <c r="M207" s="9"/>
+      <c r="M207" s="8"/>
       <c r="N207" s="8"/>
       <c r="O207" s="8"/>
-      <c r="P207" s="8"/>
-    </row>
-    <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="208" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="8"/>
       <c r="B208" s="10"/>
       <c r="C208" s="8"/>
@@ -14376,15 +14169,14 @@
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
-      <c r="J208" s="8"/>
+      <c r="J208" s="9"/>
       <c r="K208" s="9"/>
       <c r="L208" s="9"/>
-      <c r="M208" s="9"/>
+      <c r="M208" s="8"/>
       <c r="N208" s="8"/>
       <c r="O208" s="8"/>
-      <c r="P208" s="8"/>
-    </row>
-    <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="209" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="8"/>
       <c r="B209" s="10"/>
       <c r="C209" s="8"/>
@@ -14394,15 +14186,14 @@
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
-      <c r="J209" s="8"/>
+      <c r="J209" s="9"/>
       <c r="K209" s="9"/>
       <c r="L209" s="9"/>
-      <c r="M209" s="9"/>
+      <c r="M209" s="8"/>
       <c r="N209" s="8"/>
       <c r="O209" s="8"/>
-      <c r="P209" s="8"/>
-    </row>
-    <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="210" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="8"/>
       <c r="B210" s="10"/>
       <c r="C210" s="8"/>
@@ -14412,15 +14203,14 @@
       <c r="G210" s="8"/>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
+      <c r="J210" s="9"/>
       <c r="K210" s="9"/>
       <c r="L210" s="9"/>
-      <c r="M210" s="9"/>
+      <c r="M210" s="8"/>
       <c r="N210" s="8"/>
       <c r="O210" s="8"/>
-      <c r="P210" s="8"/>
-    </row>
-    <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="211" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="8"/>
       <c r="B211" s="10"/>
       <c r="C211" s="8"/>
@@ -14430,15 +14220,14 @@
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
       <c r="I211" s="8"/>
-      <c r="J211" s="8"/>
+      <c r="J211" s="9"/>
       <c r="K211" s="9"/>
       <c r="L211" s="9"/>
-      <c r="M211" s="9"/>
+      <c r="M211" s="8"/>
       <c r="N211" s="8"/>
       <c r="O211" s="8"/>
-      <c r="P211" s="8"/>
-    </row>
-    <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="212" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="8"/>
       <c r="B212" s="10"/>
       <c r="C212" s="8"/>
@@ -14448,15 +14237,14 @@
       <c r="G212" s="8"/>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
-      <c r="J212" s="8"/>
+      <c r="J212" s="9"/>
       <c r="K212" s="9"/>
       <c r="L212" s="9"/>
-      <c r="M212" s="9"/>
+      <c r="M212" s="8"/>
       <c r="N212" s="8"/>
       <c r="O212" s="8"/>
-      <c r="P212" s="8"/>
-    </row>
-    <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="213" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="8"/>
       <c r="B213" s="10"/>
       <c r="C213" s="8"/>
@@ -14466,15 +14254,14 @@
       <c r="G213" s="8"/>
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
-      <c r="J213" s="8"/>
+      <c r="J213" s="9"/>
       <c r="K213" s="9"/>
       <c r="L213" s="9"/>
-      <c r="M213" s="9"/>
+      <c r="M213" s="8"/>
       <c r="N213" s="8"/>
       <c r="O213" s="8"/>
-      <c r="P213" s="8"/>
-    </row>
-    <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="214" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="8"/>
       <c r="B214" s="10"/>
       <c r="C214" s="8"/>
@@ -14484,15 +14271,14 @@
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
       <c r="I214" s="8"/>
-      <c r="J214" s="8"/>
+      <c r="J214" s="9"/>
       <c r="K214" s="9"/>
       <c r="L214" s="9"/>
-      <c r="M214" s="9"/>
+      <c r="M214" s="8"/>
       <c r="N214" s="8"/>
       <c r="O214" s="8"/>
-      <c r="P214" s="8"/>
-    </row>
-    <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="215" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="8"/>
       <c r="B215" s="10"/>
       <c r="C215" s="8"/>
@@ -14502,15 +14288,14 @@
       <c r="G215" s="8"/>
       <c r="H215" s="8"/>
       <c r="I215" s="8"/>
-      <c r="J215" s="8"/>
+      <c r="J215" s="9"/>
       <c r="K215" s="9"/>
       <c r="L215" s="9"/>
-      <c r="M215" s="9"/>
+      <c r="M215" s="8"/>
       <c r="N215" s="8"/>
       <c r="O215" s="8"/>
-      <c r="P215" s="8"/>
-    </row>
-    <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="216" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="8"/>
       <c r="B216" s="10"/>
       <c r="C216" s="8"/>
@@ -14520,15 +14305,14 @@
       <c r="G216" s="8"/>
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
-      <c r="J216" s="8"/>
+      <c r="J216" s="9"/>
       <c r="K216" s="9"/>
       <c r="L216" s="9"/>
-      <c r="M216" s="9"/>
+      <c r="M216" s="8"/>
       <c r="N216" s="8"/>
       <c r="O216" s="8"/>
-      <c r="P216" s="8"/>
-    </row>
-    <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="217" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="8"/>
       <c r="B217" s="10"/>
       <c r="C217" s="8"/>
@@ -14538,15 +14322,14 @@
       <c r="G217" s="8"/>
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
-      <c r="J217" s="8"/>
+      <c r="J217" s="9"/>
       <c r="K217" s="9"/>
       <c r="L217" s="9"/>
-      <c r="M217" s="9"/>
+      <c r="M217" s="8"/>
       <c r="N217" s="8"/>
       <c r="O217" s="8"/>
-      <c r="P217" s="8"/>
-    </row>
-    <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="218" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="8"/>
       <c r="B218" s="10"/>
       <c r="C218" s="8"/>
@@ -14556,15 +14339,14 @@
       <c r="G218" s="8"/>
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
-      <c r="J218" s="8"/>
+      <c r="J218" s="9"/>
       <c r="K218" s="9"/>
       <c r="L218" s="9"/>
-      <c r="M218" s="9"/>
+      <c r="M218" s="8"/>
       <c r="N218" s="8"/>
       <c r="O218" s="8"/>
-      <c r="P218" s="8"/>
-    </row>
-    <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="219" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="8"/>
       <c r="B219" s="10"/>
       <c r="C219" s="8"/>
@@ -14574,15 +14356,14 @@
       <c r="G219" s="8"/>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
-      <c r="J219" s="8"/>
+      <c r="J219" s="9"/>
       <c r="K219" s="9"/>
       <c r="L219" s="9"/>
-      <c r="M219" s="9"/>
+      <c r="M219" s="8"/>
       <c r="N219" s="8"/>
       <c r="O219" s="8"/>
-      <c r="P219" s="8"/>
-    </row>
-    <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="220" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="8"/>
       <c r="B220" s="10"/>
       <c r="C220" s="8"/>
@@ -14592,15 +14373,14 @@
       <c r="G220" s="8"/>
       <c r="H220" s="8"/>
       <c r="I220" s="8"/>
-      <c r="J220" s="8"/>
+      <c r="J220" s="9"/>
       <c r="K220" s="9"/>
       <c r="L220" s="9"/>
-      <c r="M220" s="9"/>
+      <c r="M220" s="8"/>
       <c r="N220" s="8"/>
       <c r="O220" s="8"/>
-      <c r="P220" s="8"/>
-    </row>
-    <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="221" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="8"/>
       <c r="B221" s="10"/>
       <c r="C221" s="8"/>
@@ -14610,15 +14390,14 @@
       <c r="G221" s="8"/>
       <c r="H221" s="8"/>
       <c r="I221" s="8"/>
-      <c r="J221" s="8"/>
+      <c r="J221" s="9"/>
       <c r="K221" s="9"/>
       <c r="L221" s="9"/>
-      <c r="M221" s="9"/>
+      <c r="M221" s="8"/>
       <c r="N221" s="8"/>
       <c r="O221" s="8"/>
-      <c r="P221" s="8"/>
-    </row>
-    <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="222" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="8"/>
       <c r="B222" s="10"/>
       <c r="C222" s="8"/>
@@ -14628,15 +14407,14 @@
       <c r="G222" s="8"/>
       <c r="H222" s="8"/>
       <c r="I222" s="8"/>
-      <c r="J222" s="8"/>
+      <c r="J222" s="9"/>
       <c r="K222" s="9"/>
       <c r="L222" s="9"/>
-      <c r="M222" s="9"/>
+      <c r="M222" s="8"/>
       <c r="N222" s="8"/>
       <c r="O222" s="8"/>
-      <c r="P222" s="8"/>
-    </row>
-    <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="223" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="8"/>
       <c r="B223" s="10"/>
       <c r="C223" s="8"/>
@@ -14646,15 +14424,14 @@
       <c r="G223" s="8"/>
       <c r="H223" s="8"/>
       <c r="I223" s="8"/>
-      <c r="J223" s="8"/>
+      <c r="J223" s="9"/>
       <c r="K223" s="9"/>
       <c r="L223" s="9"/>
-      <c r="M223" s="9"/>
+      <c r="M223" s="8"/>
       <c r="N223" s="8"/>
       <c r="O223" s="8"/>
-      <c r="P223" s="8"/>
-    </row>
-    <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="224" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="8"/>
       <c r="B224" s="10"/>
       <c r="C224" s="8"/>
@@ -14664,15 +14441,14 @@
       <c r="G224" s="8"/>
       <c r="H224" s="8"/>
       <c r="I224" s="8"/>
-      <c r="J224" s="8"/>
+      <c r="J224" s="9"/>
       <c r="K224" s="9"/>
       <c r="L224" s="9"/>
-      <c r="M224" s="9"/>
+      <c r="M224" s="8"/>
       <c r="N224" s="8"/>
       <c r="O224" s="8"/>
-      <c r="P224" s="8"/>
-    </row>
-    <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="225" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="8"/>
       <c r="B225" s="10"/>
       <c r="C225" s="8"/>
@@ -14682,15 +14458,14 @@
       <c r="G225" s="8"/>
       <c r="H225" s="8"/>
       <c r="I225" s="8"/>
-      <c r="J225" s="8"/>
+      <c r="J225" s="9"/>
       <c r="K225" s="9"/>
       <c r="L225" s="9"/>
-      <c r="M225" s="9"/>
+      <c r="M225" s="8"/>
       <c r="N225" s="8"/>
       <c r="O225" s="8"/>
-      <c r="P225" s="8"/>
-    </row>
-    <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="226" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="8"/>
       <c r="B226" s="10"/>
       <c r="C226" s="8"/>
@@ -14700,15 +14475,14 @@
       <c r="G226" s="8"/>
       <c r="H226" s="8"/>
       <c r="I226" s="8"/>
-      <c r="J226" s="8"/>
+      <c r="J226" s="9"/>
       <c r="K226" s="9"/>
       <c r="L226" s="9"/>
-      <c r="M226" s="9"/>
+      <c r="M226" s="8"/>
       <c r="N226" s="8"/>
       <c r="O226" s="8"/>
-      <c r="P226" s="8"/>
-    </row>
-    <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="227" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="8"/>
       <c r="B227" s="10"/>
       <c r="C227" s="8"/>
@@ -14718,15 +14492,14 @@
       <c r="G227" s="8"/>
       <c r="H227" s="8"/>
       <c r="I227" s="8"/>
-      <c r="J227" s="8"/>
+      <c r="J227" s="9"/>
       <c r="K227" s="9"/>
       <c r="L227" s="9"/>
-      <c r="M227" s="9"/>
+      <c r="M227" s="8"/>
       <c r="N227" s="8"/>
       <c r="O227" s="8"/>
-      <c r="P227" s="8"/>
-    </row>
-    <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="228" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="8"/>
       <c r="B228" s="10"/>
       <c r="C228" s="8"/>
@@ -14736,15 +14509,14 @@
       <c r="G228" s="8"/>
       <c r="H228" s="8"/>
       <c r="I228" s="8"/>
-      <c r="J228" s="8"/>
+      <c r="J228" s="9"/>
       <c r="K228" s="9"/>
       <c r="L228" s="9"/>
-      <c r="M228" s="9"/>
+      <c r="M228" s="8"/>
       <c r="N228" s="8"/>
       <c r="O228" s="8"/>
-      <c r="P228" s="8"/>
-    </row>
-    <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="8"/>
       <c r="B229" s="10"/>
       <c r="C229" s="8"/>
@@ -14754,15 +14526,14 @@
       <c r="G229" s="8"/>
       <c r="H229" s="8"/>
       <c r="I229" s="8"/>
-      <c r="J229" s="8"/>
+      <c r="J229" s="9"/>
       <c r="K229" s="9"/>
       <c r="L229" s="9"/>
-      <c r="M229" s="9"/>
+      <c r="M229" s="8"/>
       <c r="N229" s="8"/>
       <c r="O229" s="8"/>
-      <c r="P229" s="8"/>
-    </row>
-    <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="230" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="8"/>
       <c r="B230" s="10"/>
       <c r="C230" s="8"/>
@@ -14772,15 +14543,14 @@
       <c r="G230" s="8"/>
       <c r="H230" s="8"/>
       <c r="I230" s="8"/>
-      <c r="J230" s="8"/>
+      <c r="J230" s="9"/>
       <c r="K230" s="9"/>
       <c r="L230" s="9"/>
-      <c r="M230" s="9"/>
+      <c r="M230" s="8"/>
       <c r="N230" s="8"/>
       <c r="O230" s="8"/>
-      <c r="P230" s="8"/>
-    </row>
-    <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="231" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="8"/>
       <c r="B231" s="10"/>
       <c r="C231" s="8"/>
@@ -14790,15 +14560,14 @@
       <c r="G231" s="8"/>
       <c r="H231" s="8"/>
       <c r="I231" s="8"/>
-      <c r="J231" s="8"/>
+      <c r="J231" s="9"/>
       <c r="K231" s="9"/>
       <c r="L231" s="9"/>
-      <c r="M231" s="9"/>
+      <c r="M231" s="8"/>
       <c r="N231" s="8"/>
       <c r="O231" s="8"/>
-      <c r="P231" s="8"/>
-    </row>
-    <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="232" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="8"/>
       <c r="B232" s="10"/>
       <c r="C232" s="8"/>
@@ -14808,15 +14577,14 @@
       <c r="G232" s="8"/>
       <c r="H232" s="8"/>
       <c r="I232" s="8"/>
-      <c r="J232" s="8"/>
+      <c r="J232" s="9"/>
       <c r="K232" s="9"/>
       <c r="L232" s="9"/>
-      <c r="M232" s="9"/>
+      <c r="M232" s="8"/>
       <c r="N232" s="8"/>
       <c r="O232" s="8"/>
-      <c r="P232" s="8"/>
-    </row>
-    <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="233" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="8"/>
       <c r="B233" s="10"/>
       <c r="C233" s="8"/>
@@ -14826,15 +14594,14 @@
       <c r="G233" s="8"/>
       <c r="H233" s="8"/>
       <c r="I233" s="8"/>
-      <c r="J233" s="8"/>
+      <c r="J233" s="9"/>
       <c r="K233" s="9"/>
       <c r="L233" s="9"/>
-      <c r="M233" s="9"/>
+      <c r="M233" s="8"/>
       <c r="N233" s="8"/>
       <c r="O233" s="8"/>
-      <c r="P233" s="8"/>
-    </row>
-    <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="234" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="8"/>
       <c r="B234" s="10"/>
       <c r="C234" s="8"/>
@@ -14844,15 +14611,14 @@
       <c r="G234" s="8"/>
       <c r="H234" s="8"/>
       <c r="I234" s="8"/>
-      <c r="J234" s="8"/>
+      <c r="J234" s="9"/>
       <c r="K234" s="9"/>
       <c r="L234" s="9"/>
-      <c r="M234" s="9"/>
+      <c r="M234" s="8"/>
       <c r="N234" s="8"/>
       <c r="O234" s="8"/>
-      <c r="P234" s="8"/>
-    </row>
-    <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="235" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="8"/>
       <c r="B235" s="10"/>
       <c r="C235" s="8"/>
@@ -14862,15 +14628,14 @@
       <c r="G235" s="8"/>
       <c r="H235" s="8"/>
       <c r="I235" s="8"/>
-      <c r="J235" s="8"/>
+      <c r="J235" s="9"/>
       <c r="K235" s="9"/>
       <c r="L235" s="9"/>
-      <c r="M235" s="9"/>
+      <c r="M235" s="8"/>
       <c r="N235" s="8"/>
       <c r="O235" s="8"/>
-      <c r="P235" s="8"/>
-    </row>
-    <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="236" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="8"/>
       <c r="B236" s="10"/>
       <c r="C236" s="8"/>
@@ -14880,15 +14645,14 @@
       <c r="G236" s="8"/>
       <c r="H236" s="8"/>
       <c r="I236" s="8"/>
-      <c r="J236" s="8"/>
+      <c r="J236" s="9"/>
       <c r="K236" s="9"/>
       <c r="L236" s="9"/>
-      <c r="M236" s="9"/>
+      <c r="M236" s="8"/>
       <c r="N236" s="8"/>
       <c r="O236" s="8"/>
-      <c r="P236" s="8"/>
-    </row>
-    <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="237" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="8"/>
       <c r="B237" s="10"/>
       <c r="C237" s="8"/>
@@ -14898,15 +14662,14 @@
       <c r="G237" s="8"/>
       <c r="H237" s="8"/>
       <c r="I237" s="8"/>
-      <c r="J237" s="8"/>
+      <c r="J237" s="9"/>
       <c r="K237" s="9"/>
       <c r="L237" s="9"/>
-      <c r="M237" s="9"/>
+      <c r="M237" s="8"/>
       <c r="N237" s="8"/>
       <c r="O237" s="8"/>
-      <c r="P237" s="8"/>
-    </row>
-    <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="238" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="8"/>
       <c r="B238" s="10"/>
       <c r="C238" s="8"/>
@@ -14916,15 +14679,14 @@
       <c r="G238" s="8"/>
       <c r="H238" s="8"/>
       <c r="I238" s="8"/>
-      <c r="J238" s="8"/>
+      <c r="J238" s="9"/>
       <c r="K238" s="9"/>
       <c r="L238" s="9"/>
-      <c r="M238" s="9"/>
+      <c r="M238" s="8"/>
       <c r="N238" s="8"/>
       <c r="O238" s="8"/>
-      <c r="P238" s="8"/>
-    </row>
-    <row r="239" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="239" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="8"/>
       <c r="B239" s="10"/>
       <c r="C239" s="8"/>
@@ -14934,15 +14696,14 @@
       <c r="G239" s="8"/>
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
-      <c r="J239" s="8"/>
+      <c r="J239" s="9"/>
       <c r="K239" s="9"/>
       <c r="L239" s="9"/>
-      <c r="M239" s="9"/>
+      <c r="M239" s="8"/>
       <c r="N239" s="8"/>
       <c r="O239" s="8"/>
-      <c r="P239" s="8"/>
-    </row>
-    <row r="240" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="240" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="8"/>
       <c r="B240" s="10"/>
       <c r="C240" s="8"/>
@@ -14952,15 +14713,14 @@
       <c r="G240" s="8"/>
       <c r="H240" s="8"/>
       <c r="I240" s="8"/>
-      <c r="J240" s="8"/>
+      <c r="J240" s="9"/>
       <c r="K240" s="9"/>
       <c r="L240" s="9"/>
-      <c r="M240" s="9"/>
+      <c r="M240" s="8"/>
       <c r="N240" s="8"/>
       <c r="O240" s="8"/>
-      <c r="P240" s="8"/>
-    </row>
-    <row r="241" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="241" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="8"/>
       <c r="B241" s="10"/>
       <c r="C241" s="8"/>
@@ -14970,15 +14730,14 @@
       <c r="G241" s="8"/>
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
-      <c r="J241" s="8"/>
+      <c r="J241" s="9"/>
       <c r="K241" s="9"/>
       <c r="L241" s="9"/>
-      <c r="M241" s="9"/>
+      <c r="M241" s="8"/>
       <c r="N241" s="8"/>
       <c r="O241" s="8"/>
-      <c r="P241" s="8"/>
-    </row>
-    <row r="242" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="242" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="8"/>
       <c r="B242" s="10"/>
       <c r="C242" s="8"/>
@@ -14988,15 +14747,14 @@
       <c r="G242" s="8"/>
       <c r="H242" s="8"/>
       <c r="I242" s="8"/>
-      <c r="J242" s="8"/>
+      <c r="J242" s="9"/>
       <c r="K242" s="9"/>
       <c r="L242" s="9"/>
-      <c r="M242" s="9"/>
+      <c r="M242" s="8"/>
       <c r="N242" s="8"/>
       <c r="O242" s="8"/>
-      <c r="P242" s="8"/>
-    </row>
-    <row r="243" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="243" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="8"/>
       <c r="B243" s="10"/>
       <c r="C243" s="8"/>
@@ -15006,15 +14764,14 @@
       <c r="G243" s="8"/>
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
-      <c r="J243" s="8"/>
+      <c r="J243" s="9"/>
       <c r="K243" s="9"/>
       <c r="L243" s="9"/>
-      <c r="M243" s="9"/>
+      <c r="M243" s="8"/>
       <c r="N243" s="8"/>
       <c r="O243" s="8"/>
-      <c r="P243" s="8"/>
-    </row>
-    <row r="244" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="244" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="8"/>
       <c r="B244" s="10"/>
       <c r="C244" s="8"/>
@@ -15024,15 +14781,14 @@
       <c r="G244" s="8"/>
       <c r="H244" s="8"/>
       <c r="I244" s="8"/>
-      <c r="J244" s="8"/>
+      <c r="J244" s="9"/>
       <c r="K244" s="9"/>
       <c r="L244" s="9"/>
-      <c r="M244" s="9"/>
+      <c r="M244" s="8"/>
       <c r="N244" s="8"/>
       <c r="O244" s="8"/>
-      <c r="P244" s="8"/>
-    </row>
-    <row r="245" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="245" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="8"/>
       <c r="B245" s="10"/>
       <c r="C245" s="8"/>
@@ -15042,15 +14798,14 @@
       <c r="G245" s="8"/>
       <c r="H245" s="8"/>
       <c r="I245" s="8"/>
-      <c r="J245" s="8"/>
+      <c r="J245" s="9"/>
       <c r="K245" s="9"/>
       <c r="L245" s="9"/>
-      <c r="M245" s="9"/>
+      <c r="M245" s="8"/>
       <c r="N245" s="8"/>
       <c r="O245" s="8"/>
-      <c r="P245" s="8"/>
-    </row>
-    <row r="246" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="246" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="8"/>
       <c r="B246" s="10"/>
       <c r="C246" s="8"/>
@@ -15060,15 +14815,14 @@
       <c r="G246" s="8"/>
       <c r="H246" s="8"/>
       <c r="I246" s="8"/>
-      <c r="J246" s="8"/>
+      <c r="J246" s="9"/>
       <c r="K246" s="9"/>
       <c r="L246" s="9"/>
-      <c r="M246" s="9"/>
+      <c r="M246" s="8"/>
       <c r="N246" s="8"/>
       <c r="O246" s="8"/>
-      <c r="P246" s="8"/>
-    </row>
-    <row r="247" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="247" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="8"/>
       <c r="B247" s="10"/>
       <c r="C247" s="8"/>
@@ -15078,15 +14832,14 @@
       <c r="G247" s="8"/>
       <c r="H247" s="8"/>
       <c r="I247" s="8"/>
-      <c r="J247" s="8"/>
+      <c r="J247" s="9"/>
       <c r="K247" s="9"/>
       <c r="L247" s="9"/>
-      <c r="M247" s="9"/>
+      <c r="M247" s="8"/>
       <c r="N247" s="8"/>
       <c r="O247" s="8"/>
-      <c r="P247" s="8"/>
-    </row>
-    <row r="248" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="248" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="8"/>
       <c r="B248" s="10"/>
       <c r="C248" s="8"/>
@@ -15096,15 +14849,14 @@
       <c r="G248" s="8"/>
       <c r="H248" s="8"/>
       <c r="I248" s="8"/>
-      <c r="J248" s="8"/>
+      <c r="J248" s="9"/>
       <c r="K248" s="9"/>
       <c r="L248" s="9"/>
-      <c r="M248" s="9"/>
+      <c r="M248" s="8"/>
       <c r="N248" s="8"/>
       <c r="O248" s="8"/>
-      <c r="P248" s="8"/>
-    </row>
-    <row r="249" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="249" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="8"/>
       <c r="B249" s="10"/>
       <c r="C249" s="8"/>
@@ -15114,15 +14866,14 @@
       <c r="G249" s="8"/>
       <c r="H249" s="8"/>
       <c r="I249" s="8"/>
-      <c r="J249" s="8"/>
+      <c r="J249" s="9"/>
       <c r="K249" s="9"/>
       <c r="L249" s="9"/>
-      <c r="M249" s="9"/>
+      <c r="M249" s="8"/>
       <c r="N249" s="8"/>
       <c r="O249" s="8"/>
-      <c r="P249" s="8"/>
-    </row>
-    <row r="250" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="250" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="8"/>
       <c r="B250" s="10"/>
       <c r="C250" s="8"/>
@@ -15132,15 +14883,14 @@
       <c r="G250" s="8"/>
       <c r="H250" s="8"/>
       <c r="I250" s="8"/>
-      <c r="J250" s="8"/>
+      <c r="J250" s="9"/>
       <c r="K250" s="9"/>
       <c r="L250" s="9"/>
-      <c r="M250" s="9"/>
+      <c r="M250" s="8"/>
       <c r="N250" s="8"/>
       <c r="O250" s="8"/>
-      <c r="P250" s="8"/>
-    </row>
-    <row r="251" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="251" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="8"/>
       <c r="B251" s="10"/>
       <c r="C251" s="8"/>
@@ -15150,15 +14900,14 @@
       <c r="G251" s="8"/>
       <c r="H251" s="8"/>
       <c r="I251" s="8"/>
-      <c r="J251" s="8"/>
+      <c r="J251" s="9"/>
       <c r="K251" s="9"/>
       <c r="L251" s="9"/>
-      <c r="M251" s="9"/>
+      <c r="M251" s="8"/>
       <c r="N251" s="8"/>
       <c r="O251" s="8"/>
-      <c r="P251" s="8"/>
-    </row>
-    <row r="252" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="252" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="8"/>
       <c r="B252" s="10"/>
       <c r="C252" s="8"/>
@@ -15168,15 +14917,14 @@
       <c r="G252" s="8"/>
       <c r="H252" s="8"/>
       <c r="I252" s="8"/>
-      <c r="J252" s="8"/>
+      <c r="J252" s="9"/>
       <c r="K252" s="9"/>
       <c r="L252" s="9"/>
-      <c r="M252" s="9"/>
+      <c r="M252" s="8"/>
       <c r="N252" s="8"/>
       <c r="O252" s="8"/>
-      <c r="P252" s="8"/>
-    </row>
-    <row r="253" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="253" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="8"/>
       <c r="B253" s="10"/>
       <c r="C253" s="8"/>
@@ -15186,15 +14934,14 @@
       <c r="G253" s="8"/>
       <c r="H253" s="8"/>
       <c r="I253" s="8"/>
-      <c r="J253" s="8"/>
+      <c r="J253" s="9"/>
       <c r="K253" s="9"/>
       <c r="L253" s="9"/>
-      <c r="M253" s="9"/>
+      <c r="M253" s="8"/>
       <c r="N253" s="8"/>
       <c r="O253" s="8"/>
-      <c r="P253" s="8"/>
-    </row>
-    <row r="254" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="254" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="8"/>
       <c r="B254" s="10"/>
       <c r="C254" s="8"/>
@@ -15204,15 +14951,14 @@
       <c r="G254" s="8"/>
       <c r="H254" s="8"/>
       <c r="I254" s="8"/>
-      <c r="J254" s="8"/>
+      <c r="J254" s="9"/>
       <c r="K254" s="9"/>
       <c r="L254" s="9"/>
-      <c r="M254" s="9"/>
+      <c r="M254" s="8"/>
       <c r="N254" s="8"/>
       <c r="O254" s="8"/>
-      <c r="P254" s="8"/>
-    </row>
-    <row r="255" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="255" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="8"/>
       <c r="B255" s="10"/>
       <c r="C255" s="8"/>
@@ -15222,15 +14968,14 @@
       <c r="G255" s="8"/>
       <c r="H255" s="8"/>
       <c r="I255" s="8"/>
-      <c r="J255" s="8"/>
+      <c r="J255" s="9"/>
       <c r="K255" s="9"/>
       <c r="L255" s="9"/>
-      <c r="M255" s="9"/>
+      <c r="M255" s="8"/>
       <c r="N255" s="8"/>
       <c r="O255" s="8"/>
-      <c r="P255" s="8"/>
-    </row>
-    <row r="256" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="256" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="8"/>
       <c r="B256" s="10"/>
       <c r="C256" s="8"/>
@@ -15240,15 +14985,14 @@
       <c r="G256" s="8"/>
       <c r="H256" s="8"/>
       <c r="I256" s="8"/>
-      <c r="J256" s="8"/>
+      <c r="J256" s="9"/>
       <c r="K256" s="9"/>
       <c r="L256" s="9"/>
-      <c r="M256" s="9"/>
+      <c r="M256" s="8"/>
       <c r="N256" s="8"/>
       <c r="O256" s="8"/>
-      <c r="P256" s="8"/>
-    </row>
-    <row r="257" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="257" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="8"/>
       <c r="B257" s="10"/>
       <c r="C257" s="8"/>
@@ -15258,15 +15002,14 @@
       <c r="G257" s="8"/>
       <c r="H257" s="8"/>
       <c r="I257" s="8"/>
-      <c r="J257" s="8"/>
+      <c r="J257" s="9"/>
       <c r="K257" s="9"/>
       <c r="L257" s="9"/>
-      <c r="M257" s="9"/>
+      <c r="M257" s="8"/>
       <c r="N257" s="8"/>
       <c r="O257" s="8"/>
-      <c r="P257" s="8"/>
-    </row>
-    <row r="258" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="258" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="8"/>
       <c r="B258" s="10"/>
       <c r="C258" s="8"/>
@@ -15276,15 +15019,14 @@
       <c r="G258" s="8"/>
       <c r="H258" s="8"/>
       <c r="I258" s="8"/>
-      <c r="J258" s="8"/>
+      <c r="J258" s="9"/>
       <c r="K258" s="9"/>
       <c r="L258" s="9"/>
-      <c r="M258" s="9"/>
+      <c r="M258" s="8"/>
       <c r="N258" s="8"/>
       <c r="O258" s="8"/>
-      <c r="P258" s="8"/>
-    </row>
-    <row r="259" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="259" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="8"/>
       <c r="B259" s="10"/>
       <c r="C259" s="8"/>
@@ -15294,15 +15036,14 @@
       <c r="G259" s="8"/>
       <c r="H259" s="8"/>
       <c r="I259" s="8"/>
-      <c r="J259" s="8"/>
+      <c r="J259" s="9"/>
       <c r="K259" s="9"/>
       <c r="L259" s="9"/>
-      <c r="M259" s="9"/>
+      <c r="M259" s="8"/>
       <c r="N259" s="8"/>
       <c r="O259" s="8"/>
-      <c r="P259" s="8"/>
-    </row>
-    <row r="260" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="260" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="8"/>
       <c r="B260" s="10"/>
       <c r="C260" s="8"/>
@@ -15312,15 +15053,14 @@
       <c r="G260" s="8"/>
       <c r="H260" s="8"/>
       <c r="I260" s="8"/>
-      <c r="J260" s="8"/>
+      <c r="J260" s="9"/>
       <c r="K260" s="9"/>
       <c r="L260" s="9"/>
-      <c r="M260" s="9"/>
+      <c r="M260" s="8"/>
       <c r="N260" s="8"/>
       <c r="O260" s="8"/>
-      <c r="P260" s="8"/>
-    </row>
-    <row r="261" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="261" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="8"/>
       <c r="B261" s="10"/>
       <c r="C261" s="8"/>
@@ -15330,15 +15070,14 @@
       <c r="G261" s="8"/>
       <c r="H261" s="8"/>
       <c r="I261" s="8"/>
-      <c r="J261" s="8"/>
+      <c r="J261" s="9"/>
       <c r="K261" s="9"/>
       <c r="L261" s="9"/>
-      <c r="M261" s="9"/>
+      <c r="M261" s="8"/>
       <c r="N261" s="8"/>
       <c r="O261" s="8"/>
-      <c r="P261" s="8"/>
-    </row>
-    <row r="262" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="262" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="8"/>
       <c r="B262" s="10"/>
       <c r="C262" s="8"/>
@@ -15348,15 +15087,14 @@
       <c r="G262" s="8"/>
       <c r="H262" s="8"/>
       <c r="I262" s="8"/>
-      <c r="J262" s="8"/>
+      <c r="J262" s="9"/>
       <c r="K262" s="9"/>
       <c r="L262" s="9"/>
-      <c r="M262" s="9"/>
+      <c r="M262" s="8"/>
       <c r="N262" s="8"/>
       <c r="O262" s="8"/>
-      <c r="P262" s="8"/>
-    </row>
-    <row r="263" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="263" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="8"/>
       <c r="B263" s="10"/>
       <c r="C263" s="8"/>
@@ -15366,15 +15104,14 @@
       <c r="G263" s="8"/>
       <c r="H263" s="8"/>
       <c r="I263" s="8"/>
-      <c r="J263" s="8"/>
+      <c r="J263" s="9"/>
       <c r="K263" s="9"/>
       <c r="L263" s="9"/>
-      <c r="M263" s="9"/>
+      <c r="M263" s="8"/>
       <c r="N263" s="8"/>
       <c r="O263" s="8"/>
-      <c r="P263" s="8"/>
-    </row>
-    <row r="264" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="264" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="8"/>
       <c r="B264" s="10"/>
       <c r="C264" s="8"/>
@@ -15384,15 +15121,14 @@
       <c r="G264" s="8"/>
       <c r="H264" s="8"/>
       <c r="I264" s="8"/>
-      <c r="J264" s="8"/>
+      <c r="J264" s="9"/>
       <c r="K264" s="9"/>
       <c r="L264" s="9"/>
-      <c r="M264" s="9"/>
+      <c r="M264" s="8"/>
       <c r="N264" s="8"/>
       <c r="O264" s="8"/>
-      <c r="P264" s="8"/>
-    </row>
-    <row r="265" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="265" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="8"/>
       <c r="B265" s="10"/>
       <c r="C265" s="8"/>
@@ -15402,15 +15138,14 @@
       <c r="G265" s="8"/>
       <c r="H265" s="8"/>
       <c r="I265" s="8"/>
-      <c r="J265" s="8"/>
+      <c r="J265" s="9"/>
       <c r="K265" s="9"/>
       <c r="L265" s="9"/>
-      <c r="M265" s="9"/>
+      <c r="M265" s="8"/>
       <c r="N265" s="8"/>
       <c r="O265" s="8"/>
-      <c r="P265" s="8"/>
-    </row>
-    <row r="266" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="266" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="8"/>
       <c r="B266" s="10"/>
       <c r="C266" s="8"/>
@@ -15420,15 +15155,14 @@
       <c r="G266" s="8"/>
       <c r="H266" s="8"/>
       <c r="I266" s="8"/>
-      <c r="J266" s="8"/>
+      <c r="J266" s="9"/>
       <c r="K266" s="9"/>
       <c r="L266" s="9"/>
-      <c r="M266" s="9"/>
+      <c r="M266" s="8"/>
       <c r="N266" s="8"/>
       <c r="O266" s="8"/>
-      <c r="P266" s="8"/>
-    </row>
-    <row r="267" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="267" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="8"/>
       <c r="B267" s="10"/>
       <c r="C267" s="8"/>
@@ -15438,15 +15172,14 @@
       <c r="G267" s="8"/>
       <c r="H267" s="8"/>
       <c r="I267" s="8"/>
-      <c r="J267" s="8"/>
+      <c r="J267" s="9"/>
       <c r="K267" s="9"/>
       <c r="L267" s="9"/>
-      <c r="M267" s="9"/>
+      <c r="M267" s="8"/>
       <c r="N267" s="8"/>
       <c r="O267" s="8"/>
-      <c r="P267" s="8"/>
-    </row>
-    <row r="268" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="268" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="8"/>
       <c r="B268" s="10"/>
       <c r="C268" s="8"/>
@@ -15456,15 +15189,14 @@
       <c r="G268" s="8"/>
       <c r="H268" s="8"/>
       <c r="I268" s="8"/>
-      <c r="J268" s="8"/>
+      <c r="J268" s="9"/>
       <c r="K268" s="9"/>
       <c r="L268" s="9"/>
-      <c r="M268" s="9"/>
+      <c r="M268" s="8"/>
       <c r="N268" s="8"/>
       <c r="O268" s="8"/>
-      <c r="P268" s="8"/>
-    </row>
-    <row r="269" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="269" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="8"/>
       <c r="B269" s="10"/>
       <c r="C269" s="8"/>
@@ -15474,15 +15206,14 @@
       <c r="G269" s="8"/>
       <c r="H269" s="8"/>
       <c r="I269" s="8"/>
-      <c r="J269" s="8"/>
+      <c r="J269" s="9"/>
       <c r="K269" s="9"/>
       <c r="L269" s="9"/>
-      <c r="M269" s="9"/>
+      <c r="M269" s="8"/>
       <c r="N269" s="8"/>
       <c r="O269" s="8"/>
-      <c r="P269" s="8"/>
-    </row>
-    <row r="270" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="270" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="8"/>
       <c r="B270" s="10"/>
       <c r="C270" s="8"/>
@@ -15492,15 +15223,14 @@
       <c r="G270" s="8"/>
       <c r="H270" s="8"/>
       <c r="I270" s="8"/>
-      <c r="J270" s="8"/>
+      <c r="J270" s="9"/>
       <c r="K270" s="9"/>
       <c r="L270" s="9"/>
-      <c r="M270" s="9"/>
+      <c r="M270" s="8"/>
       <c r="N270" s="8"/>
       <c r="O270" s="8"/>
-      <c r="P270" s="8"/>
-    </row>
-    <row r="271" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="271" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="8"/>
       <c r="B271" s="10"/>
       <c r="C271" s="8"/>
@@ -15510,15 +15240,14 @@
       <c r="G271" s="8"/>
       <c r="H271" s="8"/>
       <c r="I271" s="8"/>
-      <c r="J271" s="8"/>
+      <c r="J271" s="9"/>
       <c r="K271" s="9"/>
       <c r="L271" s="9"/>
-      <c r="M271" s="9"/>
+      <c r="M271" s="8"/>
       <c r="N271" s="8"/>
       <c r="O271" s="8"/>
-      <c r="P271" s="8"/>
-    </row>
-    <row r="272" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="272" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="8"/>
       <c r="B272" s="10"/>
       <c r="C272" s="8"/>
@@ -15528,15 +15257,14 @@
       <c r="G272" s="8"/>
       <c r="H272" s="8"/>
       <c r="I272" s="8"/>
-      <c r="J272" s="8"/>
+      <c r="J272" s="9"/>
       <c r="K272" s="9"/>
       <c r="L272" s="9"/>
-      <c r="M272" s="9"/>
+      <c r="M272" s="8"/>
       <c r="N272" s="8"/>
       <c r="O272" s="8"/>
-      <c r="P272" s="8"/>
-    </row>
-    <row r="273" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="273" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="8"/>
       <c r="B273" s="10"/>
       <c r="C273" s="8"/>
@@ -15546,15 +15274,14 @@
       <c r="G273" s="8"/>
       <c r="H273" s="8"/>
       <c r="I273" s="8"/>
-      <c r="J273" s="8"/>
+      <c r="J273" s="9"/>
       <c r="K273" s="9"/>
       <c r="L273" s="9"/>
-      <c r="M273" s="9"/>
+      <c r="M273" s="8"/>
       <c r="N273" s="8"/>
       <c r="O273" s="8"/>
-      <c r="P273" s="8"/>
-    </row>
-    <row r="274" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="274" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="8"/>
       <c r="B274" s="10"/>
       <c r="C274" s="8"/>
@@ -15564,15 +15291,14 @@
       <c r="G274" s="8"/>
       <c r="H274" s="8"/>
       <c r="I274" s="8"/>
-      <c r="J274" s="8"/>
+      <c r="J274" s="9"/>
       <c r="K274" s="9"/>
       <c r="L274" s="9"/>
-      <c r="M274" s="9"/>
+      <c r="M274" s="8"/>
       <c r="N274" s="8"/>
       <c r="O274" s="8"/>
-      <c r="P274" s="8"/>
-    </row>
-    <row r="275" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="275" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="8"/>
       <c r="B275" s="10"/>
       <c r="C275" s="8"/>
@@ -15582,15 +15308,14 @@
       <c r="G275" s="8"/>
       <c r="H275" s="8"/>
       <c r="I275" s="8"/>
-      <c r="J275" s="8"/>
+      <c r="J275" s="9"/>
       <c r="K275" s="9"/>
       <c r="L275" s="9"/>
-      <c r="M275" s="9"/>
+      <c r="M275" s="8"/>
       <c r="N275" s="8"/>
       <c r="O275" s="8"/>
-      <c r="P275" s="8"/>
-    </row>
-    <row r="276" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="276" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="8"/>
       <c r="B276" s="10"/>
       <c r="C276" s="8"/>
@@ -15600,15 +15325,14 @@
       <c r="G276" s="8"/>
       <c r="H276" s="8"/>
       <c r="I276" s="8"/>
-      <c r="J276" s="8"/>
+      <c r="J276" s="9"/>
       <c r="K276" s="9"/>
       <c r="L276" s="9"/>
-      <c r="M276" s="9"/>
+      <c r="M276" s="8"/>
       <c r="N276" s="8"/>
       <c r="O276" s="8"/>
-      <c r="P276" s="8"/>
-    </row>
-    <row r="277" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="277" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="8"/>
       <c r="B277" s="10"/>
       <c r="C277" s="8"/>
@@ -15618,15 +15342,14 @@
       <c r="G277" s="8"/>
       <c r="H277" s="8"/>
       <c r="I277" s="8"/>
-      <c r="J277" s="8"/>
+      <c r="J277" s="9"/>
       <c r="K277" s="9"/>
       <c r="L277" s="9"/>
-      <c r="M277" s="9"/>
+      <c r="M277" s="8"/>
       <c r="N277" s="8"/>
       <c r="O277" s="8"/>
-      <c r="P277" s="8"/>
-    </row>
-    <row r="278" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="278" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="8"/>
       <c r="B278" s="10"/>
       <c r="C278" s="8"/>
@@ -15636,15 +15359,14 @@
       <c r="G278" s="8"/>
       <c r="H278" s="8"/>
       <c r="I278" s="8"/>
-      <c r="J278" s="8"/>
+      <c r="J278" s="9"/>
       <c r="K278" s="9"/>
       <c r="L278" s="9"/>
-      <c r="M278" s="9"/>
+      <c r="M278" s="8"/>
       <c r="N278" s="8"/>
       <c r="O278" s="8"/>
-      <c r="P278" s="8"/>
-    </row>
-    <row r="279" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="279" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="8"/>
       <c r="B279" s="10"/>
       <c r="C279" s="8"/>
@@ -15654,15 +15376,14 @@
       <c r="G279" s="8"/>
       <c r="H279" s="8"/>
       <c r="I279" s="8"/>
-      <c r="J279" s="8"/>
+      <c r="J279" s="9"/>
       <c r="K279" s="9"/>
       <c r="L279" s="9"/>
-      <c r="M279" s="9"/>
+      <c r="M279" s="8"/>
       <c r="N279" s="8"/>
       <c r="O279" s="8"/>
-      <c r="P279" s="8"/>
-    </row>
-    <row r="280" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="280" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="8"/>
       <c r="B280" s="10"/>
       <c r="C280" s="8"/>
@@ -15672,15 +15393,14 @@
       <c r="G280" s="8"/>
       <c r="H280" s="8"/>
       <c r="I280" s="8"/>
-      <c r="J280" s="8"/>
+      <c r="J280" s="9"/>
       <c r="K280" s="9"/>
       <c r="L280" s="9"/>
-      <c r="M280" s="9"/>
+      <c r="M280" s="8"/>
       <c r="N280" s="8"/>
       <c r="O280" s="8"/>
-      <c r="P280" s="8"/>
-    </row>
-    <row r="281" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="281" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="8"/>
       <c r="B281" s="10"/>
       <c r="C281" s="8"/>
@@ -15690,15 +15410,14 @@
       <c r="G281" s="8"/>
       <c r="H281" s="8"/>
       <c r="I281" s="8"/>
-      <c r="J281" s="8"/>
+      <c r="J281" s="9"/>
       <c r="K281" s="9"/>
       <c r="L281" s="9"/>
-      <c r="M281" s="9"/>
+      <c r="M281" s="8"/>
       <c r="N281" s="8"/>
       <c r="O281" s="8"/>
-      <c r="P281" s="8"/>
-    </row>
-    <row r="282" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="282" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="8"/>
       <c r="B282" s="10"/>
       <c r="C282" s="8"/>
@@ -15708,15 +15427,14 @@
       <c r="G282" s="8"/>
       <c r="H282" s="8"/>
       <c r="I282" s="8"/>
-      <c r="J282" s="8"/>
+      <c r="J282" s="9"/>
       <c r="K282" s="9"/>
       <c r="L282" s="9"/>
-      <c r="M282" s="9"/>
+      <c r="M282" s="8"/>
       <c r="N282" s="8"/>
       <c r="O282" s="8"/>
-      <c r="P282" s="8"/>
-    </row>
-    <row r="283" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="283" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="8"/>
       <c r="B283" s="10"/>
       <c r="C283" s="8"/>
@@ -15726,15 +15444,14 @@
       <c r="G283" s="8"/>
       <c r="H283" s="8"/>
       <c r="I283" s="8"/>
-      <c r="J283" s="8"/>
+      <c r="J283" s="9"/>
       <c r="K283" s="9"/>
       <c r="L283" s="9"/>
-      <c r="M283" s="9"/>
+      <c r="M283" s="8"/>
       <c r="N283" s="8"/>
       <c r="O283" s="8"/>
-      <c r="P283" s="8"/>
-    </row>
-    <row r="284" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="284" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="8"/>
       <c r="B284" s="10"/>
       <c r="C284" s="8"/>
@@ -15744,15 +15461,14 @@
       <c r="G284" s="8"/>
       <c r="H284" s="8"/>
       <c r="I284" s="8"/>
-      <c r="J284" s="8"/>
+      <c r="J284" s="9"/>
       <c r="K284" s="9"/>
       <c r="L284" s="9"/>
-      <c r="M284" s="9"/>
+      <c r="M284" s="8"/>
       <c r="N284" s="8"/>
       <c r="O284" s="8"/>
-      <c r="P284" s="8"/>
-    </row>
-    <row r="285" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="285" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="8"/>
       <c r="B285" s="10"/>
       <c r="C285" s="8"/>
@@ -15762,15 +15478,14 @@
       <c r="G285" s="8"/>
       <c r="H285" s="8"/>
       <c r="I285" s="8"/>
-      <c r="J285" s="8"/>
+      <c r="J285" s="9"/>
       <c r="K285" s="9"/>
       <c r="L285" s="9"/>
-      <c r="M285" s="9"/>
+      <c r="M285" s="8"/>
       <c r="N285" s="8"/>
       <c r="O285" s="8"/>
-      <c r="P285" s="8"/>
-    </row>
-    <row r="286" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="286" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="8"/>
       <c r="B286" s="10"/>
       <c r="C286" s="8"/>
@@ -15780,15 +15495,14 @@
       <c r="G286" s="8"/>
       <c r="H286" s="8"/>
       <c r="I286" s="8"/>
-      <c r="J286" s="8"/>
+      <c r="J286" s="9"/>
       <c r="K286" s="9"/>
       <c r="L286" s="9"/>
-      <c r="M286" s="9"/>
+      <c r="M286" s="8"/>
       <c r="N286" s="8"/>
       <c r="O286" s="8"/>
-      <c r="P286" s="8"/>
-    </row>
-    <row r="287" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="287" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="8"/>
       <c r="B287" s="10"/>
       <c r="C287" s="8"/>
@@ -15798,15 +15512,14 @@
       <c r="G287" s="8"/>
       <c r="H287" s="8"/>
       <c r="I287" s="8"/>
-      <c r="J287" s="8"/>
+      <c r="J287" s="9"/>
       <c r="K287" s="9"/>
       <c r="L287" s="9"/>
-      <c r="M287" s="9"/>
+      <c r="M287" s="8"/>
       <c r="N287" s="8"/>
       <c r="O287" s="8"/>
-      <c r="P287" s="8"/>
-    </row>
-    <row r="288" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="288" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="8"/>
       <c r="B288" s="10"/>
       <c r="C288" s="8"/>
@@ -15816,15 +15529,14 @@
       <c r="G288" s="8"/>
       <c r="H288" s="8"/>
       <c r="I288" s="8"/>
-      <c r="J288" s="8"/>
+      <c r="J288" s="9"/>
       <c r="K288" s="9"/>
       <c r="L288" s="9"/>
-      <c r="M288" s="9"/>
+      <c r="M288" s="8"/>
       <c r="N288" s="8"/>
       <c r="O288" s="8"/>
-      <c r="P288" s="8"/>
-    </row>
-    <row r="289" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="289" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="8"/>
       <c r="B289" s="10"/>
       <c r="C289" s="8"/>
@@ -15834,15 +15546,14 @@
       <c r="G289" s="8"/>
       <c r="H289" s="8"/>
       <c r="I289" s="8"/>
-      <c r="J289" s="8"/>
+      <c r="J289" s="9"/>
       <c r="K289" s="9"/>
       <c r="L289" s="9"/>
-      <c r="M289" s="9"/>
+      <c r="M289" s="8"/>
       <c r="N289" s="8"/>
       <c r="O289" s="8"/>
-      <c r="P289" s="8"/>
-    </row>
-    <row r="290" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="290" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="8"/>
       <c r="B290" s="10"/>
       <c r="C290" s="8"/>
@@ -15852,15 +15563,14 @@
       <c r="G290" s="8"/>
       <c r="H290" s="8"/>
       <c r="I290" s="8"/>
-      <c r="J290" s="8"/>
+      <c r="J290" s="9"/>
       <c r="K290" s="9"/>
       <c r="L290" s="9"/>
-      <c r="M290" s="9"/>
+      <c r="M290" s="8"/>
       <c r="N290" s="8"/>
       <c r="O290" s="8"/>
-      <c r="P290" s="8"/>
-    </row>
-    <row r="291" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="291" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="8"/>
       <c r="B291" s="10"/>
       <c r="C291" s="8"/>
@@ -15870,15 +15580,14 @@
       <c r="G291" s="8"/>
       <c r="H291" s="8"/>
       <c r="I291" s="8"/>
-      <c r="J291" s="8"/>
+      <c r="J291" s="9"/>
       <c r="K291" s="9"/>
       <c r="L291" s="9"/>
-      <c r="M291" s="9"/>
+      <c r="M291" s="8"/>
       <c r="N291" s="8"/>
       <c r="O291" s="8"/>
-      <c r="P291" s="8"/>
-    </row>
-    <row r="292" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="292" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="8"/>
       <c r="B292" s="10"/>
       <c r="C292" s="8"/>
@@ -15888,15 +15597,14 @@
       <c r="G292" s="8"/>
       <c r="H292" s="8"/>
       <c r="I292" s="8"/>
-      <c r="J292" s="8"/>
+      <c r="J292" s="9"/>
       <c r="K292" s="9"/>
       <c r="L292" s="9"/>
-      <c r="M292" s="9"/>
+      <c r="M292" s="8"/>
       <c r="N292" s="8"/>
       <c r="O292" s="8"/>
-      <c r="P292" s="8"/>
-    </row>
-    <row r="293" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="293" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="8"/>
       <c r="B293" s="10"/>
       <c r="C293" s="8"/>
@@ -15906,15 +15614,14 @@
       <c r="G293" s="8"/>
       <c r="H293" s="8"/>
       <c r="I293" s="8"/>
-      <c r="J293" s="8"/>
+      <c r="J293" s="9"/>
       <c r="K293" s="9"/>
       <c r="L293" s="9"/>
-      <c r="M293" s="9"/>
+      <c r="M293" s="8"/>
       <c r="N293" s="8"/>
       <c r="O293" s="8"/>
-      <c r="P293" s="8"/>
-    </row>
-    <row r="294" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="294" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="8"/>
       <c r="B294" s="10"/>
       <c r="C294" s="8"/>
@@ -15924,15 +15631,14 @@
       <c r="G294" s="8"/>
       <c r="H294" s="8"/>
       <c r="I294" s="8"/>
-      <c r="J294" s="8"/>
+      <c r="J294" s="9"/>
       <c r="K294" s="9"/>
       <c r="L294" s="9"/>
-      <c r="M294" s="9"/>
+      <c r="M294" s="8"/>
       <c r="N294" s="8"/>
       <c r="O294" s="8"/>
-      <c r="P294" s="8"/>
-    </row>
-    <row r="295" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="295" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="8"/>
       <c r="B295" s="10"/>
       <c r="C295" s="8"/>
@@ -15942,15 +15648,14 @@
       <c r="G295" s="8"/>
       <c r="H295" s="8"/>
       <c r="I295" s="8"/>
-      <c r="J295" s="8"/>
+      <c r="J295" s="9"/>
       <c r="K295" s="9"/>
       <c r="L295" s="9"/>
-      <c r="M295" s="9"/>
+      <c r="M295" s="8"/>
       <c r="N295" s="8"/>
       <c r="O295" s="8"/>
-      <c r="P295" s="8"/>
-    </row>
-    <row r="296" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="296" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="8"/>
       <c r="B296" s="10"/>
       <c r="C296" s="8"/>
@@ -15960,15 +15665,14 @@
       <c r="G296" s="8"/>
       <c r="H296" s="8"/>
       <c r="I296" s="8"/>
-      <c r="J296" s="8"/>
+      <c r="J296" s="9"/>
       <c r="K296" s="9"/>
       <c r="L296" s="9"/>
-      <c r="M296" s="9"/>
+      <c r="M296" s="8"/>
       <c r="N296" s="8"/>
       <c r="O296" s="8"/>
-      <c r="P296" s="8"/>
-    </row>
-    <row r="297" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="297" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="8"/>
       <c r="B297" s="10"/>
       <c r="C297" s="8"/>
@@ -15978,15 +15682,14 @@
       <c r="G297" s="8"/>
       <c r="H297" s="8"/>
       <c r="I297" s="8"/>
-      <c r="J297" s="8"/>
+      <c r="J297" s="9"/>
       <c r="K297" s="9"/>
       <c r="L297" s="9"/>
-      <c r="M297" s="9"/>
+      <c r="M297" s="8"/>
       <c r="N297" s="8"/>
       <c r="O297" s="8"/>
-      <c r="P297" s="8"/>
-    </row>
-    <row r="298" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="298" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="8"/>
       <c r="B298" s="10"/>
       <c r="C298" s="8"/>
@@ -15996,15 +15699,14 @@
       <c r="G298" s="8"/>
       <c r="H298" s="8"/>
       <c r="I298" s="8"/>
-      <c r="J298" s="8"/>
+      <c r="J298" s="9"/>
       <c r="K298" s="9"/>
       <c r="L298" s="9"/>
-      <c r="M298" s="9"/>
+      <c r="M298" s="8"/>
       <c r="N298" s="8"/>
       <c r="O298" s="8"/>
-      <c r="P298" s="8"/>
-    </row>
-    <row r="299" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="299" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="8"/>
       <c r="B299" s="10"/>
       <c r="C299" s="8"/>
@@ -16014,15 +15716,14 @@
       <c r="G299" s="8"/>
       <c r="H299" s="8"/>
       <c r="I299" s="8"/>
-      <c r="J299" s="8"/>
+      <c r="J299" s="9"/>
       <c r="K299" s="9"/>
       <c r="L299" s="9"/>
-      <c r="M299" s="9"/>
+      <c r="M299" s="8"/>
       <c r="N299" s="8"/>
       <c r="O299" s="8"/>
-      <c r="P299" s="8"/>
-    </row>
-    <row r="300" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="300" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="8"/>
       <c r="B300" s="10"/>
       <c r="C300" s="8"/>
@@ -16032,15 +15733,14 @@
       <c r="G300" s="8"/>
       <c r="H300" s="8"/>
       <c r="I300" s="8"/>
-      <c r="J300" s="8"/>
+      <c r="J300" s="9"/>
       <c r="K300" s="9"/>
       <c r="L300" s="9"/>
-      <c r="M300" s="9"/>
+      <c r="M300" s="8"/>
       <c r="N300" s="8"/>
       <c r="O300" s="8"/>
-      <c r="P300" s="8"/>
-    </row>
-    <row r="301" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="301" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="8"/>
       <c r="B301" s="10"/>
       <c r="C301" s="8"/>
@@ -16050,15 +15750,14 @@
       <c r="G301" s="8"/>
       <c r="H301" s="8"/>
       <c r="I301" s="8"/>
-      <c r="J301" s="8"/>
+      <c r="J301" s="9"/>
       <c r="K301" s="9"/>
       <c r="L301" s="9"/>
-      <c r="M301" s="9"/>
+      <c r="M301" s="8"/>
       <c r="N301" s="8"/>
       <c r="O301" s="8"/>
-      <c r="P301" s="8"/>
-    </row>
-    <row r="302" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="302" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="8"/>
       <c r="B302" s="10"/>
       <c r="C302" s="8"/>
@@ -16068,15 +15767,14 @@
       <c r="G302" s="8"/>
       <c r="H302" s="8"/>
       <c r="I302" s="8"/>
-      <c r="J302" s="8"/>
+      <c r="J302" s="9"/>
       <c r="K302" s="9"/>
       <c r="L302" s="9"/>
-      <c r="M302" s="9"/>
+      <c r="M302" s="8"/>
       <c r="N302" s="8"/>
       <c r="O302" s="8"/>
-      <c r="P302" s="8"/>
-    </row>
-    <row r="303" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="303" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="8"/>
       <c r="B303" s="10"/>
       <c r="C303" s="8"/>
@@ -16086,15 +15784,14 @@
       <c r="G303" s="8"/>
       <c r="H303" s="8"/>
       <c r="I303" s="8"/>
-      <c r="J303" s="8"/>
+      <c r="J303" s="9"/>
       <c r="K303" s="9"/>
       <c r="L303" s="9"/>
-      <c r="M303" s="9"/>
+      <c r="M303" s="8"/>
       <c r="N303" s="8"/>
       <c r="O303" s="8"/>
-      <c r="P303" s="8"/>
-    </row>
-    <row r="304" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="304" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="8"/>
       <c r="B304" s="10"/>
       <c r="C304" s="8"/>
@@ -16104,15 +15801,14 @@
       <c r="G304" s="8"/>
       <c r="H304" s="8"/>
       <c r="I304" s="8"/>
-      <c r="J304" s="8"/>
+      <c r="J304" s="9"/>
       <c r="K304" s="9"/>
       <c r="L304" s="9"/>
-      <c r="M304" s="9"/>
+      <c r="M304" s="8"/>
       <c r="N304" s="8"/>
       <c r="O304" s="8"/>
-      <c r="P304" s="8"/>
-    </row>
-    <row r="305" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="305" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="8"/>
       <c r="B305" s="10"/>
       <c r="C305" s="8"/>
@@ -16122,15 +15818,14 @@
       <c r="G305" s="8"/>
       <c r="H305" s="8"/>
       <c r="I305" s="8"/>
-      <c r="J305" s="8"/>
+      <c r="J305" s="9"/>
       <c r="K305" s="9"/>
       <c r="L305" s="9"/>
-      <c r="M305" s="9"/>
+      <c r="M305" s="8"/>
       <c r="N305" s="8"/>
       <c r="O305" s="8"/>
-      <c r="P305" s="8"/>
-    </row>
-    <row r="306" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="306" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="8"/>
       <c r="B306" s="10"/>
       <c r="C306" s="8"/>
@@ -16140,15 +15835,14 @@
       <c r="G306" s="8"/>
       <c r="H306" s="8"/>
       <c r="I306" s="8"/>
-      <c r="J306" s="8"/>
+      <c r="J306" s="9"/>
       <c r="K306" s="9"/>
       <c r="L306" s="9"/>
-      <c r="M306" s="9"/>
+      <c r="M306" s="8"/>
       <c r="N306" s="8"/>
       <c r="O306" s="8"/>
-      <c r="P306" s="8"/>
-    </row>
-    <row r="307" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="307" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="8"/>
       <c r="B307" s="10"/>
       <c r="C307" s="8"/>
@@ -16158,15 +15852,14 @@
       <c r="G307" s="8"/>
       <c r="H307" s="8"/>
       <c r="I307" s="8"/>
-      <c r="J307" s="8"/>
+      <c r="J307" s="9"/>
       <c r="K307" s="9"/>
       <c r="L307" s="9"/>
-      <c r="M307" s="9"/>
+      <c r="M307" s="8"/>
       <c r="N307" s="8"/>
       <c r="O307" s="8"/>
-      <c r="P307" s="8"/>
-    </row>
-    <row r="308" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="308" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="8"/>
       <c r="B308" s="10"/>
       <c r="C308" s="8"/>
@@ -16176,15 +15869,14 @@
       <c r="G308" s="8"/>
       <c r="H308" s="8"/>
       <c r="I308" s="8"/>
-      <c r="J308" s="8"/>
+      <c r="J308" s="9"/>
       <c r="K308" s="9"/>
       <c r="L308" s="9"/>
-      <c r="M308" s="9"/>
+      <c r="M308" s="8"/>
       <c r="N308" s="8"/>
       <c r="O308" s="8"/>
-      <c r="P308" s="8"/>
-    </row>
-    <row r="309" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="309" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="8"/>
       <c r="B309" s="10"/>
       <c r="C309" s="8"/>
@@ -16194,15 +15886,14 @@
       <c r="G309" s="8"/>
       <c r="H309" s="8"/>
       <c r="I309" s="8"/>
-      <c r="J309" s="8"/>
+      <c r="J309" s="9"/>
       <c r="K309" s="9"/>
       <c r="L309" s="9"/>
-      <c r="M309" s="9"/>
+      <c r="M309" s="8"/>
       <c r="N309" s="8"/>
       <c r="O309" s="8"/>
-      <c r="P309" s="8"/>
-    </row>
-    <row r="310" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="310" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="8"/>
       <c r="B310" s="10"/>
       <c r="C310" s="8"/>
@@ -16212,15 +15903,14 @@
       <c r="G310" s="8"/>
       <c r="H310" s="8"/>
       <c r="I310" s="8"/>
-      <c r="J310" s="8"/>
+      <c r="J310" s="9"/>
       <c r="K310" s="9"/>
       <c r="L310" s="9"/>
-      <c r="M310" s="9"/>
+      <c r="M310" s="8"/>
       <c r="N310" s="8"/>
       <c r="O310" s="8"/>
-      <c r="P310" s="8"/>
-    </row>
-    <row r="311" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="311" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="8"/>
       <c r="B311" s="10"/>
       <c r="C311" s="8"/>
@@ -16230,15 +15920,14 @@
       <c r="G311" s="8"/>
       <c r="H311" s="8"/>
       <c r="I311" s="8"/>
-      <c r="J311" s="8"/>
+      <c r="J311" s="9"/>
       <c r="K311" s="9"/>
       <c r="L311" s="9"/>
-      <c r="M311" s="9"/>
+      <c r="M311" s="8"/>
       <c r="N311" s="8"/>
       <c r="O311" s="8"/>
-      <c r="P311" s="8"/>
-    </row>
-    <row r="312" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="312" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="8"/>
       <c r="B312" s="10"/>
       <c r="C312" s="8"/>
@@ -16248,15 +15937,14 @@
       <c r="G312" s="8"/>
       <c r="H312" s="8"/>
       <c r="I312" s="8"/>
-      <c r="J312" s="8"/>
+      <c r="J312" s="9"/>
       <c r="K312" s="9"/>
       <c r="L312" s="9"/>
-      <c r="M312" s="9"/>
+      <c r="M312" s="8"/>
       <c r="N312" s="8"/>
       <c r="O312" s="8"/>
-      <c r="P312" s="8"/>
-    </row>
-    <row r="313" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="313" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="8"/>
       <c r="B313" s="10"/>
       <c r="C313" s="8"/>
@@ -16266,15 +15954,14 @@
       <c r="G313" s="8"/>
       <c r="H313" s="8"/>
       <c r="I313" s="8"/>
-      <c r="J313" s="8"/>
+      <c r="J313" s="9"/>
       <c r="K313" s="9"/>
       <c r="L313" s="9"/>
-      <c r="M313" s="9"/>
+      <c r="M313" s="8"/>
       <c r="N313" s="8"/>
       <c r="O313" s="8"/>
-      <c r="P313" s="8"/>
-    </row>
-    <row r="314" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="314" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="8"/>
       <c r="B314" s="10"/>
       <c r="C314" s="8"/>
@@ -16284,15 +15971,14 @@
       <c r="G314" s="8"/>
       <c r="H314" s="8"/>
       <c r="I314" s="8"/>
-      <c r="J314" s="8"/>
+      <c r="J314" s="9"/>
       <c r="K314" s="9"/>
       <c r="L314" s="9"/>
-      <c r="M314" s="9"/>
+      <c r="M314" s="8"/>
       <c r="N314" s="8"/>
       <c r="O314" s="8"/>
-      <c r="P314" s="8"/>
-    </row>
-    <row r="315" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="315" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="8"/>
       <c r="B315" s="10"/>
       <c r="C315" s="8"/>
@@ -16302,15 +15988,14 @@
       <c r="G315" s="8"/>
       <c r="H315" s="8"/>
       <c r="I315" s="8"/>
-      <c r="J315" s="8"/>
+      <c r="J315" s="9"/>
       <c r="K315" s="9"/>
       <c r="L315" s="9"/>
-      <c r="M315" s="9"/>
+      <c r="M315" s="8"/>
       <c r="N315" s="8"/>
       <c r="O315" s="8"/>
-      <c r="P315" s="8"/>
-    </row>
-    <row r="316" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="316" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="8"/>
       <c r="B316" s="10"/>
       <c r="C316" s="8"/>
@@ -16320,15 +16005,14 @@
       <c r="G316" s="8"/>
       <c r="H316" s="8"/>
       <c r="I316" s="8"/>
-      <c r="J316" s="8"/>
+      <c r="J316" s="9"/>
       <c r="K316" s="9"/>
       <c r="L316" s="9"/>
-      <c r="M316" s="9"/>
+      <c r="M316" s="8"/>
       <c r="N316" s="8"/>
       <c r="O316" s="8"/>
-      <c r="P316" s="8"/>
-    </row>
-    <row r="317" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="317" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="8"/>
       <c r="B317" s="10"/>
       <c r="C317" s="8"/>
@@ -16338,15 +16022,14 @@
       <c r="G317" s="8"/>
       <c r="H317" s="8"/>
       <c r="I317" s="8"/>
-      <c r="J317" s="8"/>
+      <c r="J317" s="9"/>
       <c r="K317" s="9"/>
       <c r="L317" s="9"/>
-      <c r="M317" s="9"/>
+      <c r="M317" s="8"/>
       <c r="N317" s="8"/>
       <c r="O317" s="8"/>
-      <c r="P317" s="8"/>
-    </row>
-    <row r="318" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="318" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="8"/>
       <c r="B318" s="10"/>
       <c r="C318" s="8"/>
@@ -16356,15 +16039,14 @@
       <c r="G318" s="8"/>
       <c r="H318" s="8"/>
       <c r="I318" s="8"/>
-      <c r="J318" s="8"/>
+      <c r="J318" s="9"/>
       <c r="K318" s="9"/>
       <c r="L318" s="9"/>
-      <c r="M318" s="9"/>
+      <c r="M318" s="8"/>
       <c r="N318" s="8"/>
       <c r="O318" s="8"/>
-      <c r="P318" s="8"/>
-    </row>
-    <row r="319" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="319" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="8"/>
       <c r="B319" s="10"/>
       <c r="C319" s="8"/>
@@ -16374,15 +16056,14 @@
       <c r="G319" s="8"/>
       <c r="H319" s="8"/>
       <c r="I319" s="8"/>
-      <c r="J319" s="8"/>
+      <c r="J319" s="9"/>
       <c r="K319" s="9"/>
       <c r="L319" s="9"/>
-      <c r="M319" s="9"/>
+      <c r="M319" s="8"/>
       <c r="N319" s="8"/>
       <c r="O319" s="8"/>
-      <c r="P319" s="8"/>
-    </row>
-    <row r="320" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="320" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="8"/>
       <c r="B320" s="10"/>
       <c r="C320" s="8"/>
@@ -16392,15 +16073,14 @@
       <c r="G320" s="8"/>
       <c r="H320" s="8"/>
       <c r="I320" s="8"/>
-      <c r="J320" s="8"/>
+      <c r="J320" s="9"/>
       <c r="K320" s="9"/>
       <c r="L320" s="9"/>
-      <c r="M320" s="9"/>
+      <c r="M320" s="8"/>
       <c r="N320" s="8"/>
       <c r="O320" s="8"/>
-      <c r="P320" s="8"/>
-    </row>
-    <row r="321" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="321" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="8"/>
       <c r="B321" s="10"/>
       <c r="C321" s="8"/>
@@ -16410,15 +16090,14 @@
       <c r="G321" s="8"/>
       <c r="H321" s="8"/>
       <c r="I321" s="8"/>
-      <c r="J321" s="8"/>
+      <c r="J321" s="9"/>
       <c r="K321" s="9"/>
       <c r="L321" s="9"/>
-      <c r="M321" s="9"/>
+      <c r="M321" s="8"/>
       <c r="N321" s="8"/>
       <c r="O321" s="8"/>
-      <c r="P321" s="8"/>
-    </row>
-    <row r="322" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="322" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="8"/>
       <c r="B322" s="10"/>
       <c r="C322" s="8"/>
@@ -16428,15 +16107,14 @@
       <c r="G322" s="8"/>
       <c r="H322" s="8"/>
       <c r="I322" s="8"/>
-      <c r="J322" s="8"/>
+      <c r="J322" s="9"/>
       <c r="K322" s="9"/>
       <c r="L322" s="9"/>
-      <c r="M322" s="9"/>
+      <c r="M322" s="8"/>
       <c r="N322" s="8"/>
       <c r="O322" s="8"/>
-      <c r="P322" s="8"/>
-    </row>
-    <row r="323" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="323" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="8"/>
       <c r="B323" s="10"/>
       <c r="C323" s="8"/>
@@ -16446,15 +16124,14 @@
       <c r="G323" s="8"/>
       <c r="H323" s="8"/>
       <c r="I323" s="8"/>
-      <c r="J323" s="8"/>
+      <c r="J323" s="9"/>
       <c r="K323" s="9"/>
       <c r="L323" s="9"/>
-      <c r="M323" s="9"/>
+      <c r="M323" s="8"/>
       <c r="N323" s="8"/>
       <c r="O323" s="8"/>
-      <c r="P323" s="8"/>
-    </row>
-    <row r="324" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="324" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="8"/>
       <c r="B324" s="10"/>
       <c r="C324" s="8"/>
@@ -16464,15 +16141,14 @@
       <c r="G324" s="8"/>
       <c r="H324" s="8"/>
       <c r="I324" s="8"/>
-      <c r="J324" s="8"/>
+      <c r="J324" s="9"/>
       <c r="K324" s="9"/>
       <c r="L324" s="9"/>
-      <c r="M324" s="9"/>
+      <c r="M324" s="8"/>
       <c r="N324" s="8"/>
       <c r="O324" s="8"/>
-      <c r="P324" s="8"/>
-    </row>
-    <row r="325" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="325" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="8"/>
       <c r="B325" s="10"/>
       <c r="C325" s="8"/>
@@ -16482,15 +16158,14 @@
       <c r="G325" s="8"/>
       <c r="H325" s="8"/>
       <c r="I325" s="8"/>
-      <c r="J325" s="8"/>
+      <c r="J325" s="9"/>
       <c r="K325" s="9"/>
       <c r="L325" s="9"/>
-      <c r="M325" s="9"/>
+      <c r="M325" s="8"/>
       <c r="N325" s="8"/>
       <c r="O325" s="8"/>
-      <c r="P325" s="8"/>
-    </row>
-    <row r="326" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="326" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="8"/>
       <c r="B326" s="10"/>
       <c r="C326" s="8"/>
@@ -16500,15 +16175,14 @@
       <c r="G326" s="8"/>
       <c r="H326" s="8"/>
       <c r="I326" s="8"/>
-      <c r="J326" s="8"/>
+      <c r="J326" s="9"/>
       <c r="K326" s="9"/>
       <c r="L326" s="9"/>
-      <c r="M326" s="9"/>
+      <c r="M326" s="8"/>
       <c r="N326" s="8"/>
       <c r="O326" s="8"/>
-      <c r="P326" s="8"/>
-    </row>
-    <row r="327" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="327" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="8"/>
       <c r="B327" s="10"/>
       <c r="C327" s="8"/>
@@ -16518,15 +16192,14 @@
       <c r="G327" s="8"/>
       <c r="H327" s="8"/>
       <c r="I327" s="8"/>
-      <c r="J327" s="8"/>
+      <c r="J327" s="9"/>
       <c r="K327" s="9"/>
       <c r="L327" s="9"/>
-      <c r="M327" s="9"/>
+      <c r="M327" s="8"/>
       <c r="N327" s="8"/>
       <c r="O327" s="8"/>
-      <c r="P327" s="8"/>
-    </row>
-    <row r="328" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="328" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="8"/>
       <c r="B328" s="10"/>
       <c r="C328" s="8"/>
@@ -16536,15 +16209,14 @@
       <c r="G328" s="8"/>
       <c r="H328" s="8"/>
       <c r="I328" s="8"/>
-      <c r="J328" s="8"/>
+      <c r="J328" s="9"/>
       <c r="K328" s="9"/>
       <c r="L328" s="9"/>
-      <c r="M328" s="9"/>
+      <c r="M328" s="8"/>
       <c r="N328" s="8"/>
       <c r="O328" s="8"/>
-      <c r="P328" s="8"/>
-    </row>
-    <row r="329" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="329" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="8"/>
       <c r="B329" s="10"/>
       <c r="C329" s="8"/>
@@ -16554,15 +16226,14 @@
       <c r="G329" s="8"/>
       <c r="H329" s="8"/>
       <c r="I329" s="8"/>
-      <c r="J329" s="8"/>
+      <c r="J329" s="9"/>
       <c r="K329" s="9"/>
       <c r="L329" s="9"/>
-      <c r="M329" s="9"/>
+      <c r="M329" s="8"/>
       <c r="N329" s="8"/>
       <c r="O329" s="8"/>
-      <c r="P329" s="8"/>
-    </row>
-    <row r="330" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="330" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="8"/>
       <c r="B330" s="10"/>
       <c r="C330" s="8"/>
@@ -16572,15 +16243,14 @@
       <c r="G330" s="8"/>
       <c r="H330" s="8"/>
       <c r="I330" s="8"/>
-      <c r="J330" s="8"/>
+      <c r="J330" s="9"/>
       <c r="K330" s="9"/>
       <c r="L330" s="9"/>
-      <c r="M330" s="9"/>
+      <c r="M330" s="8"/>
       <c r="N330" s="8"/>
       <c r="O330" s="8"/>
-      <c r="P330" s="8"/>
-    </row>
-    <row r="331" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="331" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="8"/>
       <c r="B331" s="10"/>
       <c r="C331" s="8"/>
@@ -16590,15 +16260,14 @@
       <c r="G331" s="8"/>
       <c r="H331" s="8"/>
       <c r="I331" s="8"/>
-      <c r="J331" s="8"/>
+      <c r="J331" s="9"/>
       <c r="K331" s="9"/>
       <c r="L331" s="9"/>
-      <c r="M331" s="9"/>
+      <c r="M331" s="8"/>
       <c r="N331" s="8"/>
       <c r="O331" s="8"/>
-      <c r="P331" s="8"/>
-    </row>
-    <row r="332" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="332" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="8"/>
       <c r="B332" s="10"/>
       <c r="C332" s="8"/>
@@ -16608,15 +16277,14 @@
       <c r="G332" s="8"/>
       <c r="H332" s="8"/>
       <c r="I332" s="8"/>
-      <c r="J332" s="8"/>
+      <c r="J332" s="9"/>
       <c r="K332" s="9"/>
       <c r="L332" s="9"/>
-      <c r="M332" s="9"/>
+      <c r="M332" s="8"/>
       <c r="N332" s="8"/>
       <c r="O332" s="8"/>
-      <c r="P332" s="8"/>
-    </row>
-    <row r="333" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="333" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="8"/>
       <c r="B333" s="10"/>
       <c r="C333" s="8"/>
@@ -16626,15 +16294,14 @@
       <c r="G333" s="8"/>
       <c r="H333" s="8"/>
       <c r="I333" s="8"/>
-      <c r="J333" s="8"/>
+      <c r="J333" s="9"/>
       <c r="K333" s="9"/>
       <c r="L333" s="9"/>
-      <c r="M333" s="9"/>
+      <c r="M333" s="8"/>
       <c r="N333" s="8"/>
       <c r="O333" s="8"/>
-      <c r="P333" s="8"/>
-    </row>
-    <row r="334" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="334" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="8"/>
       <c r="B334" s="10"/>
       <c r="C334" s="8"/>
@@ -16644,15 +16311,14 @@
       <c r="G334" s="8"/>
       <c r="H334" s="8"/>
       <c r="I334" s="8"/>
-      <c r="J334" s="8"/>
+      <c r="J334" s="9"/>
       <c r="K334" s="9"/>
       <c r="L334" s="9"/>
-      <c r="M334" s="9"/>
+      <c r="M334" s="8"/>
       <c r="N334" s="8"/>
       <c r="O334" s="8"/>
-      <c r="P334" s="8"/>
-    </row>
-    <row r="335" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="335" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="8"/>
       <c r="B335" s="10"/>
       <c r="C335" s="8"/>
@@ -16662,15 +16328,14 @@
       <c r="G335" s="8"/>
       <c r="H335" s="8"/>
       <c r="I335" s="8"/>
-      <c r="J335" s="8"/>
+      <c r="J335" s="9"/>
       <c r="K335" s="9"/>
       <c r="L335" s="9"/>
-      <c r="M335" s="9"/>
+      <c r="M335" s="8"/>
       <c r="N335" s="8"/>
       <c r="O335" s="8"/>
-      <c r="P335" s="8"/>
-    </row>
-    <row r="336" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="336" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="8"/>
       <c r="B336" s="10"/>
       <c r="C336" s="8"/>
@@ -16680,15 +16345,14 @@
       <c r="G336" s="8"/>
       <c r="H336" s="8"/>
       <c r="I336" s="8"/>
-      <c r="J336" s="8"/>
+      <c r="J336" s="9"/>
       <c r="K336" s="9"/>
       <c r="L336" s="9"/>
-      <c r="M336" s="9"/>
+      <c r="M336" s="8"/>
       <c r="N336" s="8"/>
       <c r="O336" s="8"/>
-      <c r="P336" s="8"/>
-    </row>
-    <row r="337" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="337" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="8"/>
       <c r="B337" s="10"/>
       <c r="C337" s="8"/>
@@ -16698,15 +16362,14 @@
       <c r="G337" s="8"/>
       <c r="H337" s="8"/>
       <c r="I337" s="8"/>
-      <c r="J337" s="8"/>
+      <c r="J337" s="9"/>
       <c r="K337" s="9"/>
       <c r="L337" s="9"/>
-      <c r="M337" s="9"/>
+      <c r="M337" s="8"/>
       <c r="N337" s="8"/>
       <c r="O337" s="8"/>
-      <c r="P337" s="8"/>
-    </row>
-    <row r="338" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="338" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="8"/>
       <c r="B338" s="10"/>
       <c r="C338" s="8"/>
@@ -16716,15 +16379,14 @@
       <c r="G338" s="8"/>
       <c r="H338" s="8"/>
       <c r="I338" s="8"/>
-      <c r="J338" s="8"/>
+      <c r="J338" s="9"/>
       <c r="K338" s="9"/>
       <c r="L338" s="9"/>
-      <c r="M338" s="9"/>
+      <c r="M338" s="8"/>
       <c r="N338" s="8"/>
       <c r="O338" s="8"/>
-      <c r="P338" s="8"/>
-    </row>
-    <row r="339" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="339" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="8"/>
       <c r="B339" s="10"/>
       <c r="C339" s="8"/>
@@ -16734,15 +16396,14 @@
       <c r="G339" s="8"/>
       <c r="H339" s="8"/>
       <c r="I339" s="8"/>
-      <c r="J339" s="8"/>
+      <c r="J339" s="9"/>
       <c r="K339" s="9"/>
       <c r="L339" s="9"/>
-      <c r="M339" s="9"/>
+      <c r="M339" s="8"/>
       <c r="N339" s="8"/>
       <c r="O339" s="8"/>
-      <c r="P339" s="8"/>
-    </row>
-    <row r="340" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="340" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="8"/>
       <c r="B340" s="10"/>
       <c r="C340" s="8"/>
@@ -16752,15 +16413,14 @@
       <c r="G340" s="8"/>
       <c r="H340" s="8"/>
       <c r="I340" s="8"/>
-      <c r="J340" s="8"/>
+      <c r="J340" s="9"/>
       <c r="K340" s="9"/>
       <c r="L340" s="9"/>
-      <c r="M340" s="9"/>
+      <c r="M340" s="8"/>
       <c r="N340" s="8"/>
       <c r="O340" s="8"/>
-      <c r="P340" s="8"/>
-    </row>
-    <row r="341" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="341" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="8"/>
       <c r="B341" s="10"/>
       <c r="C341" s="8"/>
@@ -16770,15 +16430,14 @@
       <c r="G341" s="8"/>
       <c r="H341" s="8"/>
       <c r="I341" s="8"/>
-      <c r="J341" s="8"/>
+      <c r="J341" s="9"/>
       <c r="K341" s="9"/>
       <c r="L341" s="9"/>
-      <c r="M341" s="9"/>
+      <c r="M341" s="8"/>
       <c r="N341" s="8"/>
       <c r="O341" s="8"/>
-      <c r="P341" s="8"/>
-    </row>
-    <row r="342" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="342" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="8"/>
       <c r="B342" s="10"/>
       <c r="C342" s="8"/>
@@ -16788,15 +16447,14 @@
       <c r="G342" s="8"/>
       <c r="H342" s="8"/>
       <c r="I342" s="8"/>
-      <c r="J342" s="8"/>
+      <c r="J342" s="9"/>
       <c r="K342" s="9"/>
       <c r="L342" s="9"/>
-      <c r="M342" s="9"/>
+      <c r="M342" s="8"/>
       <c r="N342" s="8"/>
       <c r="O342" s="8"/>
-      <c r="P342" s="8"/>
-    </row>
-    <row r="343" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="343" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="8"/>
       <c r="B343" s="10"/>
       <c r="C343" s="8"/>
@@ -16806,15 +16464,14 @@
       <c r="G343" s="8"/>
       <c r="H343" s="8"/>
       <c r="I343" s="8"/>
-      <c r="J343" s="8"/>
+      <c r="J343" s="9"/>
       <c r="K343" s="9"/>
       <c r="L343" s="9"/>
-      <c r="M343" s="9"/>
+      <c r="M343" s="8"/>
       <c r="N343" s="8"/>
       <c r="O343" s="8"/>
-      <c r="P343" s="8"/>
-    </row>
-    <row r="344" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="344" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="8"/>
       <c r="B344" s="10"/>
       <c r="C344" s="8"/>
@@ -16824,15 +16481,14 @@
       <c r="G344" s="8"/>
       <c r="H344" s="8"/>
       <c r="I344" s="8"/>
-      <c r="J344" s="8"/>
+      <c r="J344" s="9"/>
       <c r="K344" s="9"/>
       <c r="L344" s="9"/>
-      <c r="M344" s="9"/>
+      <c r="M344" s="8"/>
       <c r="N344" s="8"/>
       <c r="O344" s="8"/>
-      <c r="P344" s="8"/>
-    </row>
-    <row r="345" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="345" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="8"/>
       <c r="B345" s="10"/>
       <c r="C345" s="8"/>
@@ -16842,15 +16498,14 @@
       <c r="G345" s="8"/>
       <c r="H345" s="8"/>
       <c r="I345" s="8"/>
-      <c r="J345" s="8"/>
+      <c r="J345" s="9"/>
       <c r="K345" s="9"/>
       <c r="L345" s="9"/>
-      <c r="M345" s="9"/>
+      <c r="M345" s="8"/>
       <c r="N345" s="8"/>
       <c r="O345" s="8"/>
-      <c r="P345" s="8"/>
-    </row>
-    <row r="346" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="346" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="8"/>
       <c r="B346" s="10"/>
       <c r="C346" s="8"/>
@@ -16860,15 +16515,14 @@
       <c r="G346" s="8"/>
       <c r="H346" s="8"/>
       <c r="I346" s="8"/>
-      <c r="J346" s="8"/>
+      <c r="J346" s="9"/>
       <c r="K346" s="9"/>
       <c r="L346" s="9"/>
-      <c r="M346" s="9"/>
+      <c r="M346" s="8"/>
       <c r="N346" s="8"/>
       <c r="O346" s="8"/>
-      <c r="P346" s="8"/>
-    </row>
-    <row r="347" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="347" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="8"/>
       <c r="B347" s="10"/>
       <c r="C347" s="8"/>
@@ -16878,15 +16532,14 @@
       <c r="G347" s="8"/>
       <c r="H347" s="8"/>
       <c r="I347" s="8"/>
-      <c r="J347" s="8"/>
+      <c r="J347" s="9"/>
       <c r="K347" s="9"/>
       <c r="L347" s="9"/>
-      <c r="M347" s="9"/>
+      <c r="M347" s="8"/>
       <c r="N347" s="8"/>
       <c r="O347" s="8"/>
-      <c r="P347" s="8"/>
-    </row>
-    <row r="348" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="348" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="8"/>
       <c r="B348" s="10"/>
       <c r="C348" s="8"/>
@@ -16896,15 +16549,14 @@
       <c r="G348" s="8"/>
       <c r="H348" s="8"/>
       <c r="I348" s="8"/>
-      <c r="J348" s="8"/>
+      <c r="J348" s="9"/>
       <c r="K348" s="9"/>
       <c r="L348" s="9"/>
-      <c r="M348" s="9"/>
+      <c r="M348" s="8"/>
       <c r="N348" s="8"/>
       <c r="O348" s="8"/>
-      <c r="P348" s="8"/>
-    </row>
-    <row r="349" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="349" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="8"/>
       <c r="B349" s="10"/>
       <c r="C349" s="8"/>
@@ -16914,15 +16566,14 @@
       <c r="G349" s="8"/>
       <c r="H349" s="8"/>
       <c r="I349" s="8"/>
-      <c r="J349" s="8"/>
+      <c r="J349" s="9"/>
       <c r="K349" s="9"/>
       <c r="L349" s="9"/>
-      <c r="M349" s="9"/>
+      <c r="M349" s="8"/>
       <c r="N349" s="8"/>
       <c r="O349" s="8"/>
-      <c r="P349" s="8"/>
-    </row>
-    <row r="350" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="350" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="8"/>
       <c r="B350" s="10"/>
       <c r="C350" s="8"/>
@@ -16932,15 +16583,14 @@
       <c r="G350" s="8"/>
       <c r="H350" s="8"/>
       <c r="I350" s="8"/>
-      <c r="J350" s="8"/>
+      <c r="J350" s="9"/>
       <c r="K350" s="9"/>
       <c r="L350" s="9"/>
-      <c r="M350" s="9"/>
+      <c r="M350" s="8"/>
       <c r="N350" s="8"/>
       <c r="O350" s="8"/>
-      <c r="P350" s="8"/>
-    </row>
-    <row r="351" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="351" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="8"/>
       <c r="B351" s="10"/>
       <c r="C351" s="8"/>
@@ -16950,15 +16600,14 @@
       <c r="G351" s="8"/>
       <c r="H351" s="8"/>
       <c r="I351" s="8"/>
-      <c r="J351" s="8"/>
+      <c r="J351" s="9"/>
       <c r="K351" s="9"/>
       <c r="L351" s="9"/>
-      <c r="M351" s="9"/>
+      <c r="M351" s="8"/>
       <c r="N351" s="8"/>
       <c r="O351" s="8"/>
-      <c r="P351" s="8"/>
-    </row>
-    <row r="352" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="352" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="8"/>
       <c r="B352" s="10"/>
       <c r="C352" s="8"/>
@@ -16968,15 +16617,14 @@
       <c r="G352" s="8"/>
       <c r="H352" s="8"/>
       <c r="I352" s="8"/>
-      <c r="J352" s="8"/>
+      <c r="J352" s="9"/>
       <c r="K352" s="9"/>
       <c r="L352" s="9"/>
-      <c r="M352" s="9"/>
+      <c r="M352" s="8"/>
       <c r="N352" s="8"/>
       <c r="O352" s="8"/>
-      <c r="P352" s="8"/>
-    </row>
-    <row r="353" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="353" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="8"/>
       <c r="B353" s="10"/>
       <c r="C353" s="8"/>
@@ -16986,15 +16634,14 @@
       <c r="G353" s="8"/>
       <c r="H353" s="8"/>
       <c r="I353" s="8"/>
-      <c r="J353" s="8"/>
+      <c r="J353" s="9"/>
       <c r="K353" s="9"/>
       <c r="L353" s="9"/>
-      <c r="M353" s="9"/>
+      <c r="M353" s="8"/>
       <c r="N353" s="8"/>
       <c r="O353" s="8"/>
-      <c r="P353" s="8"/>
-    </row>
-    <row r="354" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="354" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="8"/>
       <c r="B354" s="10"/>
       <c r="C354" s="8"/>
@@ -17004,15 +16651,14 @@
       <c r="G354" s="8"/>
       <c r="H354" s="8"/>
       <c r="I354" s="8"/>
-      <c r="J354" s="8"/>
+      <c r="J354" s="9"/>
       <c r="K354" s="9"/>
       <c r="L354" s="9"/>
-      <c r="M354" s="9"/>
+      <c r="M354" s="8"/>
       <c r="N354" s="8"/>
       <c r="O354" s="8"/>
-      <c r="P354" s="8"/>
-    </row>
-    <row r="355" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="355" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="8"/>
       <c r="B355" s="10"/>
       <c r="C355" s="8"/>
@@ -17022,15 +16668,14 @@
       <c r="G355" s="8"/>
       <c r="H355" s="8"/>
       <c r="I355" s="8"/>
-      <c r="J355" s="8"/>
+      <c r="J355" s="9"/>
       <c r="K355" s="9"/>
       <c r="L355" s="9"/>
-      <c r="M355" s="9"/>
+      <c r="M355" s="8"/>
       <c r="N355" s="8"/>
       <c r="O355" s="8"/>
-      <c r="P355" s="8"/>
-    </row>
-    <row r="356" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="356" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="8"/>
       <c r="B356" s="10"/>
       <c r="C356" s="8"/>
@@ -17040,15 +16685,14 @@
       <c r="G356" s="8"/>
       <c r="H356" s="8"/>
       <c r="I356" s="8"/>
-      <c r="J356" s="8"/>
+      <c r="J356" s="9"/>
       <c r="K356" s="9"/>
       <c r="L356" s="9"/>
-      <c r="M356" s="9"/>
+      <c r="M356" s="8"/>
       <c r="N356" s="8"/>
       <c r="O356" s="8"/>
-      <c r="P356" s="8"/>
-    </row>
-    <row r="357" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="357" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="8"/>
       <c r="B357" s="10"/>
       <c r="C357" s="8"/>
@@ -17058,75 +16702,74 @@
       <c r="G357" s="8"/>
       <c r="H357" s="8"/>
       <c r="I357" s="8"/>
-      <c r="J357" s="8"/>
+      <c r="J357" s="9"/>
       <c r="K357" s="9"/>
       <c r="L357" s="9"/>
-      <c r="M357" s="9"/>
+      <c r="M357" s="8"/>
       <c r="N357" s="8"/>
       <c r="O357" s="8"/>
-      <c r="P357" s="8"/>
-    </row>
-    <row r="358" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="D358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="D359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="D360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="D361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="D362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="D363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="D364" s="4"/>
       <c r="F364" s="4"/>
     </row>
-    <row r="365" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="D365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="D366" s="4"/>
       <c r="F366" s="4"/>
     </row>
-    <row r="367" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="D367" s="4"/>
       <c r="F367" s="4"/>
     </row>
-    <row r="368" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="D368" s="4"/>

--- a/DataRepo/data/tests/submission_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DCADA0-A873-B34A-812C-ACC89559BB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA311036-2EE3-2140-9720-E9BF5B0B77EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -21,13 +21,13 @@
     <sheet name="Infusates" sheetId="6" r:id="rId6"/>
     <sheet name="Tracers" sheetId="7" r:id="rId7"/>
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
-    <sheet name="Peak Annotation Files" sheetId="12" r:id="rId9"/>
-    <sheet name="Peak Annotation Details" sheetId="9" r:id="rId10"/>
-    <sheet name="Sequences" sheetId="10" r:id="rId11"/>
-    <sheet name="LC Protocols" sheetId="13" r:id="rId12"/>
+    <sheet name="LC Protocols" sheetId="13" r:id="rId9"/>
+    <sheet name="Sequences" sheetId="10" r:id="rId10"/>
+    <sheet name="Peak Annotation Files" sheetId="12" r:id="rId11"/>
+    <sheet name="Peak Annotation Details" sheetId="9" r:id="rId12"/>
     <sheet name="Defaults" sheetId="11" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="534">
   <si>
     <t>Animal ID</t>
   </si>
@@ -1565,9 +1565,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Sample Name Prefix</t>
-  </si>
-  <si>
     <t>BCAAs (VLI) {valine-[13C5,15N1]; leucine-[13C6,15N1]; isoleucine-[13C6,15N1]}</t>
   </si>
   <si>
@@ -1644,6 +1641,15 @@
   </si>
   <si>
     <t>alanine-[13C3,15N1][180]</t>
+  </si>
+  <si>
+    <t>Peak Annotation File</t>
+  </si>
+  <si>
+    <t>File Format</t>
+  </si>
+  <si>
+    <t>Default Sequence Name</t>
   </si>
 </sst>
 </file>
@@ -2224,2711 +2230,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
-  <dimension ref="A1:K157"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D4" t="s">
-        <v>494</v>
-      </c>
-      <c r="E4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" t="s">
-        <v>494</v>
-      </c>
-      <c r="E5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D6" t="s">
-        <v>494</v>
-      </c>
-      <c r="E6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" t="s">
-        <v>494</v>
-      </c>
-      <c r="E7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D9" t="s">
-        <v>494</v>
-      </c>
-      <c r="E9" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D10" t="s">
-        <v>494</v>
-      </c>
-      <c r="E10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" t="s">
-        <v>494</v>
-      </c>
-      <c r="E11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" t="s">
-        <v>494</v>
-      </c>
-      <c r="E12" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D13" t="s">
-        <v>494</v>
-      </c>
-      <c r="E13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" t="s">
-        <v>494</v>
-      </c>
-      <c r="E14" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E15" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>351</v>
-      </c>
-      <c r="D16" t="s">
-        <v>494</v>
-      </c>
-      <c r="E16" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D17" t="s">
-        <v>494</v>
-      </c>
-      <c r="E17" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>353</v>
-      </c>
-      <c r="D18" t="s">
-        <v>494</v>
-      </c>
-      <c r="E18" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>354</v>
-      </c>
-      <c r="D19" t="s">
-        <v>494</v>
-      </c>
-      <c r="E19" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D20" t="s">
-        <v>494</v>
-      </c>
-      <c r="E20" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" t="s">
-        <v>494</v>
-      </c>
-      <c r="E21" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>357</v>
-      </c>
-      <c r="D22" t="s">
-        <v>494</v>
-      </c>
-      <c r="E22" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D23" t="s">
-        <v>494</v>
-      </c>
-      <c r="E23" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>359</v>
-      </c>
-      <c r="D24" t="s">
-        <v>494</v>
-      </c>
-      <c r="E24" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>360</v>
-      </c>
-      <c r="D25" t="s">
-        <v>494</v>
-      </c>
-      <c r="E25" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>361</v>
-      </c>
-      <c r="D26" t="s">
-        <v>494</v>
-      </c>
-      <c r="E26" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>362</v>
-      </c>
-      <c r="D27" t="s">
-        <v>494</v>
-      </c>
-      <c r="E27" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>363</v>
-      </c>
-      <c r="D28" t="s">
-        <v>494</v>
-      </c>
-      <c r="E28" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>364</v>
-      </c>
-      <c r="D29" t="s">
-        <v>494</v>
-      </c>
-      <c r="E29" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>365</v>
-      </c>
-      <c r="D30" t="s">
-        <v>494</v>
-      </c>
-      <c r="E30" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D31" t="s">
-        <v>494</v>
-      </c>
-      <c r="E31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>367</v>
-      </c>
-      <c r="D32" t="s">
-        <v>494</v>
-      </c>
-      <c r="E32" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D33" t="s">
-        <v>494</v>
-      </c>
-      <c r="E33" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>369</v>
-      </c>
-      <c r="D34" t="s">
-        <v>494</v>
-      </c>
-      <c r="E34" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>370</v>
-      </c>
-      <c r="D35" t="s">
-        <v>494</v>
-      </c>
-      <c r="E35" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>371</v>
-      </c>
-      <c r="D36" t="s">
-        <v>494</v>
-      </c>
-      <c r="E36" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>372</v>
-      </c>
-      <c r="D37" t="s">
-        <v>494</v>
-      </c>
-      <c r="E37" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" t="s">
-        <v>373</v>
-      </c>
-      <c r="D38" t="s">
-        <v>495</v>
-      </c>
-      <c r="E38" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>374</v>
-      </c>
-      <c r="D39" t="s">
-        <v>495</v>
-      </c>
-      <c r="E39" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" t="s">
-        <v>375</v>
-      </c>
-      <c r="D40" t="s">
-        <v>495</v>
-      </c>
-      <c r="E40" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" t="s">
-        <v>376</v>
-      </c>
-      <c r="D41" t="s">
-        <v>495</v>
-      </c>
-      <c r="E41" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" t="s">
-        <v>377</v>
-      </c>
-      <c r="D42" t="s">
-        <v>495</v>
-      </c>
-      <c r="E42" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" t="s">
-        <v>378</v>
-      </c>
-      <c r="D43" t="s">
-        <v>495</v>
-      </c>
-      <c r="E43" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>379</v>
-      </c>
-      <c r="D44" t="s">
-        <v>495</v>
-      </c>
-      <c r="E44" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>380</v>
-      </c>
-      <c r="D45" t="s">
-        <v>495</v>
-      </c>
-      <c r="E45" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>381</v>
-      </c>
-      <c r="D46" t="s">
-        <v>495</v>
-      </c>
-      <c r="E46" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>382</v>
-      </c>
-      <c r="D47" t="s">
-        <v>495</v>
-      </c>
-      <c r="E47" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>383</v>
-      </c>
-      <c r="D48" t="s">
-        <v>495</v>
-      </c>
-      <c r="E48" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" t="s">
-        <v>384</v>
-      </c>
-      <c r="D49" t="s">
-        <v>495</v>
-      </c>
-      <c r="E49" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" t="s">
-        <v>385</v>
-      </c>
-      <c r="D50" t="s">
-        <v>495</v>
-      </c>
-      <c r="E50" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" t="s">
-        <v>386</v>
-      </c>
-      <c r="D51" t="s">
-        <v>495</v>
-      </c>
-      <c r="E51" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" t="s">
-        <v>387</v>
-      </c>
-      <c r="D52" t="s">
-        <v>495</v>
-      </c>
-      <c r="E52" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" t="s">
-        <v>388</v>
-      </c>
-      <c r="D53" t="s">
-        <v>495</v>
-      </c>
-      <c r="E53" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" t="s">
-        <v>389</v>
-      </c>
-      <c r="D54" t="s">
-        <v>495</v>
-      </c>
-      <c r="E54" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" t="s">
-        <v>390</v>
-      </c>
-      <c r="D55" t="s">
-        <v>495</v>
-      </c>
-      <c r="E55" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" t="s">
-        <v>391</v>
-      </c>
-      <c r="D56" t="s">
-        <v>495</v>
-      </c>
-      <c r="E56" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" t="s">
-        <v>392</v>
-      </c>
-      <c r="D57" t="s">
-        <v>495</v>
-      </c>
-      <c r="E57" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" t="s">
-        <v>393</v>
-      </c>
-      <c r="D58" t="s">
-        <v>495</v>
-      </c>
-      <c r="E58" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" t="s">
-        <v>394</v>
-      </c>
-      <c r="D59" t="s">
-        <v>495</v>
-      </c>
-      <c r="E59" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" t="s">
-        <v>395</v>
-      </c>
-      <c r="D60" t="s">
-        <v>495</v>
-      </c>
-      <c r="E60" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" t="s">
-        <v>396</v>
-      </c>
-      <c r="D61" t="s">
-        <v>495</v>
-      </c>
-      <c r="E61" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" t="s">
-        <v>397</v>
-      </c>
-      <c r="D62" t="s">
-        <v>495</v>
-      </c>
-      <c r="E62" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" t="s">
-        <v>398</v>
-      </c>
-      <c r="D63" t="s">
-        <v>495</v>
-      </c>
-      <c r="E63" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" t="s">
-        <v>399</v>
-      </c>
-      <c r="D64" t="s">
-        <v>495</v>
-      </c>
-      <c r="E64" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" t="s">
-        <v>400</v>
-      </c>
-      <c r="D65" t="s">
-        <v>495</v>
-      </c>
-      <c r="E65" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" t="s">
-        <v>401</v>
-      </c>
-      <c r="D66" t="s">
-        <v>495</v>
-      </c>
-      <c r="E66" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" t="s">
-        <v>402</v>
-      </c>
-      <c r="D67" t="s">
-        <v>495</v>
-      </c>
-      <c r="E67" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" t="s">
-        <v>403</v>
-      </c>
-      <c r="D68" t="s">
-        <v>495</v>
-      </c>
-      <c r="E68" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" t="s">
-        <v>404</v>
-      </c>
-      <c r="D69" t="s">
-        <v>495</v>
-      </c>
-      <c r="E69" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" t="s">
-        <v>405</v>
-      </c>
-      <c r="D70" t="s">
-        <v>495</v>
-      </c>
-      <c r="E70" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" t="s">
-        <v>406</v>
-      </c>
-      <c r="D71" t="s">
-        <v>495</v>
-      </c>
-      <c r="E71" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" t="s">
-        <v>407</v>
-      </c>
-      <c r="D72" t="s">
-        <v>495</v>
-      </c>
-      <c r="E72" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" t="s">
-        <v>408</v>
-      </c>
-      <c r="D73" t="s">
-        <v>495</v>
-      </c>
-      <c r="E73" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" t="s">
-        <v>409</v>
-      </c>
-      <c r="D74" t="s">
-        <v>493</v>
-      </c>
-      <c r="E74" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C75" t="s">
-        <v>410</v>
-      </c>
-      <c r="D75" t="s">
-        <v>493</v>
-      </c>
-      <c r="E75" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" t="s">
-        <v>411</v>
-      </c>
-      <c r="D76" t="s">
-        <v>493</v>
-      </c>
-      <c r="E76" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77" t="s">
-        <v>412</v>
-      </c>
-      <c r="D77" t="s">
-        <v>493</v>
-      </c>
-      <c r="E77" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" t="s">
-        <v>413</v>
-      </c>
-      <c r="D78" t="s">
-        <v>493</v>
-      </c>
-      <c r="E78" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" t="s">
-        <v>414</v>
-      </c>
-      <c r="D79" t="s">
-        <v>493</v>
-      </c>
-      <c r="E79" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C80" t="s">
-        <v>415</v>
-      </c>
-      <c r="D80" t="s">
-        <v>493</v>
-      </c>
-      <c r="E80" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" t="s">
-        <v>416</v>
-      </c>
-      <c r="D81" t="s">
-        <v>493</v>
-      </c>
-      <c r="E81" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C82" t="s">
-        <v>417</v>
-      </c>
-      <c r="D82" t="s">
-        <v>493</v>
-      </c>
-      <c r="E82" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" t="s">
-        <v>418</v>
-      </c>
-      <c r="D83" t="s">
-        <v>493</v>
-      </c>
-      <c r="E83" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C84" t="s">
-        <v>419</v>
-      </c>
-      <c r="D84" t="s">
-        <v>493</v>
-      </c>
-      <c r="E84" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" t="s">
-        <v>420</v>
-      </c>
-      <c r="D85" t="s">
-        <v>493</v>
-      </c>
-      <c r="E85" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" t="s">
-        <v>421</v>
-      </c>
-      <c r="D86" t="s">
-        <v>493</v>
-      </c>
-      <c r="E86" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C87" t="s">
-        <v>422</v>
-      </c>
-      <c r="D87" t="s">
-        <v>493</v>
-      </c>
-      <c r="E87" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" t="s">
-        <v>423</v>
-      </c>
-      <c r="D88" t="s">
-        <v>493</v>
-      </c>
-      <c r="E88" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" t="s">
-        <v>424</v>
-      </c>
-      <c r="D89" t="s">
-        <v>493</v>
-      </c>
-      <c r="E89" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" t="s">
-        <v>425</v>
-      </c>
-      <c r="D90" t="s">
-        <v>493</v>
-      </c>
-      <c r="E90" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C91" t="s">
-        <v>426</v>
-      </c>
-      <c r="D91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E91" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" t="s">
-        <v>427</v>
-      </c>
-      <c r="D92" t="s">
-        <v>493</v>
-      </c>
-      <c r="E92" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C93" t="s">
-        <v>428</v>
-      </c>
-      <c r="D93" t="s">
-        <v>493</v>
-      </c>
-      <c r="E93" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C94" t="s">
-        <v>429</v>
-      </c>
-      <c r="D94" t="s">
-        <v>493</v>
-      </c>
-      <c r="E94" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C95" t="s">
-        <v>430</v>
-      </c>
-      <c r="D95" t="s">
-        <v>493</v>
-      </c>
-      <c r="E95" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" t="s">
-        <v>431</v>
-      </c>
-      <c r="D96" t="s">
-        <v>493</v>
-      </c>
-      <c r="E96" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C97" t="s">
-        <v>432</v>
-      </c>
-      <c r="D97" t="s">
-        <v>493</v>
-      </c>
-      <c r="E97" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C98" t="s">
-        <v>433</v>
-      </c>
-      <c r="D98" t="s">
-        <v>493</v>
-      </c>
-      <c r="E98" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C99" t="s">
-        <v>434</v>
-      </c>
-      <c r="D99" t="s">
-        <v>493</v>
-      </c>
-      <c r="E99" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C100" t="s">
-        <v>435</v>
-      </c>
-      <c r="D100" t="s">
-        <v>493</v>
-      </c>
-      <c r="E100" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C101" t="s">
-        <v>436</v>
-      </c>
-      <c r="D101" t="s">
-        <v>493</v>
-      </c>
-      <c r="E101" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C102" t="s">
-        <v>437</v>
-      </c>
-      <c r="D102" t="s">
-        <v>493</v>
-      </c>
-      <c r="E102" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" t="s">
-        <v>438</v>
-      </c>
-      <c r="D103" t="s">
-        <v>493</v>
-      </c>
-      <c r="E103" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C104" t="s">
-        <v>439</v>
-      </c>
-      <c r="D104" t="s">
-        <v>493</v>
-      </c>
-      <c r="E104" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C105" t="s">
-        <v>440</v>
-      </c>
-      <c r="D105" t="s">
-        <v>493</v>
-      </c>
-      <c r="E105" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C106" t="s">
-        <v>441</v>
-      </c>
-      <c r="D106" t="s">
-        <v>493</v>
-      </c>
-      <c r="E106" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" t="s">
-        <v>442</v>
-      </c>
-      <c r="D107" t="s">
-        <v>493</v>
-      </c>
-      <c r="E107" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" t="s">
-        <v>443</v>
-      </c>
-      <c r="D108" t="s">
-        <v>493</v>
-      </c>
-      <c r="E108" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C109" t="s">
-        <v>444</v>
-      </c>
-      <c r="D109" t="s">
-        <v>493</v>
-      </c>
-      <c r="E109" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C110" t="s">
-        <v>445</v>
-      </c>
-      <c r="D110" t="s">
-        <v>493</v>
-      </c>
-      <c r="E110" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C111" t="s">
-        <v>446</v>
-      </c>
-      <c r="D111" t="s">
-        <v>493</v>
-      </c>
-      <c r="E111" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C112" t="s">
-        <v>447</v>
-      </c>
-      <c r="D112" t="s">
-        <v>493</v>
-      </c>
-      <c r="E112" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C113" t="s">
-        <v>448</v>
-      </c>
-      <c r="D113" t="s">
-        <v>493</v>
-      </c>
-      <c r="E113" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C114" t="s">
-        <v>449</v>
-      </c>
-      <c r="D114" t="s">
-        <v>493</v>
-      </c>
-      <c r="E114" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C115" t="s">
-        <v>450</v>
-      </c>
-      <c r="D115" t="s">
-        <v>493</v>
-      </c>
-      <c r="E115" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C116" t="s">
-        <v>451</v>
-      </c>
-      <c r="D116" t="s">
-        <v>493</v>
-      </c>
-      <c r="E116" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C117" t="s">
-        <v>452</v>
-      </c>
-      <c r="D117" t="s">
-        <v>493</v>
-      </c>
-      <c r="E117" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C118" t="s">
-        <v>453</v>
-      </c>
-      <c r="D118" t="s">
-        <v>493</v>
-      </c>
-      <c r="E118" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C119" t="s">
-        <v>454</v>
-      </c>
-      <c r="D119" t="s">
-        <v>493</v>
-      </c>
-      <c r="E119" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C120" t="s">
-        <v>455</v>
-      </c>
-      <c r="D120" t="s">
-        <v>493</v>
-      </c>
-      <c r="E120" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C121" t="s">
-        <v>456</v>
-      </c>
-      <c r="D121" t="s">
-        <v>493</v>
-      </c>
-      <c r="E121" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C122" t="s">
-        <v>457</v>
-      </c>
-      <c r="D122" t="s">
-        <v>493</v>
-      </c>
-      <c r="E122" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C123" t="s">
-        <v>458</v>
-      </c>
-      <c r="D123" t="s">
-        <v>493</v>
-      </c>
-      <c r="E123" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C124" t="s">
-        <v>459</v>
-      </c>
-      <c r="D124" t="s">
-        <v>493</v>
-      </c>
-      <c r="E124" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C125" t="s">
-        <v>460</v>
-      </c>
-      <c r="D125" t="s">
-        <v>493</v>
-      </c>
-      <c r="E125" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C126" t="s">
-        <v>461</v>
-      </c>
-      <c r="D126" t="s">
-        <v>493</v>
-      </c>
-      <c r="E126" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C127" t="s">
-        <v>462</v>
-      </c>
-      <c r="D127" t="s">
-        <v>493</v>
-      </c>
-      <c r="E127" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C128" t="s">
-        <v>463</v>
-      </c>
-      <c r="D128" t="s">
-        <v>493</v>
-      </c>
-      <c r="E128" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C129" t="s">
-        <v>464</v>
-      </c>
-      <c r="D129" t="s">
-        <v>493</v>
-      </c>
-      <c r="E129" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C130" t="s">
-        <v>465</v>
-      </c>
-      <c r="D130" t="s">
-        <v>493</v>
-      </c>
-      <c r="E130" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C131" t="s">
-        <v>466</v>
-      </c>
-      <c r="D131" t="s">
-        <v>493</v>
-      </c>
-      <c r="E131" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C132" t="s">
-        <v>467</v>
-      </c>
-      <c r="D132" t="s">
-        <v>493</v>
-      </c>
-      <c r="E132" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C133" t="s">
-        <v>468</v>
-      </c>
-      <c r="D133" t="s">
-        <v>493</v>
-      </c>
-      <c r="E133" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C134" t="s">
-        <v>469</v>
-      </c>
-      <c r="D134" t="s">
-        <v>493</v>
-      </c>
-      <c r="E134" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C135" t="s">
-        <v>470</v>
-      </c>
-      <c r="D135" t="s">
-        <v>493</v>
-      </c>
-      <c r="E135" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C136" t="s">
-        <v>471</v>
-      </c>
-      <c r="D136" t="s">
-        <v>493</v>
-      </c>
-      <c r="E136" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C137" t="s">
-        <v>472</v>
-      </c>
-      <c r="D137" t="s">
-        <v>493</v>
-      </c>
-      <c r="E137" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C138" t="s">
-        <v>473</v>
-      </c>
-      <c r="D138" t="s">
-        <v>493</v>
-      </c>
-      <c r="E138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C139" t="s">
-        <v>474</v>
-      </c>
-      <c r="D139" t="s">
-        <v>493</v>
-      </c>
-      <c r="E139" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C140" t="s">
-        <v>475</v>
-      </c>
-      <c r="D140" t="s">
-        <v>493</v>
-      </c>
-      <c r="E140" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C141" t="s">
-        <v>476</v>
-      </c>
-      <c r="D141" t="s">
-        <v>493</v>
-      </c>
-      <c r="E141" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C142" t="s">
-        <v>477</v>
-      </c>
-      <c r="D142" t="s">
-        <v>493</v>
-      </c>
-      <c r="E142" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C143" t="s">
-        <v>478</v>
-      </c>
-      <c r="D143" t="s">
-        <v>493</v>
-      </c>
-      <c r="E143" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C144" t="s">
-        <v>479</v>
-      </c>
-      <c r="D144" t="s">
-        <v>493</v>
-      </c>
-      <c r="E144" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C145" t="s">
-        <v>480</v>
-      </c>
-      <c r="D145" t="s">
-        <v>493</v>
-      </c>
-      <c r="E145" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C146" t="s">
-        <v>481</v>
-      </c>
-      <c r="D146" t="s">
-        <v>493</v>
-      </c>
-      <c r="E146" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C147" t="s">
-        <v>482</v>
-      </c>
-      <c r="D147" t="s">
-        <v>493</v>
-      </c>
-      <c r="E147" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C148" t="s">
-        <v>483</v>
-      </c>
-      <c r="D148" t="s">
-        <v>493</v>
-      </c>
-      <c r="E148" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C149" t="s">
-        <v>484</v>
-      </c>
-      <c r="D149" t="s">
-        <v>493</v>
-      </c>
-      <c r="E149" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C150" t="s">
-        <v>485</v>
-      </c>
-      <c r="D150" t="s">
-        <v>493</v>
-      </c>
-      <c r="E150" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C151" t="s">
-        <v>486</v>
-      </c>
-      <c r="D151" t="s">
-        <v>493</v>
-      </c>
-      <c r="E151" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C152" t="s">
-        <v>487</v>
-      </c>
-      <c r="D152" t="s">
-        <v>493</v>
-      </c>
-      <c r="E152" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C153" t="s">
-        <v>488</v>
-      </c>
-      <c r="D153" t="s">
-        <v>493</v>
-      </c>
-      <c r="E153" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C154" t="s">
-        <v>489</v>
-      </c>
-      <c r="D154" t="s">
-        <v>493</v>
-      </c>
-      <c r="E154" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C155" t="s">
-        <v>490</v>
-      </c>
-      <c r="D155" t="s">
-        <v>493</v>
-      </c>
-      <c r="E155" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C156" t="s">
-        <v>491</v>
-      </c>
-      <c r="D156" t="s">
-        <v>493</v>
-      </c>
-      <c r="E156" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C157" t="s">
-        <v>492</v>
-      </c>
-      <c r="D157" t="s">
-        <v>493</v>
-      </c>
-      <c r="E157" t="s">
-        <v>528</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98B7CB3E-67C8-1C41-B282-92397C45008F}">
-          <x14:formula1>
-            <xm:f>Sequences!$A$2:$A$10000</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E1048576 A1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -4945,13 +2246,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>330</v>
@@ -4965,16 +2266,16 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E2" s="7">
         <v>44355</v>
@@ -4982,16 +2283,16 @@
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E3" s="7">
         <v>44488</v>
@@ -4999,16 +2300,16 @@
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E4" s="7">
         <v>44034</v>
@@ -5020,60 +2321,2785 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC6B7B7-1799-7447-8892-685572B624F5}">
-  <dimension ref="A1:D4"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
-        <v>504</v>
+    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>336</v>
+        <v>532</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>521</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>494</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="C2" s="15">
-        <v>25</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="20"/>
+        <v>496</v>
+      </c>
+      <c r="C2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="C3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" t="s">
+        <v>527</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC3F7EA2-A21F-974C-966F-6B514DCC32CF}">
+          <x14:formula1>
+            <xm:f>Sequences!$A$2:$A$10000</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
+  <dimension ref="A1:K157"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" t="s">
+        <v>494</v>
+      </c>
+      <c r="E7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" t="s">
+        <v>494</v>
+      </c>
+      <c r="E9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" t="s">
+        <v>494</v>
+      </c>
+      <c r="E10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" t="s">
+        <v>494</v>
+      </c>
+      <c r="E13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" t="s">
+        <v>494</v>
+      </c>
+      <c r="E16" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" t="s">
+        <v>494</v>
+      </c>
+      <c r="E18" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19" t="s">
+        <v>494</v>
+      </c>
+      <c r="E19" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" t="s">
+        <v>494</v>
+      </c>
+      <c r="E20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D22" t="s">
+        <v>494</v>
+      </c>
+      <c r="E22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D23" t="s">
+        <v>494</v>
+      </c>
+      <c r="E23" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D24" t="s">
+        <v>494</v>
+      </c>
+      <c r="E24" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D25" t="s">
+        <v>494</v>
+      </c>
+      <c r="E25" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D26" t="s">
+        <v>494</v>
+      </c>
+      <c r="E26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>362</v>
+      </c>
+      <c r="D27" t="s">
+        <v>494</v>
+      </c>
+      <c r="E27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>363</v>
+      </c>
+      <c r="D28" t="s">
+        <v>494</v>
+      </c>
+      <c r="E28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D29" t="s">
+        <v>494</v>
+      </c>
+      <c r="E29" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" t="s">
+        <v>494</v>
+      </c>
+      <c r="E30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" t="s">
+        <v>494</v>
+      </c>
+      <c r="E31" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" t="s">
+        <v>494</v>
+      </c>
+      <c r="E32" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D33" t="s">
+        <v>494</v>
+      </c>
+      <c r="E33" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>369</v>
+      </c>
+      <c r="D34" t="s">
+        <v>494</v>
+      </c>
+      <c r="E34" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>370</v>
+      </c>
+      <c r="D35" t="s">
+        <v>494</v>
+      </c>
+      <c r="E35" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>371</v>
+      </c>
+      <c r="D36" t="s">
+        <v>494</v>
+      </c>
+      <c r="E36" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
+      <c r="D37" t="s">
+        <v>494</v>
+      </c>
+      <c r="E37" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" t="s">
+        <v>495</v>
+      </c>
+      <c r="E38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39" t="s">
+        <v>495</v>
+      </c>
+      <c r="E39" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" t="s">
+        <v>495</v>
+      </c>
+      <c r="E40" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>376</v>
+      </c>
+      <c r="D41" t="s">
+        <v>495</v>
+      </c>
+      <c r="E41" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>377</v>
+      </c>
+      <c r="D42" t="s">
+        <v>495</v>
+      </c>
+      <c r="E42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>378</v>
+      </c>
+      <c r="D43" t="s">
+        <v>495</v>
+      </c>
+      <c r="E43" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>379</v>
+      </c>
+      <c r="D44" t="s">
+        <v>495</v>
+      </c>
+      <c r="E44" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>380</v>
+      </c>
+      <c r="D45" t="s">
+        <v>495</v>
+      </c>
+      <c r="E45" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>381</v>
+      </c>
+      <c r="D46" t="s">
+        <v>495</v>
+      </c>
+      <c r="E46" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47" t="s">
+        <v>495</v>
+      </c>
+      <c r="E47" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>383</v>
+      </c>
+      <c r="D48" t="s">
+        <v>495</v>
+      </c>
+      <c r="E48" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>384</v>
+      </c>
+      <c r="D49" t="s">
+        <v>495</v>
+      </c>
+      <c r="E49" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>385</v>
+      </c>
+      <c r="D50" t="s">
+        <v>495</v>
+      </c>
+      <c r="E50" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" t="s">
+        <v>495</v>
+      </c>
+      <c r="E51" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>387</v>
+      </c>
+      <c r="D52" t="s">
+        <v>495</v>
+      </c>
+      <c r="E52" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>388</v>
+      </c>
+      <c r="D53" t="s">
+        <v>495</v>
+      </c>
+      <c r="E53" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>389</v>
+      </c>
+      <c r="D54" t="s">
+        <v>495</v>
+      </c>
+      <c r="E54" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>390</v>
+      </c>
+      <c r="D55" t="s">
+        <v>495</v>
+      </c>
+      <c r="E55" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>391</v>
+      </c>
+      <c r="D56" t="s">
+        <v>495</v>
+      </c>
+      <c r="E56" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>392</v>
+      </c>
+      <c r="D57" t="s">
+        <v>495</v>
+      </c>
+      <c r="E57" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
+        <v>393</v>
+      </c>
+      <c r="D58" t="s">
+        <v>495</v>
+      </c>
+      <c r="E58" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>394</v>
+      </c>
+      <c r="D59" t="s">
+        <v>495</v>
+      </c>
+      <c r="E59" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" t="s">
+        <v>395</v>
+      </c>
+      <c r="D60" t="s">
+        <v>495</v>
+      </c>
+      <c r="E60" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>396</v>
+      </c>
+      <c r="D61" t="s">
+        <v>495</v>
+      </c>
+      <c r="E61" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>397</v>
+      </c>
+      <c r="D62" t="s">
+        <v>495</v>
+      </c>
+      <c r="E62" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>398</v>
+      </c>
+      <c r="D63" t="s">
+        <v>495</v>
+      </c>
+      <c r="E63" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" t="s">
+        <v>399</v>
+      </c>
+      <c r="D64" t="s">
+        <v>495</v>
+      </c>
+      <c r="E64" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" t="s">
+        <v>400</v>
+      </c>
+      <c r="D65" t="s">
+        <v>495</v>
+      </c>
+      <c r="E65" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" t="s">
+        <v>401</v>
+      </c>
+      <c r="D66" t="s">
+        <v>495</v>
+      </c>
+      <c r="E66" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" t="s">
+        <v>402</v>
+      </c>
+      <c r="D67" t="s">
+        <v>495</v>
+      </c>
+      <c r="E67" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" t="s">
+        <v>403</v>
+      </c>
+      <c r="D68" t="s">
+        <v>495</v>
+      </c>
+      <c r="E68" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="s">
+        <v>404</v>
+      </c>
+      <c r="D69" t="s">
+        <v>495</v>
+      </c>
+      <c r="E69" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>405</v>
+      </c>
+      <c r="D70" t="s">
+        <v>495</v>
+      </c>
+      <c r="E70" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" t="s">
+        <v>406</v>
+      </c>
+      <c r="D71" t="s">
+        <v>495</v>
+      </c>
+      <c r="E71" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" t="s">
+        <v>407</v>
+      </c>
+      <c r="D72" t="s">
+        <v>495</v>
+      </c>
+      <c r="E72" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s">
+        <v>408</v>
+      </c>
+      <c r="D73" t="s">
+        <v>495</v>
+      </c>
+      <c r="E73" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" t="s">
+        <v>409</v>
+      </c>
+      <c r="D74" t="s">
+        <v>493</v>
+      </c>
+      <c r="E74" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" t="s">
+        <v>410</v>
+      </c>
+      <c r="D75" t="s">
+        <v>493</v>
+      </c>
+      <c r="E75" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" t="s">
+        <v>411</v>
+      </c>
+      <c r="D76" t="s">
+        <v>493</v>
+      </c>
+      <c r="E76" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" t="s">
+        <v>412</v>
+      </c>
+      <c r="D77" t="s">
+        <v>493</v>
+      </c>
+      <c r="E77" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" t="s">
+        <v>413</v>
+      </c>
+      <c r="D78" t="s">
+        <v>493</v>
+      </c>
+      <c r="E78" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" t="s">
+        <v>414</v>
+      </c>
+      <c r="D79" t="s">
+        <v>493</v>
+      </c>
+      <c r="E79" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" t="s">
+        <v>415</v>
+      </c>
+      <c r="D80" t="s">
+        <v>493</v>
+      </c>
+      <c r="E80" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" t="s">
+        <v>416</v>
+      </c>
+      <c r="D81" t="s">
+        <v>493</v>
+      </c>
+      <c r="E81" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" t="s">
+        <v>417</v>
+      </c>
+      <c r="D82" t="s">
+        <v>493</v>
+      </c>
+      <c r="E82" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" t="s">
+        <v>418</v>
+      </c>
+      <c r="D83" t="s">
+        <v>493</v>
+      </c>
+      <c r="E83" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" t="s">
+        <v>419</v>
+      </c>
+      <c r="D84" t="s">
+        <v>493</v>
+      </c>
+      <c r="E84" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" t="s">
+        <v>420</v>
+      </c>
+      <c r="D85" t="s">
+        <v>493</v>
+      </c>
+      <c r="E85" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" t="s">
+        <v>421</v>
+      </c>
+      <c r="D86" t="s">
+        <v>493</v>
+      </c>
+      <c r="E86" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" t="s">
+        <v>422</v>
+      </c>
+      <c r="D87" t="s">
+        <v>493</v>
+      </c>
+      <c r="E87" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" t="s">
+        <v>423</v>
+      </c>
+      <c r="D88" t="s">
+        <v>493</v>
+      </c>
+      <c r="E88" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" t="s">
+        <v>424</v>
+      </c>
+      <c r="D89" t="s">
+        <v>493</v>
+      </c>
+      <c r="E89" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" t="s">
+        <v>425</v>
+      </c>
+      <c r="D90" t="s">
+        <v>493</v>
+      </c>
+      <c r="E90" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" t="s">
+        <v>426</v>
+      </c>
+      <c r="D91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E91" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" t="s">
+        <v>427</v>
+      </c>
+      <c r="D92" t="s">
+        <v>493</v>
+      </c>
+      <c r="E92" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" t="s">
+        <v>428</v>
+      </c>
+      <c r="D93" t="s">
+        <v>493</v>
+      </c>
+      <c r="E93" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" t="s">
+        <v>429</v>
+      </c>
+      <c r="D94" t="s">
+        <v>493</v>
+      </c>
+      <c r="E94" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" t="s">
+        <v>430</v>
+      </c>
+      <c r="D95" t="s">
+        <v>493</v>
+      </c>
+      <c r="E95" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" t="s">
+        <v>431</v>
+      </c>
+      <c r="D96" t="s">
+        <v>493</v>
+      </c>
+      <c r="E96" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" t="s">
+        <v>432</v>
+      </c>
+      <c r="D97" t="s">
+        <v>493</v>
+      </c>
+      <c r="E97" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" t="s">
+        <v>433</v>
+      </c>
+      <c r="D98" t="s">
+        <v>493</v>
+      </c>
+      <c r="E98" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" t="s">
+        <v>434</v>
+      </c>
+      <c r="D99" t="s">
+        <v>493</v>
+      </c>
+      <c r="E99" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" t="s">
+        <v>435</v>
+      </c>
+      <c r="D100" t="s">
+        <v>493</v>
+      </c>
+      <c r="E100" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" t="s">
+        <v>436</v>
+      </c>
+      <c r="D101" t="s">
+        <v>493</v>
+      </c>
+      <c r="E101" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" t="s">
+        <v>437</v>
+      </c>
+      <c r="D102" t="s">
+        <v>493</v>
+      </c>
+      <c r="E102" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" t="s">
+        <v>438</v>
+      </c>
+      <c r="D103" t="s">
+        <v>493</v>
+      </c>
+      <c r="E103" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" t="s">
+        <v>439</v>
+      </c>
+      <c r="D104" t="s">
+        <v>493</v>
+      </c>
+      <c r="E104" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" t="s">
+        <v>440</v>
+      </c>
+      <c r="D105" t="s">
+        <v>493</v>
+      </c>
+      <c r="E105" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" t="s">
+        <v>441</v>
+      </c>
+      <c r="D106" t="s">
+        <v>493</v>
+      </c>
+      <c r="E106" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" t="s">
+        <v>442</v>
+      </c>
+      <c r="D107" t="s">
+        <v>493</v>
+      </c>
+      <c r="E107" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" t="s">
+        <v>443</v>
+      </c>
+      <c r="D108" t="s">
+        <v>493</v>
+      </c>
+      <c r="E108" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" t="s">
+        <v>444</v>
+      </c>
+      <c r="D109" t="s">
+        <v>493</v>
+      </c>
+      <c r="E109" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" t="s">
+        <v>445</v>
+      </c>
+      <c r="D110" t="s">
+        <v>493</v>
+      </c>
+      <c r="E110" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" t="s">
+        <v>446</v>
+      </c>
+      <c r="D111" t="s">
+        <v>493</v>
+      </c>
+      <c r="E111" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C112" t="s">
+        <v>447</v>
+      </c>
+      <c r="D112" t="s">
+        <v>493</v>
+      </c>
+      <c r="E112" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C113" t="s">
+        <v>448</v>
+      </c>
+      <c r="D113" t="s">
+        <v>493</v>
+      </c>
+      <c r="E113" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" t="s">
+        <v>449</v>
+      </c>
+      <c r="D114" t="s">
+        <v>493</v>
+      </c>
+      <c r="E114" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" t="s">
+        <v>450</v>
+      </c>
+      <c r="D115" t="s">
+        <v>493</v>
+      </c>
+      <c r="E115" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" t="s">
+        <v>451</v>
+      </c>
+      <c r="D116" t="s">
+        <v>493</v>
+      </c>
+      <c r="E116" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" t="s">
+        <v>452</v>
+      </c>
+      <c r="D117" t="s">
+        <v>493</v>
+      </c>
+      <c r="E117" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C118" t="s">
+        <v>453</v>
+      </c>
+      <c r="D118" t="s">
+        <v>493</v>
+      </c>
+      <c r="E118" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" t="s">
+        <v>454</v>
+      </c>
+      <c r="D119" t="s">
+        <v>493</v>
+      </c>
+      <c r="E119" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" t="s">
+        <v>455</v>
+      </c>
+      <c r="D120" t="s">
+        <v>493</v>
+      </c>
+      <c r="E120" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C121" t="s">
+        <v>456</v>
+      </c>
+      <c r="D121" t="s">
+        <v>493</v>
+      </c>
+      <c r="E121" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C122" t="s">
+        <v>457</v>
+      </c>
+      <c r="D122" t="s">
+        <v>493</v>
+      </c>
+      <c r="E122" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>458</v>
+      </c>
+      <c r="D123" t="s">
+        <v>493</v>
+      </c>
+      <c r="E123" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C124" t="s">
+        <v>459</v>
+      </c>
+      <c r="D124" t="s">
+        <v>493</v>
+      </c>
+      <c r="E124" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125" t="s">
+        <v>460</v>
+      </c>
+      <c r="D125" t="s">
+        <v>493</v>
+      </c>
+      <c r="E125" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" t="s">
+        <v>461</v>
+      </c>
+      <c r="D126" t="s">
+        <v>493</v>
+      </c>
+      <c r="E126" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" t="s">
+        <v>462</v>
+      </c>
+      <c r="D127" t="s">
+        <v>493</v>
+      </c>
+      <c r="E127" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s">
+        <v>463</v>
+      </c>
+      <c r="D128" t="s">
+        <v>493</v>
+      </c>
+      <c r="E128" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C129" t="s">
+        <v>464</v>
+      </c>
+      <c r="D129" t="s">
+        <v>493</v>
+      </c>
+      <c r="E129" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" t="s">
+        <v>465</v>
+      </c>
+      <c r="D130" t="s">
+        <v>493</v>
+      </c>
+      <c r="E130" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C131" t="s">
+        <v>466</v>
+      </c>
+      <c r="D131" t="s">
+        <v>493</v>
+      </c>
+      <c r="E131" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" t="s">
+        <v>467</v>
+      </c>
+      <c r="D132" t="s">
+        <v>493</v>
+      </c>
+      <c r="E132" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" t="s">
+        <v>468</v>
+      </c>
+      <c r="D133" t="s">
+        <v>493</v>
+      </c>
+      <c r="E133" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C134" t="s">
+        <v>469</v>
+      </c>
+      <c r="D134" t="s">
+        <v>493</v>
+      </c>
+      <c r="E134" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C135" t="s">
+        <v>470</v>
+      </c>
+      <c r="D135" t="s">
+        <v>493</v>
+      </c>
+      <c r="E135" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C136" t="s">
+        <v>471</v>
+      </c>
+      <c r="D136" t="s">
+        <v>493</v>
+      </c>
+      <c r="E136" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C137" t="s">
+        <v>472</v>
+      </c>
+      <c r="D137" t="s">
+        <v>493</v>
+      </c>
+      <c r="E137" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C138" t="s">
+        <v>473</v>
+      </c>
+      <c r="D138" t="s">
+        <v>493</v>
+      </c>
+      <c r="E138" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" t="s">
+        <v>474</v>
+      </c>
+      <c r="D139" t="s">
+        <v>493</v>
+      </c>
+      <c r="E139" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C140" t="s">
+        <v>475</v>
+      </c>
+      <c r="D140" t="s">
+        <v>493</v>
+      </c>
+      <c r="E140" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C141" t="s">
+        <v>476</v>
+      </c>
+      <c r="D141" t="s">
+        <v>493</v>
+      </c>
+      <c r="E141" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C142" t="s">
+        <v>477</v>
+      </c>
+      <c r="D142" t="s">
+        <v>493</v>
+      </c>
+      <c r="E142" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" t="s">
+        <v>478</v>
+      </c>
+      <c r="D143" t="s">
+        <v>493</v>
+      </c>
+      <c r="E143" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" t="s">
+        <v>479</v>
+      </c>
+      <c r="D144" t="s">
+        <v>493</v>
+      </c>
+      <c r="E144" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C145" t="s">
+        <v>480</v>
+      </c>
+      <c r="D145" t="s">
+        <v>493</v>
+      </c>
+      <c r="E145" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C146" t="s">
+        <v>481</v>
+      </c>
+      <c r="D146" t="s">
+        <v>493</v>
+      </c>
+      <c r="E146" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C147" t="s">
+        <v>482</v>
+      </c>
+      <c r="D147" t="s">
+        <v>493</v>
+      </c>
+      <c r="E147" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C148" t="s">
+        <v>483</v>
+      </c>
+      <c r="D148" t="s">
+        <v>493</v>
+      </c>
+      <c r="E148" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C149" t="s">
+        <v>484</v>
+      </c>
+      <c r="D149" t="s">
+        <v>493</v>
+      </c>
+      <c r="E149" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C150" t="s">
+        <v>485</v>
+      </c>
+      <c r="D150" t="s">
+        <v>493</v>
+      </c>
+      <c r="E150" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C151" t="s">
+        <v>486</v>
+      </c>
+      <c r="D151" t="s">
+        <v>493</v>
+      </c>
+      <c r="E151" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C152" t="s">
+        <v>487</v>
+      </c>
+      <c r="D152" t="s">
+        <v>493</v>
+      </c>
+      <c r="E152" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C153" t="s">
+        <v>488</v>
+      </c>
+      <c r="D153" t="s">
+        <v>493</v>
+      </c>
+      <c r="E153" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C154" t="s">
+        <v>489</v>
+      </c>
+      <c r="D154" t="s">
+        <v>493</v>
+      </c>
+      <c r="E154" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" t="s">
+        <v>490</v>
+      </c>
+      <c r="D155" t="s">
+        <v>493</v>
+      </c>
+      <c r="E155" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C156" t="s">
+        <v>491</v>
+      </c>
+      <c r="D156" t="s">
+        <v>493</v>
+      </c>
+      <c r="E156" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C157" t="s">
+        <v>492</v>
+      </c>
+      <c r="D157" t="s">
+        <v>493</v>
+      </c>
+      <c r="E157" t="s">
+        <v>527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98B7CB3E-67C8-1C41-B282-92397C45008F}">
+          <x14:formula1>
+            <xm:f>Sequences!$A$2:$A$10000</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576 A1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5092,18 +5118,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>516</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>332</v>
@@ -5114,7 +5140,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>333</v>
@@ -5125,7 +5151,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>500</v>
@@ -5136,7 +5162,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>331</v>
@@ -5147,18 +5173,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>330</v>
@@ -5246,7 +5272,7 @@
         <v>26.4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G2" s="4">
         <v>0.1</v>
@@ -5281,7 +5307,7 @@
         <v>27.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G3" s="4">
         <v>0.1</v>
@@ -5316,7 +5342,7 @@
         <v>27.1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G4" s="4">
         <v>0.1</v>
@@ -5351,7 +5377,7 @@
         <v>42.6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G5" s="4">
         <v>7.0999999999999994E-2</v>
@@ -5386,7 +5412,7 @@
         <v>44.1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G6" s="4">
         <v>6.8000000000000005E-2</v>
@@ -5421,7 +5447,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G7" s="4">
         <v>6.5000000000000002E-2</v>
@@ -5456,7 +5482,7 @@
         <v>27.5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G8" s="4">
         <v>0.1</v>
@@ -5491,7 +5517,7 @@
         <v>27.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G9" s="4">
         <v>0.1</v>
@@ -5526,7 +5552,7 @@
         <v>28.4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G10" s="4">
         <v>0.106</v>
@@ -5561,7 +5587,7 @@
         <v>28.7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G11" s="4">
         <v>0.105</v>
@@ -5596,7 +5622,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G12" s="4">
         <v>0.06</v>
@@ -5631,7 +5657,7 @@
         <v>54.3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G13" s="4">
         <v>5.5E-2</v>
@@ -21926,7 +21952,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -21974,13 +22000,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -21991,13 +22017,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -22008,13 +22034,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -22064,7 +22090,7 @@
         <v>268</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -22155,7 +22181,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>271</v>
@@ -22167,7 +22193,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -22175,7 +22201,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>272</v>
@@ -22187,7 +22213,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -22195,7 +22221,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>271</v>
@@ -22207,7 +22233,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -22215,7 +22241,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>272</v>
@@ -22227,7 +22253,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -22235,7 +22261,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>271</v>
@@ -22247,7 +22273,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -22255,7 +22281,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>272</v>
@@ -22267,7 +22293,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
@@ -22516,54 +22542,56 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC6B7B7-1799-7447-8892-685572B624F5}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>334</v>
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>504</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>494</v>
+        <v>528</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>520</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>496</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="C2" s="15">
+        <v>25</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataRepo/data/tests/submission_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA311036-2EE3-2140-9720-E9BF5B0B77EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8553B98A-33D4-574F-A30E-393CB0198344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Tracers" sheetId="7" r:id="rId7"/>
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="LC Protocols" sheetId="13" r:id="rId9"/>
-    <sheet name="Sequences" sheetId="10" r:id="rId10"/>
+    <sheet name="MS Runs" sheetId="10" r:id="rId10"/>
     <sheet name="Peak Annotation Files" sheetId="12" r:id="rId11"/>
     <sheet name="Peak Annotation Details" sheetId="9" r:id="rId12"/>
     <sheet name="Defaults" sheetId="11" r:id="rId13"/>
@@ -839,9 +839,6 @@
     <t>Tracer Concentration</t>
   </si>
   <si>
-    <t>Compound Name</t>
-  </si>
-  <si>
     <t>Tracer Number</t>
   </si>
   <si>
@@ -1601,9 +1598,6 @@
     <t>Default Value</t>
   </si>
   <si>
-    <t>Sequences</t>
-  </si>
-  <si>
     <t>Peak Annotation Files</t>
   </si>
   <si>
@@ -1619,9 +1613,6 @@
     <t>LC Protocol Name</t>
   </si>
   <si>
-    <t>Sequence Name</t>
-  </si>
-  <si>
     <t>QE2</t>
   </si>
   <si>
@@ -1649,7 +1640,16 @@
     <t>File Format</t>
   </si>
   <si>
-    <t>Default Sequence Name</t>
+    <t>MS Run</t>
+  </si>
+  <si>
+    <t>Default MS Run</t>
+  </si>
+  <si>
+    <t>MS Run Name</t>
+  </si>
+  <si>
+    <t>MS Runs</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2198,7 @@
         <v>258</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>213</v>
@@ -2233,7 +2233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2246,36 +2248,36 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E2" s="7">
         <v>44355</v>
@@ -2283,16 +2285,16 @@
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E3" s="7">
         <v>44488</v>
@@ -2300,16 +2302,16 @@
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E4" s="7">
         <v>44034</v>
@@ -2325,7 +2327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2336,46 +2340,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>496</v>
-      </c>
       <c r="C3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2390,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC3F7EA2-A21F-974C-966F-6B514DCC32CF}">
           <x14:formula1>
-            <xm:f>Sequences!$A$2:$A$10000</xm:f>
+            <xm:f>'MS Runs'!$A$2:$A$10000</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C4</xm:sqref>
         </x14:dataValidation>
@@ -2400,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2418,19 +2422,19 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K1" s="14"/>
     </row>
@@ -2442,13 +2446,13 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2459,13 +2463,13 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2476,13 +2480,13 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2493,13 +2497,13 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2510,13 +2514,13 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2527,13 +2531,13 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2544,13 +2548,13 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2561,13 +2565,13 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2578,13 +2582,13 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2595,13 +2599,13 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2612,13 +2616,13 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E12" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2629,13 +2633,13 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2646,13 +2650,13 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2663,13 +2667,13 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E15" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -2680,13 +2684,13 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E16" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2697,13 +2701,13 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E17" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2714,13 +2718,13 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E18" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2731,13 +2735,13 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E19" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2748,13 +2752,13 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E20" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2765,13 +2769,13 @@
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E21" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2782,13 +2786,13 @@
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E22" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2799,13 +2803,13 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E23" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2816,13 +2820,13 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2833,13 +2837,13 @@
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E25" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2850,13 +2854,13 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E26" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2867,13 +2871,13 @@
         <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E27" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2884,13 +2888,13 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E28" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2901,13 +2905,13 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E29" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2918,13 +2922,13 @@
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E30" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2935,13 +2939,13 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E31" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2952,13 +2956,13 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E32" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2969,13 +2973,13 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E33" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2986,13 +2990,13 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E34" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3003,13 +3007,13 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E35" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3020,13 +3024,13 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E36" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3037,13 +3041,13 @@
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E37" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3054,13 +3058,13 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E38" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3071,13 +3075,13 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E39" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3088,13 +3092,13 @@
         <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E40" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3105,13 +3109,13 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E41" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3122,13 +3126,13 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E42" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3139,13 +3143,13 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E43" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3156,13 +3160,13 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D44" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E44" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3173,13 +3177,13 @@
         <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E45" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3190,13 +3194,13 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E46" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3207,13 +3211,13 @@
         <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D47" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E47" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3224,13 +3228,13 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E48" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3241,13 +3245,13 @@
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E49" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3258,13 +3262,13 @@
         <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E50" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3275,13 +3279,13 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D51" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E51" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3292,13 +3296,13 @@
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D52" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E52" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3309,13 +3313,13 @@
         <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D53" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E53" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3326,13 +3330,13 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E54" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3343,13 +3347,13 @@
         <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E55" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3360,13 +3364,13 @@
         <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D56" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E56" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3377,13 +3381,13 @@
         <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E57" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3394,13 +3398,13 @@
         <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D58" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E58" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3411,13 +3415,13 @@
         <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D59" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E59" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3428,13 +3432,13 @@
         <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E60" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3445,13 +3449,13 @@
         <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D61" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E61" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3462,13 +3466,13 @@
         <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D62" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E62" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3479,13 +3483,13 @@
         <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D63" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E63" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3496,13 +3500,13 @@
         <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D64" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E64" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3513,13 +3517,13 @@
         <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D65" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E65" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3530,13 +3534,13 @@
         <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3547,13 +3551,13 @@
         <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D67" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E67" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3564,13 +3568,13 @@
         <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D68" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E68" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3581,13 +3585,13 @@
         <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D69" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E69" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3598,13 +3602,13 @@
         <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D70" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E70" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3615,13 +3619,13 @@
         <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D71" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E71" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3632,13 +3636,13 @@
         <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D72" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E72" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3649,13 +3653,13 @@
         <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D73" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E73" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3666,13 +3670,13 @@
         <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D74" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E74" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3683,13 +3687,13 @@
         <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D75" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E75" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3700,13 +3704,13 @@
         <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D76" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E76" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3717,13 +3721,13 @@
         <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D77" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E77" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3734,13 +3738,13 @@
         <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D78" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E78" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3751,13 +3755,13 @@
         <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D79" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E79" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3768,13 +3772,13 @@
         <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D80" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E80" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3785,13 +3789,13 @@
         <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D81" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E81" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3802,13 +3806,13 @@
         <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D82" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E82" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3819,13 +3823,13 @@
         <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D83" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E83" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3836,13 +3840,13 @@
         <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D84" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E84" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3853,13 +3857,13 @@
         <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E85" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3870,13 +3874,13 @@
         <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D86" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E86" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3887,13 +3891,13 @@
         <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E87" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3904,13 +3908,13 @@
         <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D88" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E88" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3921,13 +3925,13 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D89" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E89" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3938,13 +3942,13 @@
         <v>139</v>
       </c>
       <c r="C90" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D90" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E90" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3955,13 +3959,13 @@
         <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E91" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3972,13 +3976,13 @@
         <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D92" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E92" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3989,13 +3993,13 @@
         <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D93" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E93" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4006,13 +4010,13 @@
         <v>143</v>
       </c>
       <c r="C94" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D94" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E94" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4023,13 +4027,13 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D95" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E95" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4040,13 +4044,13 @@
         <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D96" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E96" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4057,13 +4061,13 @@
         <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D97" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E97" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4074,13 +4078,13 @@
         <v>147</v>
       </c>
       <c r="C98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D98" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E98" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4091,13 +4095,13 @@
         <v>148</v>
       </c>
       <c r="C99" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D99" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E99" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4108,13 +4112,13 @@
         <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D100" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E100" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4125,13 +4129,13 @@
         <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D101" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E101" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4142,13 +4146,13 @@
         <v>152</v>
       </c>
       <c r="C102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D102" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E102" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4159,13 +4163,13 @@
         <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D103" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E103" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4176,13 +4180,13 @@
         <v>154</v>
       </c>
       <c r="C104" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D104" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E104" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4193,13 +4197,13 @@
         <v>155</v>
       </c>
       <c r="C105" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D105" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E105" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4210,13 +4214,13 @@
         <v>156</v>
       </c>
       <c r="C106" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D106" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E106" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4227,13 +4231,13 @@
         <v>157</v>
       </c>
       <c r="C107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D107" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E107" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4244,13 +4248,13 @@
         <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D108" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E108" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4261,13 +4265,13 @@
         <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D109" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E109" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4278,13 +4282,13 @@
         <v>161</v>
       </c>
       <c r="C110" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D110" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E110" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4295,13 +4299,13 @@
         <v>163</v>
       </c>
       <c r="C111" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D111" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E111" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4312,13 +4316,13 @@
         <v>164</v>
       </c>
       <c r="C112" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D112" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E112" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4329,13 +4333,13 @@
         <v>165</v>
       </c>
       <c r="C113" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D113" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E113" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4346,13 +4350,13 @@
         <v>166</v>
       </c>
       <c r="C114" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D114" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E114" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4363,13 +4367,13 @@
         <v>167</v>
       </c>
       <c r="C115" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D115" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E115" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4380,13 +4384,13 @@
         <v>168</v>
       </c>
       <c r="C116" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D116" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E116" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4397,13 +4401,13 @@
         <v>169</v>
       </c>
       <c r="C117" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D117" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E117" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4414,13 +4418,13 @@
         <v>170</v>
       </c>
       <c r="C118" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D118" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E118" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4431,13 +4435,13 @@
         <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D119" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E119" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4448,13 +4452,13 @@
         <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D120" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E120" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4465,13 +4469,13 @@
         <v>173</v>
       </c>
       <c r="C121" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D121" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E121" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4482,13 +4486,13 @@
         <v>174</v>
       </c>
       <c r="C122" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D122" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E122" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4499,13 +4503,13 @@
         <v>175</v>
       </c>
       <c r="C123" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D123" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E123" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4516,13 +4520,13 @@
         <v>176</v>
       </c>
       <c r="C124" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D124" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E124" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4533,13 +4537,13 @@
         <v>177</v>
       </c>
       <c r="C125" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D125" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E125" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4550,13 +4554,13 @@
         <v>178</v>
       </c>
       <c r="C126" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D126" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E126" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4567,13 +4571,13 @@
         <v>179</v>
       </c>
       <c r="C127" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D127" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E127" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4584,13 +4588,13 @@
         <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D128" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E128" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4601,13 +4605,13 @@
         <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D129" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E129" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4618,13 +4622,13 @@
         <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D130" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E130" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4635,13 +4639,13 @@
         <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D131" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E131" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4652,13 +4656,13 @@
         <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D132" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E132" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4669,13 +4673,13 @@
         <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D133" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E133" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4686,13 +4690,13 @@
         <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D134" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E134" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4703,13 +4707,13 @@
         <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D135" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E135" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4720,13 +4724,13 @@
         <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E136" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4737,13 +4741,13 @@
         <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D137" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E137" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4754,13 +4758,13 @@
         <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D138" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E138" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4771,13 +4775,13 @@
         <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D139" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E139" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4788,13 +4792,13 @@
         <v>192</v>
       </c>
       <c r="C140" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D140" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E140" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4805,13 +4809,13 @@
         <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D141" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E141" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4822,13 +4826,13 @@
         <v>194</v>
       </c>
       <c r="C142" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D142" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E142" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4839,13 +4843,13 @@
         <v>195</v>
       </c>
       <c r="C143" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D143" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E143" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4856,13 +4860,13 @@
         <v>196</v>
       </c>
       <c r="C144" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D144" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E144" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4873,13 +4877,13 @@
         <v>197</v>
       </c>
       <c r="C145" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D145" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E145" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4890,13 +4894,13 @@
         <v>198</v>
       </c>
       <c r="C146" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D146" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E146" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4907,13 +4911,13 @@
         <v>199</v>
       </c>
       <c r="C147" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D147" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E147" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4924,13 +4928,13 @@
         <v>200</v>
       </c>
       <c r="C148" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D148" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E148" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4941,13 +4945,13 @@
         <v>201</v>
       </c>
       <c r="C149" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D149" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E149" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4958,13 +4962,13 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D150" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E150" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4975,13 +4979,13 @@
         <v>203</v>
       </c>
       <c r="C151" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D151" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E151" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4992,13 +4996,13 @@
         <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D152" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E152" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5009,13 +5013,13 @@
         <v>205</v>
       </c>
       <c r="C153" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D153" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E153" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5026,13 +5030,13 @@
         <v>206</v>
       </c>
       <c r="C154" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D154" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E154" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5043,13 +5047,13 @@
         <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D155" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E155" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5060,13 +5064,13 @@
         <v>208</v>
       </c>
       <c r="C156" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D156" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E156" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5077,13 +5081,13 @@
         <v>209</v>
       </c>
       <c r="C157" t="s">
+        <v>491</v>
+      </c>
+      <c r="D157" t="s">
         <v>492</v>
       </c>
-      <c r="D157" t="s">
-        <v>493</v>
-      </c>
       <c r="E157" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -5093,7 +5097,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98B7CB3E-67C8-1C41-B282-92397C45008F}">
           <x14:formula1>
-            <xm:f>Sequences!$A$2:$A$10000</xm:f>
+            <xm:f>'MS Runs'!$A$2:$A$10000</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576 A1</xm:sqref>
         </x14:dataValidation>
@@ -5107,7 +5111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5118,21 +5124,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>515</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>38</v>
@@ -5140,57 +5146,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5272,7 +5278,7 @@
         <v>26.4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G2" s="4">
         <v>0.1</v>
@@ -5307,7 +5313,7 @@
         <v>27.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G3" s="4">
         <v>0.1</v>
@@ -5342,7 +5348,7 @@
         <v>27.1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G4" s="4">
         <v>0.1</v>
@@ -5377,7 +5383,7 @@
         <v>42.6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G5" s="4">
         <v>7.0999999999999994E-2</v>
@@ -5412,7 +5418,7 @@
         <v>44.1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G6" s="4">
         <v>6.8000000000000005E-2</v>
@@ -5447,7 +5453,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G7" s="4">
         <v>6.5000000000000002E-2</v>
@@ -5482,7 +5488,7 @@
         <v>27.5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G8" s="4">
         <v>0.1</v>
@@ -5517,7 +5523,7 @@
         <v>27.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G9" s="4">
         <v>0.1</v>
@@ -5552,7 +5558,7 @@
         <v>28.4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G10" s="4">
         <v>0.106</v>
@@ -5587,7 +5593,7 @@
         <v>28.7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G11" s="4">
         <v>0.105</v>
@@ -5622,7 +5628,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G12" s="4">
         <v>0.06</v>
@@ -5657,7 +5663,7 @@
         <v>54.3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G13" s="4">
         <v>5.5E-2</v>
@@ -21952,7 +21958,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22000,13 +22006,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -22017,13 +22023,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -22034,13 +22040,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -22055,8 +22061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F6D56-CCFC-AC49-A2E8-14B9C4C2FDA8}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22072,25 +22078,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -22101,10 +22107,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -22121,10 +22127,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -22141,10 +22147,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -22161,10 +22167,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -22181,10 +22187,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6">
         <v>13</v>
@@ -22193,7 +22199,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -22201,10 +22207,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -22213,7 +22219,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -22221,10 +22227,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -22233,7 +22239,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -22241,10 +22247,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -22253,7 +22259,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -22261,10 +22267,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -22273,7 +22279,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -22281,10 +22287,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -22293,7 +22299,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
@@ -22323,16 +22329,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -22345,195 +22351,195 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
         <v>277</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>278</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>279</v>
-      </c>
-      <c r="D2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
         <v>281</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>282</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>283</v>
-      </c>
-      <c r="D3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
         <v>285</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>286</v>
-      </c>
-      <c r="D4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" t="s">
         <v>288</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>289</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>290</v>
-      </c>
-      <c r="D5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
         <v>292</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>293</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>294</v>
-      </c>
-      <c r="D6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
         <v>296</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>297</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>298</v>
-      </c>
-      <c r="D7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
         <v>300</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>301</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>302</v>
-      </c>
-      <c r="D8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" t="s">
         <v>304</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>305</v>
-      </c>
-      <c r="D9" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" t="s">
         <v>307</v>
-      </c>
-      <c r="B10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
         <v>309</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>310</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>311</v>
-      </c>
-      <c r="D11" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" t="s">
         <v>313</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>314</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>315</v>
-      </c>
-      <c r="D12" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" t="s">
         <v>317</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>318</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>319</v>
-      </c>
-      <c r="D13" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" t="s">
         <v>321</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>322</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>323</v>
-      </c>
-      <c r="D14" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" t="s">
         <v>325</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>326</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>327</v>
-      </c>
-      <c r="D15" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -22557,13 +22563,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>213</v>
@@ -22571,16 +22577,16 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C2" s="15">
         <v>25</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/submission_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8553B98A-33D4-574F-A30E-393CB0198344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF229AC-854F-E449-9EC9-F23391BE95B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="535">
   <si>
     <t>Animal ID</t>
   </si>
@@ -1650,6 +1650,9 @@
   </si>
   <si>
     <t>MS Runs</t>
+  </si>
+  <si>
+    <t>Tracer</t>
   </si>
 </sst>
 </file>
@@ -21934,8 +21937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E67618-BD12-9F48-A292-71408D478752}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21957,8 +21960,8 @@
       <c r="C1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>509</v>
+      <c r="D1" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22061,7 +22064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F6D56-CCFC-AC49-A2E8-14B9C4C2FDA8}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/DataRepo/data/tests/submission_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF229AC-854F-E449-9EC9-F23391BE95B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2744AA-E916-ED4C-A265-13B027881AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Tracers" sheetId="7" r:id="rId7"/>
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="LC Protocols" sheetId="13" r:id="rId9"/>
-    <sheet name="MS Runs" sheetId="10" r:id="rId10"/>
+    <sheet name="Sequences" sheetId="10" r:id="rId10"/>
     <sheet name="Peak Annotation Files" sheetId="12" r:id="rId11"/>
     <sheet name="Peak Annotation Details" sheetId="9" r:id="rId12"/>
     <sheet name="Defaults" sheetId="11" r:id="rId13"/>
@@ -1649,10 +1649,10 @@
     <t>MS Run Name</t>
   </si>
   <si>
-    <t>MS Runs</t>
-  </si>
-  <si>
     <t>Tracer</t>
+  </si>
+  <si>
+    <t>Sequences</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2393,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC3F7EA2-A21F-974C-966F-6B514DCC32CF}">
           <x14:formula1>
-            <xm:f>'MS Runs'!$A$2:$A$10000</xm:f>
+            <xm:f>Sequences!$A$2:$A$10000</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C4</xm:sqref>
         </x14:dataValidation>
@@ -5100,7 +5100,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98B7CB3E-67C8-1C41-B282-92397C45008F}">
           <x14:formula1>
-            <xm:f>'MS Runs'!$A$2:$A$10000</xm:f>
+            <xm:f>Sequences!$A$2:$A$10000</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576 A1</xm:sqref>
         </x14:dataValidation>
@@ -5114,8 +5114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>331</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>330</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>520</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>329</v>
@@ -21937,7 +21937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E67618-BD12-9F48-A292-71408D478752}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -21961,7 +21961,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>

--- a/DataRepo/data/tests/submission_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2744AA-E916-ED4C-A265-13B027881AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA036C9-B68B-4B4C-98E1-65635036BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -1643,9 +1643,6 @@
     <t>MS Run</t>
   </si>
   <si>
-    <t>Default MS Run</t>
-  </si>
-  <si>
     <t>MS Run Name</t>
   </si>
   <si>
@@ -1653,6 +1650,9 @@
   </si>
   <si>
     <t>Sequences</t>
+  </si>
+  <si>
+    <t>Default Sequence</t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>331</v>
@@ -2330,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2349,7 +2349,7 @@
         <v>529</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -5114,7 +5114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>331</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>330</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>520</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>329</v>
@@ -21961,7 +21961,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>

--- a/DataRepo/data/tests/submission_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA036C9-B68B-4B4C-98E1-65635036BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB05AC-F9D8-DC4A-9B0A-2098C5803AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -1643,9 +1643,6 @@
     <t>MS Run</t>
   </si>
   <si>
-    <t>MS Run Name</t>
-  </si>
-  <si>
     <t>Tracer</t>
   </si>
   <si>
@@ -1653,6 +1650,9 @@
   </si>
   <si>
     <t>Default Sequence</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2251,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>331</v>
@@ -2330,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2349,7 +2349,7 @@
         <v>529</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -5138,7 +5138,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>331</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>330</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>520</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>329</v>
@@ -21961,7 +21961,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>

--- a/DataRepo/data/tests/submission_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB05AC-F9D8-DC4A-9B0A-2098C5803AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F714B-5EC5-8241-BC73-263F40F3F664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37040" windowHeight="26740" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -1640,9 +1640,6 @@
     <t>File Format</t>
   </si>
   <si>
-    <t>MS Run</t>
-  </si>
-  <si>
     <t>Tracer</t>
   </si>
   <si>
@@ -1653,6 +1650,9 @@
   </si>
   <si>
     <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2251,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>331</v>
@@ -2349,7 +2349,7 @@
         <v>529</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2407,7 +2407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2434,7 +2434,7 @@
         <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>500</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>331</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>330</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>520</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>329</v>
@@ -21961,7 +21961,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
